--- a/Översikt SORSELE.xlsx
+++ b/Översikt SORSELE.xlsx
@@ -572,7 +572,7 @@
         <v>44693</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>45085</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>44337</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         <v>44078</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>44078</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44088</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>43648</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44621</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
         <v>44432</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44078</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44426</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>43773</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>44078</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>44370</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>43851</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>43648</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>44865</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43515</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43909</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>44386</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>44336</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>44295</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44518</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>44841</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43397</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44137</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>44432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>44845</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44049</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3379,7 +3379,7 @@
         <v>44075</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>44078</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>44432</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>44841</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>44865</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>45081</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43432</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         <v>43482</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>43654</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>43858</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>44265</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>44440</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>44719</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         <v>45071</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43325</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43333</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43340</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43342</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43342</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43385</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43397</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43397</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43397</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43405</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43416</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43419</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43433</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43434</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43445</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43455</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>43482</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43495</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>43495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43495</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>43495</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>43503</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43510</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43525</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43601</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43601</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43601</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43605</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43605</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>43607</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>43621</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43675</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>43678</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>43679</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>43699</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>43699</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43699</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43702</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>43719</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>43719</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>43738</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43738</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>43738</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>43752</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>43754</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>43758</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>43762</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8549,7 +8549,7 @@
         <v>43766</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>43766</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>43773</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8725,7 +8725,7 @@
         <v>43773</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43794</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>43811</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>43831</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43831</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>43831</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9072,7 +9072,7 @@
         <v>43880</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43909</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43914</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43917</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>43920</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43922</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43922</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43935</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>43958</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>43958</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>43965</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>43990</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>43991</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>43991</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44000</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44000</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>44000</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>44013</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>44041</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>44041</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>44043</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>44063</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>44063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44078</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>44078</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44078</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44078</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>44083</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44090</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>44098</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44102</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10944,7 +10944,7 @@
         <v>44102</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>44102</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>44102</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>44113</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>44136</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>44141</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>44144</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>44145</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>44145</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11477,7 +11477,7 @@
         <v>44145</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44148</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>44148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>44150</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44164</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44173</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44179</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44180</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44203</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44207</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12052,7 +12052,7 @@
         <v>44218</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>44218</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>44222</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>44227</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>44234</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>44234</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>44235</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>44251</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>44251</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>44258</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>44272</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>44277</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>44287</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>44287</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>44295</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44295</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44295</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>44298</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>44298</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>44298</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         <v>44317</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>44317</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>44322</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>44326</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>44326</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>44326</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>44326</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>44330</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>44349</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>44350</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13807,7 +13807,7 @@
         <v>44350</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>44355</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>44355</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>44364</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>44364</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>44376</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14149,7 +14149,7 @@
         <v>44377</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14206,7 +14206,7 @@
         <v>44392</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>44426</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>44432</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>44439</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14439,7 +14439,7 @@
         <v>44448</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>44466</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>44468</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>44473</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>44473</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>44473</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44494</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>44496</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14910,7 +14910,7 @@
         <v>44496</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14967,7 +14967,7 @@
         <v>44501</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15024,7 +15024,7 @@
         <v>44505</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15081,7 +15081,7 @@
         <v>44518</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>44531</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>44532</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
         <v>44533</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         <v>44538</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15366,7 +15366,7 @@
         <v>44546</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15423,7 +15423,7 @@
         <v>44546</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15480,7 +15480,7 @@
         <v>44546</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15537,7 +15537,7 @@
         <v>44546</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>44550</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44566</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15708,7 +15708,7 @@
         <v>44606</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15765,7 +15765,7 @@
         <v>44606</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15822,7 +15822,7 @@
         <v>44619</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15879,7 +15879,7 @@
         <v>44621</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15936,7 +15936,7 @@
         <v>44638</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15993,7 +15993,7 @@
         <v>44648</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16050,7 +16050,7 @@
         <v>44657</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16107,7 +16107,7 @@
         <v>44657</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16164,7 +16164,7 @@
         <v>44657</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16221,7 +16221,7 @@
         <v>44657</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>44719</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44719</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44719</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>44719</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>44725</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>44725</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44731</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>44734</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44784</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16796,7 +16796,7 @@
         <v>44796</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44797</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44834</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44837</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44837</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44841</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44841</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44841</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44845</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44845</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44845</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44846</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>44851</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44851</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>44851</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44851</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>44851</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>44852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44860</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>44866</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>44866</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>44867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         <v>44867</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44869</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         <v>44869</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44869</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44879</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44879</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44882</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18524,7 +18524,7 @@
         <v>44886</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18581,7 +18581,7 @@
         <v>44890</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>44890</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18705,7 +18705,7 @@
         <v>44893</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>44893</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18819,7 +18819,7 @@
         <v>44895</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18876,7 +18876,7 @@
         <v>44897</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44900</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18990,7 +18990,7 @@
         <v>44900</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19047,7 +19047,7 @@
         <v>44900</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19104,7 +19104,7 @@
         <v>44907</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
         <v>44908</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>44914</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44914</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44916</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44916</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>44917</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44917</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44917</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19642,7 +19642,7 @@
         <v>44928</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19704,7 +19704,7 @@
         <v>44928</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19766,7 +19766,7 @@
         <v>44958</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19823,7 +19823,7 @@
         <v>44963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19880,7 +19880,7 @@
         <v>44969</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19937,7 +19937,7 @@
         <v>44974</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19994,7 +19994,7 @@
         <v>44978</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20051,7 +20051,7 @@
         <v>44978</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20108,7 +20108,7 @@
         <v>44978</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20165,7 +20165,7 @@
         <v>44978</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20222,7 +20222,7 @@
         <v>44978</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20279,7 +20279,7 @@
         <v>44984</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20336,7 +20336,7 @@
         <v>44989</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20393,7 +20393,7 @@
         <v>44992</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20450,7 +20450,7 @@
         <v>44992</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20507,7 +20507,7 @@
         <v>44994</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20564,7 +20564,7 @@
         <v>44999</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>44999</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20678,7 +20678,7 @@
         <v>45001</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20735,7 +20735,7 @@
         <v>45002</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20792,7 +20792,7 @@
         <v>45002</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20849,7 +20849,7 @@
         <v>45002</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>45002</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
         <v>45008</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>45015</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>45027</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>45029</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>45029</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>45029</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>45043</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>45054</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         <v>45054</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21491,7 +21491,7 @@
         <v>45056</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21548,7 +21548,7 @@
         <v>45056</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>45057</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>45063</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>45065</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>45068</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>45069</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>45072</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>45072</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>45075</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>45084</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>45085</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>45086</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>45090</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>45103</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22361,7 +22361,7 @@
         <v>45104</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22423,7 +22423,7 @@
         <v>45106</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22480,7 +22480,7 @@
         <v>45107</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22542,7 +22542,7 @@
         <v>45107</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22604,7 +22604,7 @@
         <v>45107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>45110</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>45111</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>45112</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>45117</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22909,7 +22909,7 @@
         <v>45124</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22966,7 +22966,7 @@
         <v>45139</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>45147</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>45147</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>45154</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23204,7 +23204,7 @@
         <v>45154</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23261,7 +23261,7 @@
         <v>45155</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23323,7 +23323,7 @@
         <v>45155</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>45160</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23447,7 +23447,7 @@
         <v>45166</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>45169</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>

--- a/Översikt SORSELE.xlsx
+++ b/Översikt SORSELE.xlsx
@@ -572,7 +572,7 @@
         <v>44693</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>45085</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>44337</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         <v>44078</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>44078</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44088</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>43648</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44621</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
         <v>44432</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44078</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44426</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>43773</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>44078</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>44370</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>43851</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>43648</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>44865</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43515</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43909</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>44386</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>44336</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>44295</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44518</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>44841</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43397</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44137</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>44432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>44845</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44049</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3379,7 +3379,7 @@
         <v>44075</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>44078</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>44432</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>44841</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>44865</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>45081</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43432</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         <v>43482</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>43654</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>43858</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>44265</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>44440</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>44719</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         <v>45071</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43325</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43333</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43340</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43342</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43342</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43385</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43397</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43397</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43397</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43405</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43416</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43419</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43433</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43434</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43445</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43455</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>43482</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43495</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>43495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43495</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>43495</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>43503</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43510</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43525</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43601</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43601</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43601</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43605</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43605</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>43607</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>43621</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43675</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>43678</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>43679</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>43699</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>43699</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43699</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43702</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>43719</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>43719</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>43738</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43738</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>43738</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>43752</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>43754</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>43758</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>43762</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8549,7 +8549,7 @@
         <v>43766</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>43766</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>43773</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8725,7 +8725,7 @@
         <v>43773</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43794</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>43811</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>43831</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43831</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>43831</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9072,7 +9072,7 @@
         <v>43880</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43909</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43914</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43917</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>43920</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43922</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43922</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43935</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>43958</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>43958</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>43965</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>43990</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>43991</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>43991</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44000</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44000</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>44000</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>44013</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>44041</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>44041</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>44043</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>44063</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>44063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44078</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>44078</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44078</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44078</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>44083</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44090</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>44098</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44102</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10944,7 +10944,7 @@
         <v>44102</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>44102</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>44102</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>44113</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>44136</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>44141</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>44144</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>44145</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>44145</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11477,7 +11477,7 @@
         <v>44145</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44148</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>44148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>44150</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44164</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44173</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44179</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44180</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44203</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44207</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12052,7 +12052,7 @@
         <v>44218</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>44218</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>44222</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>44227</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>44234</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>44234</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>44235</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>44251</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>44251</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>44258</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>44272</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>44277</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>44287</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>44287</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>44295</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44295</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44295</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>44298</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>44298</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>44298</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         <v>44317</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>44317</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>44322</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>44326</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>44326</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>44326</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>44326</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>44330</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>44349</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>44350</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13807,7 +13807,7 @@
         <v>44350</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>44355</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>44355</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>44364</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>44364</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>44376</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14149,7 +14149,7 @@
         <v>44377</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14206,7 +14206,7 @@
         <v>44392</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>44426</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>44432</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>44439</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14439,7 +14439,7 @@
         <v>44448</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>44466</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>44468</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>44473</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>44473</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>44473</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44494</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>44496</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14910,7 +14910,7 @@
         <v>44496</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14967,7 +14967,7 @@
         <v>44501</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15024,7 +15024,7 @@
         <v>44505</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15081,7 +15081,7 @@
         <v>44518</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>44531</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>44532</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
         <v>44533</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         <v>44538</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15366,7 +15366,7 @@
         <v>44546</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15423,7 +15423,7 @@
         <v>44546</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15480,7 +15480,7 @@
         <v>44546</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15537,7 +15537,7 @@
         <v>44546</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>44550</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44566</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15708,7 +15708,7 @@
         <v>44606</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15765,7 +15765,7 @@
         <v>44606</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15822,7 +15822,7 @@
         <v>44619</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15879,7 +15879,7 @@
         <v>44621</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15936,7 +15936,7 @@
         <v>44638</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15993,7 +15993,7 @@
         <v>44648</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16050,7 +16050,7 @@
         <v>44657</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16107,7 +16107,7 @@
         <v>44657</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16164,7 +16164,7 @@
         <v>44657</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16221,7 +16221,7 @@
         <v>44657</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>44719</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44719</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44719</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>44719</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>44725</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>44725</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44731</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>44734</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44784</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16796,7 +16796,7 @@
         <v>44796</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44797</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44834</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44837</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44837</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44841</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44841</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44841</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44845</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44845</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44845</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44846</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>44851</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44851</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>44851</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44851</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>44851</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>44852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44860</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>44866</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>44866</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>44867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         <v>44867</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44869</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         <v>44869</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44869</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44879</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44879</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44882</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18524,7 +18524,7 @@
         <v>44886</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18581,7 +18581,7 @@
         <v>44890</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>44890</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18705,7 +18705,7 @@
         <v>44893</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>44893</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18819,7 +18819,7 @@
         <v>44895</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18876,7 +18876,7 @@
         <v>44897</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44900</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18990,7 +18990,7 @@
         <v>44900</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19047,7 +19047,7 @@
         <v>44900</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19104,7 +19104,7 @@
         <v>44907</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
         <v>44908</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>44914</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44914</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44916</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44916</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>44917</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44917</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44917</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19642,7 +19642,7 @@
         <v>44928</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19704,7 +19704,7 @@
         <v>44928</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19766,7 +19766,7 @@
         <v>44958</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19823,7 +19823,7 @@
         <v>44963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19880,7 +19880,7 @@
         <v>44969</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19937,7 +19937,7 @@
         <v>44974</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19994,7 +19994,7 @@
         <v>44978</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20051,7 +20051,7 @@
         <v>44978</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20108,7 +20108,7 @@
         <v>44978</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20165,7 +20165,7 @@
         <v>44978</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20222,7 +20222,7 @@
         <v>44978</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20279,7 +20279,7 @@
         <v>44984</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20336,7 +20336,7 @@
         <v>44989</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20393,7 +20393,7 @@
         <v>44992</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20450,7 +20450,7 @@
         <v>44992</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20507,7 +20507,7 @@
         <v>44994</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20564,7 +20564,7 @@
         <v>44999</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>44999</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20678,7 +20678,7 @@
         <v>45001</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20735,7 +20735,7 @@
         <v>45002</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20792,7 +20792,7 @@
         <v>45002</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20849,7 +20849,7 @@
         <v>45002</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>45002</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
         <v>45008</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>45015</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>45027</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>45029</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>45029</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>45029</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>45043</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>45054</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         <v>45054</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21491,7 +21491,7 @@
         <v>45056</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21548,7 +21548,7 @@
         <v>45056</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>45057</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>45063</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>45065</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>45068</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>45069</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>45072</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>45072</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>45075</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>45084</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>45085</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>45086</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>45090</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>45103</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22361,7 +22361,7 @@
         <v>45104</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22423,7 +22423,7 @@
         <v>45106</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22480,7 +22480,7 @@
         <v>45107</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22542,7 +22542,7 @@
         <v>45107</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22604,7 +22604,7 @@
         <v>45107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>45110</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>45111</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>45112</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>45117</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22909,7 +22909,7 @@
         <v>45124</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22966,7 +22966,7 @@
         <v>45139</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>45147</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>45147</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>45154</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23204,7 +23204,7 @@
         <v>45154</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23261,7 +23261,7 @@
         <v>45155</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23323,7 +23323,7 @@
         <v>45155</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>45160</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23447,7 +23447,7 @@
         <v>45166</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>45169</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>

--- a/Översikt SORSELE.xlsx
+++ b/Översikt SORSELE.xlsx
@@ -572,7 +572,7 @@
         <v>44693</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>45085</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>44337</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         <v>44078</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>44078</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44088</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>43648</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44621</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
         <v>44432</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44078</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44426</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>43773</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>44078</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>44370</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>43851</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>43648</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>44865</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43515</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43909</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>44386</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>44336</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>44295</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44518</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>44841</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43397</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44137</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>44432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>44845</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44049</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3379,7 +3379,7 @@
         <v>44075</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>44078</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>44432</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>44841</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>44865</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>45081</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43432</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         <v>43482</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>43654</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>43858</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>44265</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>44440</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>44719</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         <v>45071</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43325</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43333</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43340</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43342</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43342</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43385</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43397</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43397</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43397</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43405</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43416</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43419</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43433</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43434</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43445</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43455</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>43482</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43495</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>43495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43495</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>43495</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>43503</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43510</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43525</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43601</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43601</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43601</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43605</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43605</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>43607</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>43621</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43675</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>43678</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>43679</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>43699</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>43699</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43699</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43702</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>43719</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>43719</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>43738</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43738</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>43738</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>43752</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>43754</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>43758</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>43762</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8549,7 +8549,7 @@
         <v>43766</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>43766</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>43773</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8725,7 +8725,7 @@
         <v>43773</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43794</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>43811</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>43831</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43831</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>43831</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9072,7 +9072,7 @@
         <v>43880</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43909</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43914</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43917</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>43920</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43922</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43922</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43935</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>43958</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>43958</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>43965</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>43990</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>43991</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>43991</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44000</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44000</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>44000</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>44013</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>44041</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>44041</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>44043</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>44063</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>44063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44078</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>44078</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44078</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44078</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>44083</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44090</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>44098</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44102</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10944,7 +10944,7 @@
         <v>44102</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>44102</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>44102</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>44113</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>44136</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>44141</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>44144</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>44145</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>44145</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11477,7 +11477,7 @@
         <v>44145</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44148</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>44148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>44150</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44164</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44173</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44179</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44180</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44203</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44207</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12052,7 +12052,7 @@
         <v>44218</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>44218</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>44222</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>44227</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>44234</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>44234</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>44235</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>44251</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>44251</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>44258</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>44272</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>44277</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>44287</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>44287</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>44295</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44295</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44295</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>44298</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>44298</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>44298</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         <v>44317</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>44317</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>44322</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>44326</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>44326</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>44326</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>44326</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>44330</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>44349</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>44350</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13807,7 +13807,7 @@
         <v>44350</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>44355</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>44355</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>44364</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>44364</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>44376</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14149,7 +14149,7 @@
         <v>44377</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14206,7 +14206,7 @@
         <v>44392</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>44426</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>44432</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>44439</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14439,7 +14439,7 @@
         <v>44448</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>44466</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>44468</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>44473</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>44473</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>44473</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44494</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>44496</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14910,7 +14910,7 @@
         <v>44496</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14967,7 +14967,7 @@
         <v>44501</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15024,7 +15024,7 @@
         <v>44505</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15081,7 +15081,7 @@
         <v>44518</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>44531</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>44532</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
         <v>44533</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         <v>44538</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15366,7 +15366,7 @@
         <v>44546</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15423,7 +15423,7 @@
         <v>44546</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15480,7 +15480,7 @@
         <v>44546</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15537,7 +15537,7 @@
         <v>44546</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>44550</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44566</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15708,7 +15708,7 @@
         <v>44606</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15765,7 +15765,7 @@
         <v>44606</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15822,7 +15822,7 @@
         <v>44619</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15879,7 +15879,7 @@
         <v>44621</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15936,7 +15936,7 @@
         <v>44638</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15993,7 +15993,7 @@
         <v>44648</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16050,7 +16050,7 @@
         <v>44657</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16107,7 +16107,7 @@
         <v>44657</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16164,7 +16164,7 @@
         <v>44657</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16221,7 +16221,7 @@
         <v>44657</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>44719</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44719</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44719</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>44719</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>44725</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>44725</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44731</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>44734</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44784</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16796,7 +16796,7 @@
         <v>44796</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44797</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44834</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44837</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44837</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44841</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44841</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44841</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44845</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44845</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44845</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44846</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>44851</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44851</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>44851</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44851</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>44851</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>44852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44860</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>44866</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>44866</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>44867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         <v>44867</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44869</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         <v>44869</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44869</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44879</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44879</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44882</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18524,7 +18524,7 @@
         <v>44886</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18581,7 +18581,7 @@
         <v>44890</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>44890</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18705,7 +18705,7 @@
         <v>44893</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>44893</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18819,7 +18819,7 @@
         <v>44895</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18876,7 +18876,7 @@
         <v>44897</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44900</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18990,7 +18990,7 @@
         <v>44900</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19047,7 +19047,7 @@
         <v>44900</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19104,7 +19104,7 @@
         <v>44907</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
         <v>44908</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>44914</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44914</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44916</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44916</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>44917</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44917</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44917</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19642,7 +19642,7 @@
         <v>44928</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19704,7 +19704,7 @@
         <v>44928</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19766,7 +19766,7 @@
         <v>44958</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19823,7 +19823,7 @@
         <v>44963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19880,7 +19880,7 @@
         <v>44969</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19937,7 +19937,7 @@
         <v>44974</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19994,7 +19994,7 @@
         <v>44978</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20051,7 +20051,7 @@
         <v>44978</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20108,7 +20108,7 @@
         <v>44978</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20165,7 +20165,7 @@
         <v>44978</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20222,7 +20222,7 @@
         <v>44978</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20279,7 +20279,7 @@
         <v>44984</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20336,7 +20336,7 @@
         <v>44989</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20393,7 +20393,7 @@
         <v>44992</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20450,7 +20450,7 @@
         <v>44992</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20507,7 +20507,7 @@
         <v>44994</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20564,7 +20564,7 @@
         <v>44999</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>44999</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20678,7 +20678,7 @@
         <v>45001</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20735,7 +20735,7 @@
         <v>45002</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20792,7 +20792,7 @@
         <v>45002</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20849,7 +20849,7 @@
         <v>45002</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>45002</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
         <v>45008</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>45015</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>45027</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>45029</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>45029</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>45029</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>45043</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>45054</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         <v>45054</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21491,7 +21491,7 @@
         <v>45056</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21548,7 +21548,7 @@
         <v>45056</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>45057</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>45063</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>45065</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>45068</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>45069</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>45072</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>45072</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>45075</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>45084</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>45085</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>45086</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>45090</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>45103</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22361,7 +22361,7 @@
         <v>45104</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22423,7 +22423,7 @@
         <v>45106</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22480,7 +22480,7 @@
         <v>45107</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22542,7 +22542,7 @@
         <v>45107</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22604,7 +22604,7 @@
         <v>45107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>45110</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>45111</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>45112</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>45117</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22909,7 +22909,7 @@
         <v>45124</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22966,7 +22966,7 @@
         <v>45139</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>45147</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>45147</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>45154</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23204,7 +23204,7 @@
         <v>45154</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23261,7 +23261,7 @@
         <v>45155</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23323,7 +23323,7 @@
         <v>45155</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>45160</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23447,7 +23447,7 @@
         <v>45166</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>45169</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>

--- a/Översikt SORSELE.xlsx
+++ b/Översikt SORSELE.xlsx
@@ -572,7 +572,7 @@
         <v>44693</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>45085</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>44337</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         <v>44078</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>44078</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44088</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>43648</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44621</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
         <v>44432</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44078</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         <v>44426</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>43773</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>44078</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>44370</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>43851</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>43648</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2213,7 +2213,7 @@
         <v>44865</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43515</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>43909</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
         <v>44386</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>44336</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>44295</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44518</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>44841</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43397</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44137</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>44432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>44845</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>44049</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3379,7 +3379,7 @@
         <v>44075</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>44078</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         <v>44432</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>44841</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         <v>44865</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>45081</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>43432</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         <v>43482</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>43654</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4180,7 +4180,7 @@
         <v>43858</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>44265</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>44440</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4440,7 +4440,7 @@
         <v>44719</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         <v>45071</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>43325</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>43333</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43340</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43342</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43342</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43385</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43397</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43397</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43397</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43405</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43416</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43419</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43433</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43434</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43445</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>43455</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5775,7 +5775,7 @@
         <v>43482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         <v>43482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5889,7 +5889,7 @@
         <v>43482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         <v>43482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         <v>43482</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6261,7 +6261,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6323,7 +6323,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>43482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>43495</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6618,7 +6618,7 @@
         <v>43495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6675,7 +6675,7 @@
         <v>43495</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>43495</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
         <v>43503</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6846,7 +6846,7 @@
         <v>43510</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43525</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6960,7 +6960,7 @@
         <v>43601</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43601</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43601</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43605</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43605</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>43607</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>43621</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43675</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>43678</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         <v>43679</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>43699</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>43699</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>43699</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>43702</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>43719</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>43719</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>43738</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>43738</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>43738</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>43752</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>43754</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>43758</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>43762</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8549,7 +8549,7 @@
         <v>43766</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8606,7 +8606,7 @@
         <v>43766</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8663,7 +8663,7 @@
         <v>43773</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8725,7 +8725,7 @@
         <v>43773</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43794</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8844,7 +8844,7 @@
         <v>43811</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         <v>43831</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>43831</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>43831</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9072,7 +9072,7 @@
         <v>43880</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43909</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43914</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43917</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>43920</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43922</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43922</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9491,7 +9491,7 @@
         <v>43935</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>43958</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>43958</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>43965</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>43990</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>43991</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>43991</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44000</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44000</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>44000</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>44013</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>44041</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>44041</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>44043</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>44063</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>44063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44078</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>44078</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>44078</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10639,7 +10639,7 @@
         <v>44078</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         <v>44083</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10758,7 +10758,7 @@
         <v>44090</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>44098</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44102</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10944,7 +10944,7 @@
         <v>44102</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>44102</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         <v>44102</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>44113</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>44136</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>44141</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
         <v>44144</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>44145</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>44145</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11477,7 +11477,7 @@
         <v>44145</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44148</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>44148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>44150</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>44164</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>44173</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>44179</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44180</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44203</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44207</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12052,7 +12052,7 @@
         <v>44218</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>44218</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>44222</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>44227</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>44234</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>44234</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>44235</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>44251</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>44251</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>44258</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>44272</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>44277</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>44287</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         <v>44287</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>44295</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44295</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>44295</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>44298</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13108,7 +13108,7 @@
         <v>44298</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13165,7 +13165,7 @@
         <v>44298</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         <v>44317</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>44317</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>44322</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>44326</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         <v>44326</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13512,7 +13512,7 @@
         <v>44326</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>44326</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>44330</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13688,7 +13688,7 @@
         <v>44349</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>44350</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13807,7 +13807,7 @@
         <v>44350</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>44355</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>44355</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>44364</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>44364</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>44376</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14149,7 +14149,7 @@
         <v>44377</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14206,7 +14206,7 @@
         <v>44392</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>44426</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>44432</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>44439</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14439,7 +14439,7 @@
         <v>44448</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>44466</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>44468</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>44473</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>44473</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
         <v>44473</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44494</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>44496</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14910,7 +14910,7 @@
         <v>44496</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14967,7 +14967,7 @@
         <v>44501</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15024,7 +15024,7 @@
         <v>44505</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15081,7 +15081,7 @@
         <v>44518</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15138,7 +15138,7 @@
         <v>44531</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>44532</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15252,7 +15252,7 @@
         <v>44533</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         <v>44538</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15366,7 +15366,7 @@
         <v>44546</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15423,7 +15423,7 @@
         <v>44546</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15480,7 +15480,7 @@
         <v>44546</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15537,7 +15537,7 @@
         <v>44546</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>44550</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44566</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15708,7 +15708,7 @@
         <v>44606</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15765,7 +15765,7 @@
         <v>44606</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15822,7 +15822,7 @@
         <v>44619</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15879,7 +15879,7 @@
         <v>44621</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15936,7 +15936,7 @@
         <v>44638</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15993,7 +15993,7 @@
         <v>44648</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16050,7 +16050,7 @@
         <v>44657</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16107,7 +16107,7 @@
         <v>44657</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16164,7 +16164,7 @@
         <v>44657</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16221,7 +16221,7 @@
         <v>44657</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>44719</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44719</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44719</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>44719</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>44725</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>44725</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44731</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>44734</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44784</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16796,7 +16796,7 @@
         <v>44796</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
         <v>44797</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16915,7 +16915,7 @@
         <v>44834</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16972,7 +16972,7 @@
         <v>44837</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44837</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44841</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>44841</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>44841</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17257,7 +17257,7 @@
         <v>44845</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17314,7 +17314,7 @@
         <v>44845</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         <v>44845</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44846</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>44851</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44851</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>44851</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>44851</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>44851</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>44852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44860</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>44866</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>44866</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>44867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         <v>44867</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         <v>44869</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         <v>44869</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18286,7 +18286,7 @@
         <v>44869</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>44879</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44879</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>44882</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18524,7 +18524,7 @@
         <v>44886</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18581,7 +18581,7 @@
         <v>44890</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>44890</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18705,7 +18705,7 @@
         <v>44893</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>44893</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18819,7 +18819,7 @@
         <v>44895</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18876,7 +18876,7 @@
         <v>44897</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>44900</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18990,7 +18990,7 @@
         <v>44900</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19047,7 +19047,7 @@
         <v>44900</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19104,7 +19104,7 @@
         <v>44907</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
         <v>44908</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>44914</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>44914</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>44916</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44916</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>44917</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>44917</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>44917</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19642,7 +19642,7 @@
         <v>44928</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19704,7 +19704,7 @@
         <v>44928</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19766,7 +19766,7 @@
         <v>44958</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19823,7 +19823,7 @@
         <v>44963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19880,7 +19880,7 @@
         <v>44969</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19937,7 +19937,7 @@
         <v>44974</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19994,7 +19994,7 @@
         <v>44978</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20051,7 +20051,7 @@
         <v>44978</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20108,7 +20108,7 @@
         <v>44978</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20165,7 +20165,7 @@
         <v>44978</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20222,7 +20222,7 @@
         <v>44978</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20279,7 +20279,7 @@
         <v>44984</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20336,7 +20336,7 @@
         <v>44989</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20393,7 +20393,7 @@
         <v>44992</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20450,7 +20450,7 @@
         <v>44992</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20507,7 +20507,7 @@
         <v>44994</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20564,7 +20564,7 @@
         <v>44999</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
         <v>44999</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20678,7 +20678,7 @@
         <v>45001</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20735,7 +20735,7 @@
         <v>45002</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20792,7 +20792,7 @@
         <v>45002</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20849,7 +20849,7 @@
         <v>45002</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20906,7 +20906,7 @@
         <v>45002</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20963,7 +20963,7 @@
         <v>45008</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21025,7 +21025,7 @@
         <v>45015</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21082,7 +21082,7 @@
         <v>45027</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>45029</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
         <v>45029</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21253,7 +21253,7 @@
         <v>45029</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21310,7 +21310,7 @@
         <v>45043</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21367,7 +21367,7 @@
         <v>45054</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         <v>45054</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21491,7 +21491,7 @@
         <v>45056</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21548,7 +21548,7 @@
         <v>45056</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>45057</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>45063</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>45065</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21776,7 +21776,7 @@
         <v>45068</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21833,7 +21833,7 @@
         <v>45069</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>45072</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>45072</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>45075</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22071,7 +22071,7 @@
         <v>45084</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22128,7 +22128,7 @@
         <v>45085</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22185,7 +22185,7 @@
         <v>45086</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22242,7 +22242,7 @@
         <v>45090</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22299,7 +22299,7 @@
         <v>45103</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22361,7 +22361,7 @@
         <v>45104</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22423,7 +22423,7 @@
         <v>45106</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22480,7 +22480,7 @@
         <v>45107</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22542,7 +22542,7 @@
         <v>45107</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22604,7 +22604,7 @@
         <v>45107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22666,7 +22666,7 @@
         <v>45110</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22728,7 +22728,7 @@
         <v>45111</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>45112</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>45117</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22909,7 +22909,7 @@
         <v>45124</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22966,7 +22966,7 @@
         <v>45139</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>45147</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>45147</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>45154</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23204,7 +23204,7 @@
         <v>45154</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23261,7 +23261,7 @@
         <v>45155</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23323,7 +23323,7 @@
         <v>45155</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>45160</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23447,7 +23447,7 @@
         <v>45166</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>45169</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>

--- a/Översikt SORSELE.xlsx
+++ b/Översikt SORSELE.xlsx
@@ -572,7 +572,7 @@
         <v>44693</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>45085</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>44337</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         <v>44078</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>44078</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44088</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>43648</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44621</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
         <v>44432</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1513,14 +1513,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 43982-2020</t>
+          <t>A 50909-2022</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44078</v>
+        <v>44865</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1532,25 +1532,20 @@
           <t>SORSELE</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G11" t="n">
-        <v>981</v>
+        <v>14.6</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
       </c>
       <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>12</v>
+      </c>
+      <c r="K11" t="n">
         <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>10</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1565,12 +1560,116 @@
         <v>13</v>
       </c>
       <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>15</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Grantickeporing
+Gammelgransskål
+Garnlav
+Granticka
+Gränsticka
+Harticka
+Knottrig blåslav
+Lunglav
+Rosenticka
+Rödbrun blekspik
+Tretåig hackspett
+Ullticka
+Vitgrynig nållav
+Gulnål
+Stuplav</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 50909-2022.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 50909-2022.png")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 50909-2022.docx")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 50909-2022.docx")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 50909-2022.docx")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 50909-2022.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 43982-2020</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>44078</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SORSELE</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>981</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>10</v>
+      </c>
+      <c r="K12" t="n">
         <v>3</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>13</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
         <v>14</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Ostticka
 Rynkskinn
@@ -1588,87 +1687,87 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 43982-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 43982-2020.png")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 43982-2020.docx")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 43982-2020.docx")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 43982-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 43982-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 42138-2021</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>44426</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>SORSELE</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
+      <c r="C13" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SORSELE</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>20</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H13" t="n">
         <v>2</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I13" t="n">
         <v>6</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J13" t="n">
         <v>6</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>6</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>13</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Blanksvart spiklav
 Knottrig blåslav
@@ -1685,92 +1784,92 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 42138-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 42138-2021.png")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 42138-2021.docx")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 42138-2021.docx")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 42138-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 42138-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>A 58512-2019</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B14" s="1" t="n">
         <v>43773</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>SORSELE</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="C14" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SORSELE</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="G14" t="n">
         <v>27.7</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H14" t="n">
         <v>2</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I14" t="n">
         <v>3</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J14" t="n">
         <v>9</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>9</v>
       </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>12</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Doftskinn
 Gammelgransskål
@@ -1786,92 +1885,92 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 58512-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 58512-2019.png")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 58512-2019.docx")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 58512-2019.docx")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 58512-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 58512-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 43976-2020</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>44078</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>SORSELE</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="C15" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SORSELE</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="G15" t="n">
         <v>115.3</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J15" t="n">
         <v>6</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K15" t="n">
         <v>4</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>10</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P15" t="n">
         <v>4</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q15" t="n">
         <v>11</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Lappticka
 Ostticka
@@ -1886,92 +1985,92 @@
 Blodticka</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 43976-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 43976-2020.png")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 43976-2020.docx")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 43976-2020.docx")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 43976-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 43976-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 31945-2021</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>44370</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>SORSELE</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="C16" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>SORSELE</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G16" t="n">
         <v>17.7</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>10</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K16" t="n">
         <v>1</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>11</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P16" t="n">
         <v>1</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q16" t="n">
         <v>11</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Rynkskinn
 Doftskinn
@@ -1986,87 +2085,87 @@
 Ullticka</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 31945-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 31945-2021.png")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 31945-2021.docx")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 31945-2021.docx")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 31945-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 31945-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 3137-2020</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>43851</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>SORSELE</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="C17" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>SORSELE</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>12.3</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J17" t="n">
         <v>9</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>9</v>
       </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>10</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Garnlav
@@ -2080,92 +2179,92 @@
 Stuplav</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 3137-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 3137-2020.png")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 3137-2020.docx")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 3137-2020.docx")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 3137-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 3137-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 34371-2019</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>43648</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>SORSELE</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="C18" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>SORSELE</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="G18" t="n">
         <v>20.7</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H18" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J18" t="n">
         <v>6</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K18" t="n">
         <v>2</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>8</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P18" t="n">
         <v>2</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q18" t="n">
         <v>9</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Lappticka
 Ostticka
@@ -2178,121 +2277,28 @@
 Stuplav</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 34371-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 34371-2019.png")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 34371-2019.docx")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 34371-2019.docx")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 34371-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 34371-2019.docx")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 50909-2022</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>44865</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>SORSELE</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>7</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>7</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>9</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav
-Gränsticka
-Lunglav
-Rosenticka
-Rödbrun blekspik
-Tretåig hackspett
-Ullticka
-Gulnål
-Stuplav</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 50909-2022.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 50909-2022.png")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 50909-2022.docx")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 50909-2022.docx")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 50909-2022.docx")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 50909-2022.docx")</f>
         <v/>
       </c>
     </row>
@@ -2306,7 +2312,7 @@
         <v>43515</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2402,7 +2408,7 @@
         <v>43909</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2492,7 +2498,7 @@
         <v>44386</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2582,7 +2588,7 @@
         <v>44336</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2671,7 +2677,7 @@
         <v>44295</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2764,7 +2770,7 @@
         <v>44518</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2852,7 +2858,7 @@
         <v>44841</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2940,7 +2946,7 @@
         <v>43397</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3032,7 +3038,7 @@
         <v>44137</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3119,7 +3125,7 @@
         <v>44432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3206,7 +3212,7 @@
         <v>44845</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3293,7 +3299,7 @@
         <v>44049</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3379,7 +3385,7 @@
         <v>44075</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3470,7 +3476,7 @@
         <v>44078</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3561,7 +3567,7 @@
         <v>44432</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3647,7 +3653,7 @@
         <v>44841</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3733,7 +3739,7 @@
         <v>44865</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3819,7 +3825,7 @@
         <v>45081</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3910,7 +3916,7 @@
         <v>43432</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4000,7 +4006,7 @@
         <v>43482</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4090,7 +4096,7 @@
         <v>43654</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4180,7 +4186,7 @@
         <v>43858</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4270,7 +4276,7 @@
         <v>44265</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4355,7 +4361,7 @@
         <v>44440</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4440,7 +4446,7 @@
         <v>44719</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4525,7 +4531,7 @@
         <v>45071</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4610,7 +4616,7 @@
         <v>43325</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4667,7 +4673,7 @@
         <v>43333</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4729,7 +4735,7 @@
         <v>43340</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4791,7 +4797,7 @@
         <v>43342</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4848,7 +4854,7 @@
         <v>43342</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4905,7 +4911,7 @@
         <v>43349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4962,7 +4968,7 @@
         <v>43385</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5019,7 +5025,7 @@
         <v>43397</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5076,7 +5082,7 @@
         <v>43397</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5133,7 +5139,7 @@
         <v>43397</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5190,7 +5196,7 @@
         <v>43405</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5247,7 +5253,7 @@
         <v>43416</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5304,7 +5310,7 @@
         <v>43419</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5361,7 +5367,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5418,7 +5424,7 @@
         <v>43433</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5475,7 +5481,7 @@
         <v>43434</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5532,7 +5538,7 @@
         <v>43445</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5594,7 +5600,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5651,7 +5657,7 @@
         <v>43455</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5713,7 +5719,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5775,7 +5781,7 @@
         <v>43482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5832,7 +5838,7 @@
         <v>43482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5889,7 +5895,7 @@
         <v>43482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5951,7 +5957,7 @@
         <v>43482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6013,7 +6019,7 @@
         <v>43482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6075,7 +6081,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6137,7 +6143,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6199,7 +6205,7 @@
         <v>43482</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6261,7 +6267,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6323,7 +6329,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6385,7 +6391,7 @@
         <v>43482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6447,7 +6453,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6504,7 +6510,7 @@
         <v>43495</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6561,7 +6567,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6618,7 +6624,7 @@
         <v>43495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6675,7 +6681,7 @@
         <v>43495</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6732,7 +6738,7 @@
         <v>43495</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6789,7 +6795,7 @@
         <v>43503</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6846,7 +6852,7 @@
         <v>43510</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6903,7 +6909,7 @@
         <v>43525</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6960,7 +6966,7 @@
         <v>43601</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7017,7 +7023,7 @@
         <v>43601</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7074,7 +7080,7 @@
         <v>43601</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7131,7 +7137,7 @@
         <v>43605</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7188,7 +7194,7 @@
         <v>43605</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7245,7 +7251,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7302,7 +7308,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7364,7 +7370,7 @@
         <v>43607</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7426,7 +7432,7 @@
         <v>43621</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7488,7 +7494,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7550,7 +7556,7 @@
         <v>43675</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7607,7 +7613,7 @@
         <v>43678</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7669,7 +7675,7 @@
         <v>43679</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7731,7 +7737,7 @@
         <v>43699</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7788,7 +7794,7 @@
         <v>43699</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7850,7 +7856,7 @@
         <v>43699</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7907,7 +7913,7 @@
         <v>43702</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7964,7 +7970,7 @@
         <v>43705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8021,7 +8027,7 @@
         <v>43719</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8078,7 +8084,7 @@
         <v>43719</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8135,7 +8141,7 @@
         <v>43738</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8197,7 +8203,7 @@
         <v>43738</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8259,7 +8265,7 @@
         <v>43738</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8321,7 +8327,7 @@
         <v>43752</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8378,7 +8384,7 @@
         <v>43754</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8435,7 +8441,7 @@
         <v>43758</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8492,7 +8498,7 @@
         <v>43762</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8549,7 +8555,7 @@
         <v>43766</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8606,7 +8612,7 @@
         <v>43766</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8663,7 +8669,7 @@
         <v>43773</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8725,7 +8731,7 @@
         <v>43773</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8787,7 +8793,7 @@
         <v>43794</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8844,7 +8850,7 @@
         <v>43811</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8901,7 +8907,7 @@
         <v>43831</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8958,7 +8964,7 @@
         <v>43831</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9015,7 +9021,7 @@
         <v>43831</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9072,7 +9078,7 @@
         <v>43880</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9134,7 +9140,7 @@
         <v>43909</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9191,7 +9197,7 @@
         <v>43914</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9253,7 +9259,7 @@
         <v>43917</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9315,7 +9321,7 @@
         <v>43920</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9377,7 +9383,7 @@
         <v>43922</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9434,7 +9440,7 @@
         <v>43922</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9491,7 +9497,7 @@
         <v>43935</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9553,7 +9559,7 @@
         <v>43958</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9610,7 +9616,7 @@
         <v>43958</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9667,7 +9673,7 @@
         <v>43965</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9724,7 +9730,7 @@
         <v>43990</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9781,7 +9787,7 @@
         <v>43991</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9838,7 +9844,7 @@
         <v>43991</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9895,7 +9901,7 @@
         <v>44000</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9957,7 +9963,7 @@
         <v>44000</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10019,7 +10025,7 @@
         <v>44000</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10081,7 +10087,7 @@
         <v>44013</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10143,7 +10149,7 @@
         <v>44041</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10205,7 +10211,7 @@
         <v>44041</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10267,7 +10273,7 @@
         <v>44043</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10329,7 +10335,7 @@
         <v>44063</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10391,7 +10397,7 @@
         <v>44063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10453,7 +10459,7 @@
         <v>44078</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10515,7 +10521,7 @@
         <v>44078</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10577,7 +10583,7 @@
         <v>44078</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10639,7 +10645,7 @@
         <v>44078</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10701,7 +10707,7 @@
         <v>44083</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10758,7 +10764,7 @@
         <v>44090</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10820,7 +10826,7 @@
         <v>44098</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10882,7 +10888,7 @@
         <v>44102</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10944,7 +10950,7 @@
         <v>44102</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11006,7 +11012,7 @@
         <v>44102</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11068,7 +11074,7 @@
         <v>44102</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11130,7 +11136,7 @@
         <v>44113</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11187,7 +11193,7 @@
         <v>44136</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11244,7 +11250,7 @@
         <v>44141</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11301,7 +11307,7 @@
         <v>44144</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11363,7 +11369,7 @@
         <v>44145</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11420,7 +11426,7 @@
         <v>44145</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11477,7 +11483,7 @@
         <v>44145</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11534,7 +11540,7 @@
         <v>44148</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11591,7 +11597,7 @@
         <v>44148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11648,7 +11654,7 @@
         <v>44150</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11705,7 +11711,7 @@
         <v>44164</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11762,7 +11768,7 @@
         <v>44173</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11819,7 +11825,7 @@
         <v>44179</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11876,7 +11882,7 @@
         <v>44180</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11933,7 +11939,7 @@
         <v>44203</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11990,7 +11996,7 @@
         <v>44207</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12052,7 +12058,7 @@
         <v>44218</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12114,7 +12120,7 @@
         <v>44218</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12176,7 +12182,7 @@
         <v>44222</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12238,7 +12244,7 @@
         <v>44227</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12295,7 +12301,7 @@
         <v>44234</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12352,7 +12358,7 @@
         <v>44234</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12409,7 +12415,7 @@
         <v>44235</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12466,7 +12472,7 @@
         <v>44251</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12523,7 +12529,7 @@
         <v>44251</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12580,7 +12586,7 @@
         <v>44258</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12637,7 +12643,7 @@
         <v>44272</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12694,7 +12700,7 @@
         <v>44277</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12751,7 +12757,7 @@
         <v>44287</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12813,7 +12819,7 @@
         <v>44287</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12875,7 +12881,7 @@
         <v>44295</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12932,7 +12938,7 @@
         <v>44295</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12989,7 +12995,7 @@
         <v>44295</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13051,7 +13057,7 @@
         <v>44298</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13108,7 +13114,7 @@
         <v>44298</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13165,7 +13171,7 @@
         <v>44298</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13222,7 +13228,7 @@
         <v>44317</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13279,7 +13285,7 @@
         <v>44317</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13336,7 +13342,7 @@
         <v>44322</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13398,7 +13404,7 @@
         <v>44326</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13455,7 +13461,7 @@
         <v>44326</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13512,7 +13518,7 @@
         <v>44326</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13569,7 +13575,7 @@
         <v>44326</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13626,7 +13632,7 @@
         <v>44330</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13688,7 +13694,7 @@
         <v>44349</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13750,7 +13756,7 @@
         <v>44350</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13807,7 +13813,7 @@
         <v>44350</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13864,7 +13870,7 @@
         <v>44355</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13921,7 +13927,7 @@
         <v>44355</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13978,7 +13984,7 @@
         <v>44364</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14035,7 +14041,7 @@
         <v>44364</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14092,7 +14098,7 @@
         <v>44376</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14149,7 +14155,7 @@
         <v>44377</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14206,7 +14212,7 @@
         <v>44392</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14268,7 +14274,7 @@
         <v>44426</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14325,7 +14331,7 @@
         <v>44432</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14382,7 +14388,7 @@
         <v>44439</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14439,7 +14445,7 @@
         <v>44448</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14496,7 +14502,7 @@
         <v>44466</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14553,7 +14559,7 @@
         <v>44468</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14610,7 +14616,7 @@
         <v>44473</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14672,7 +14678,7 @@
         <v>44473</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14734,7 +14740,7 @@
         <v>44473</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14796,7 +14802,7 @@
         <v>44494</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14853,7 +14859,7 @@
         <v>44496</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14910,7 +14916,7 @@
         <v>44496</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14967,7 +14973,7 @@
         <v>44501</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15024,7 +15030,7 @@
         <v>44505</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15081,7 +15087,7 @@
         <v>44518</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15138,7 +15144,7 @@
         <v>44531</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15195,7 +15201,7 @@
         <v>44532</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15252,7 +15258,7 @@
         <v>44533</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15309,7 +15315,7 @@
         <v>44538</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15366,7 +15372,7 @@
         <v>44546</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15423,7 +15429,7 @@
         <v>44546</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15480,7 +15486,7 @@
         <v>44546</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15537,7 +15543,7 @@
         <v>44546</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15594,7 +15600,7 @@
         <v>44550</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15651,7 +15657,7 @@
         <v>44566</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15708,7 +15714,7 @@
         <v>44606</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15765,7 +15771,7 @@
         <v>44606</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15822,7 +15828,7 @@
         <v>44619</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15879,7 +15885,7 @@
         <v>44621</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15936,7 +15942,7 @@
         <v>44638</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15993,7 +15999,7 @@
         <v>44648</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16050,7 +16056,7 @@
         <v>44657</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16107,7 +16113,7 @@
         <v>44657</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16164,7 +16170,7 @@
         <v>44657</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16221,7 +16227,7 @@
         <v>44657</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16278,7 +16284,7 @@
         <v>44719</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16335,7 +16341,7 @@
         <v>44719</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16392,7 +16398,7 @@
         <v>44719</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16449,7 +16455,7 @@
         <v>44719</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16506,7 +16512,7 @@
         <v>44725</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16563,7 +16569,7 @@
         <v>44725</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16620,7 +16626,7 @@
         <v>44731</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16677,7 +16683,7 @@
         <v>44734</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16734,7 +16740,7 @@
         <v>44784</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16796,7 +16802,7 @@
         <v>44796</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16858,7 +16864,7 @@
         <v>44797</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16915,7 +16921,7 @@
         <v>44834</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16972,7 +16978,7 @@
         <v>44837</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17029,7 +17035,7 @@
         <v>44837</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17086,7 +17092,7 @@
         <v>44841</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17143,7 +17149,7 @@
         <v>44841</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17200,7 +17206,7 @@
         <v>44841</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17257,7 +17263,7 @@
         <v>44845</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17314,7 +17320,7 @@
         <v>44845</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17371,7 +17377,7 @@
         <v>44845</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17428,7 +17434,7 @@
         <v>44846</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17490,7 +17496,7 @@
         <v>44851</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17552,7 +17558,7 @@
         <v>44851</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17614,7 +17620,7 @@
         <v>44851</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17676,7 +17682,7 @@
         <v>44851</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17738,7 +17744,7 @@
         <v>44851</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17800,7 +17806,7 @@
         <v>44852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17857,7 +17863,7 @@
         <v>44860</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17919,7 +17925,7 @@
         <v>44866</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17981,7 +17987,7 @@
         <v>44866</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18038,7 +18044,7 @@
         <v>44867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18100,7 +18106,7 @@
         <v>44867</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18162,7 +18168,7 @@
         <v>44869</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18224,7 +18230,7 @@
         <v>44869</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18286,7 +18292,7 @@
         <v>44869</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18348,7 +18354,7 @@
         <v>44879</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18405,7 +18411,7 @@
         <v>44879</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18462,7 +18468,7 @@
         <v>44882</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18524,7 +18530,7 @@
         <v>44886</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18581,7 +18587,7 @@
         <v>44890</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18643,7 +18649,7 @@
         <v>44890</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18705,7 +18711,7 @@
         <v>44893</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18762,7 +18768,7 @@
         <v>44893</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18819,7 +18825,7 @@
         <v>44895</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18876,7 +18882,7 @@
         <v>44897</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18933,7 +18939,7 @@
         <v>44900</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18990,7 +18996,7 @@
         <v>44900</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19047,7 +19053,7 @@
         <v>44900</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19104,7 +19110,7 @@
         <v>44907</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19161,7 +19167,7 @@
         <v>44908</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19218,7 +19224,7 @@
         <v>44914</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19275,7 +19281,7 @@
         <v>44914</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19332,7 +19338,7 @@
         <v>44916</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19394,7 +19400,7 @@
         <v>44916</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19456,7 +19462,7 @@
         <v>44917</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19518,7 +19524,7 @@
         <v>44917</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19580,7 +19586,7 @@
         <v>44917</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19642,7 +19648,7 @@
         <v>44928</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19704,7 +19710,7 @@
         <v>44928</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19766,7 +19772,7 @@
         <v>44958</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19823,7 +19829,7 @@
         <v>44963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19880,7 +19886,7 @@
         <v>44969</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19937,7 +19943,7 @@
         <v>44974</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19994,7 +20000,7 @@
         <v>44978</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20051,7 +20057,7 @@
         <v>44978</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20108,7 +20114,7 @@
         <v>44978</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20165,7 +20171,7 @@
         <v>44978</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20222,7 +20228,7 @@
         <v>44978</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20279,7 +20285,7 @@
         <v>44984</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20336,7 +20342,7 @@
         <v>44989</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20393,7 +20399,7 @@
         <v>44992</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20450,7 +20456,7 @@
         <v>44992</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20507,7 +20513,7 @@
         <v>44994</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20564,7 +20570,7 @@
         <v>44999</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20621,7 +20627,7 @@
         <v>44999</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20678,7 +20684,7 @@
         <v>45001</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20735,7 +20741,7 @@
         <v>45002</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20792,7 +20798,7 @@
         <v>45002</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20849,7 +20855,7 @@
         <v>45002</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20906,7 +20912,7 @@
         <v>45002</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20963,7 +20969,7 @@
         <v>45008</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21025,7 +21031,7 @@
         <v>45015</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21082,7 +21088,7 @@
         <v>45027</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21139,7 +21145,7 @@
         <v>45029</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21196,7 +21202,7 @@
         <v>45029</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21253,7 +21259,7 @@
         <v>45029</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21310,7 +21316,7 @@
         <v>45043</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21367,7 +21373,7 @@
         <v>45054</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21429,7 +21435,7 @@
         <v>45054</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21491,7 +21497,7 @@
         <v>45056</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21548,7 +21554,7 @@
         <v>45056</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21605,7 +21611,7 @@
         <v>45057</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21662,7 +21668,7 @@
         <v>45063</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21719,7 +21725,7 @@
         <v>45065</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21776,7 +21782,7 @@
         <v>45068</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21833,7 +21839,7 @@
         <v>45069</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21895,7 +21901,7 @@
         <v>45072</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21952,7 +21958,7 @@
         <v>45072</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22009,7 +22015,7 @@
         <v>45075</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22071,7 +22077,7 @@
         <v>45084</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22128,7 +22134,7 @@
         <v>45085</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22185,7 +22191,7 @@
         <v>45086</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22242,7 +22248,7 @@
         <v>45090</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22299,7 +22305,7 @@
         <v>45103</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22361,7 +22367,7 @@
         <v>45104</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22423,7 +22429,7 @@
         <v>45106</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22480,7 +22486,7 @@
         <v>45107</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22542,7 +22548,7 @@
         <v>45107</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22604,7 +22610,7 @@
         <v>45107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22666,7 +22672,7 @@
         <v>45110</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22728,7 +22734,7 @@
         <v>45111</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22785,7 +22791,7 @@
         <v>45112</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22847,7 +22853,7 @@
         <v>45117</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22909,7 +22915,7 @@
         <v>45124</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22966,7 +22972,7 @@
         <v>45139</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23028,7 +23034,7 @@
         <v>45147</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23085,7 +23091,7 @@
         <v>45147</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23147,7 +23153,7 @@
         <v>45154</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23204,7 +23210,7 @@
         <v>45154</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23261,7 +23267,7 @@
         <v>45155</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23323,7 +23329,7 @@
         <v>45155</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23385,7 +23391,7 @@
         <v>45160</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23447,7 +23453,7 @@
         <v>45166</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23504,7 +23510,7 @@
         <v>45169</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>

--- a/Översikt SORSELE.xlsx
+++ b/Översikt SORSELE.xlsx
@@ -572,7 +572,7 @@
         <v>44693</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>45085</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>44337</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         <v>44078</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>44078</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44088</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>43648</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44621</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
         <v>44432</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44865</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>44426</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>43773</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1920,7 +1920,7 @@
         <v>44078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>44370</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43851</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>43648</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         <v>43515</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>43909</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2498,7 +2498,7 @@
         <v>44386</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>44336</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>44295</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>44518</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44841</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>43397</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>44137</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>44432</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>44845</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
         <v>44049</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         <v>44075</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>44078</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         <v>44432</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>44841</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>44865</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>45081</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         <v>43432</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4006,7 +4006,7 @@
         <v>43482</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43654</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>43858</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44265</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>44440</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>44719</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>45071</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43325</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4673,7 +4673,7 @@
         <v>43333</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>43340</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43342</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43342</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>43385</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43397</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>43397</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>43397</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43405</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>43416</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>43419</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43433</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43434</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43445</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43455</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5719,7 +5719,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>43482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>43482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>43482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         <v>43482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>43482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6143,7 +6143,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>43482</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6391,7 +6391,7 @@
         <v>43482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>43495</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         <v>43495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>43495</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6738,7 +6738,7 @@
         <v>43495</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6795,7 +6795,7 @@
         <v>43503</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>43510</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6909,7 +6909,7 @@
         <v>43525</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6966,7 +6966,7 @@
         <v>43601</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7023,7 +7023,7 @@
         <v>43601</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7080,7 +7080,7 @@
         <v>43601</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
         <v>43605</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7194,7 +7194,7 @@
         <v>43605</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7251,7 +7251,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7308,7 +7308,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>43607</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         <v>43621</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>43675</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>43678</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7675,7 +7675,7 @@
         <v>43679</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7737,7 +7737,7 @@
         <v>43699</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
         <v>43699</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>43699</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>43702</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>43705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>43719</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>43719</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8141,7 +8141,7 @@
         <v>43738</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>43738</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>43738</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
         <v>43752</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8384,7 +8384,7 @@
         <v>43754</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8441,7 +8441,7 @@
         <v>43758</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>43762</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>43766</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>43766</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>43773</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         <v>43773</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8793,7 +8793,7 @@
         <v>43794</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8850,7 +8850,7 @@
         <v>43811</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8907,7 +8907,7 @@
         <v>43831</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8964,7 +8964,7 @@
         <v>43831</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9021,7 +9021,7 @@
         <v>43831</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9078,7 +9078,7 @@
         <v>43880</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>43909</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         <v>43914</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43917</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         <v>43920</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>43922</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>43922</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>43935</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>43958</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9616,7 +9616,7 @@
         <v>43958</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9673,7 +9673,7 @@
         <v>43965</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>43990</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>43991</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>43991</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9901,7 +9901,7 @@
         <v>44000</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44000</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>44000</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10087,7 +10087,7 @@
         <v>44013</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>44041</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>44041</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44043</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>44063</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>44063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44078</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10521,7 +10521,7 @@
         <v>44078</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10583,7 +10583,7 @@
         <v>44078</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10645,7 +10645,7 @@
         <v>44078</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10707,7 +10707,7 @@
         <v>44083</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10764,7 +10764,7 @@
         <v>44090</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10826,7 +10826,7 @@
         <v>44098</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>44102</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44102</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44102</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>44102</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11136,7 +11136,7 @@
         <v>44113</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11193,7 +11193,7 @@
         <v>44136</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11250,7 +11250,7 @@
         <v>44141</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11307,7 +11307,7 @@
         <v>44144</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11369,7 +11369,7 @@
         <v>44145</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         <v>44145</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>44145</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11540,7 +11540,7 @@
         <v>44148</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         <v>44148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11654,7 +11654,7 @@
         <v>44150</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11711,7 +11711,7 @@
         <v>44164</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>44173</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>44179</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>44180</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>44203</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>44207</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>44218</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12120,7 +12120,7 @@
         <v>44218</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12182,7 +12182,7 @@
         <v>44222</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>44227</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
         <v>44234</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12358,7 +12358,7 @@
         <v>44234</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44235</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         <v>44251</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12529,7 +12529,7 @@
         <v>44251</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>44258</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12643,7 +12643,7 @@
         <v>44272</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
         <v>44277</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>44287</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         <v>44287</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44295</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44295</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44295</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>44298</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13114,7 +13114,7 @@
         <v>44298</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13171,7 +13171,7 @@
         <v>44298</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         <v>44317</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13285,7 +13285,7 @@
         <v>44317</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         <v>44322</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13404,7 +13404,7 @@
         <v>44326</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         <v>44326</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13518,7 +13518,7 @@
         <v>44326</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13575,7 +13575,7 @@
         <v>44326</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>44330</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13694,7 +13694,7 @@
         <v>44349</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13756,7 +13756,7 @@
         <v>44350</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>44350</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13870,7 +13870,7 @@
         <v>44355</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13927,7 +13927,7 @@
         <v>44355</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         <v>44364</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>44364</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14098,7 +14098,7 @@
         <v>44376</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>44377</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>44392</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14274,7 +14274,7 @@
         <v>44426</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44432</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14388,7 +14388,7 @@
         <v>44439</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14445,7 +14445,7 @@
         <v>44448</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14502,7 +14502,7 @@
         <v>44466</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14559,7 +14559,7 @@
         <v>44468</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>44473</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14678,7 +14678,7 @@
         <v>44473</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>44473</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14802,7 +14802,7 @@
         <v>44494</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>44496</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>44496</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>44501</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44505</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44518</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>44531</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>44532</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>44533</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>44538</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>44546</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44546</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
         <v>44546</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
         <v>44546</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>44550</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15657,7 +15657,7 @@
         <v>44566</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>44606</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>44606</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>44619</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15885,7 +15885,7 @@
         <v>44621</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15942,7 +15942,7 @@
         <v>44638</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15999,7 +15999,7 @@
         <v>44648</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>44657</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>44657</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>44657</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16227,7 +16227,7 @@
         <v>44657</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16284,7 +16284,7 @@
         <v>44719</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16341,7 +16341,7 @@
         <v>44719</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16398,7 +16398,7 @@
         <v>44719</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16455,7 +16455,7 @@
         <v>44719</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16512,7 +16512,7 @@
         <v>44725</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16569,7 +16569,7 @@
         <v>44725</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         <v>44731</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>44734</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>44784</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>44796</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16864,7 +16864,7 @@
         <v>44797</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>44834</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16978,7 +16978,7 @@
         <v>44837</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17035,7 +17035,7 @@
         <v>44837</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17092,7 +17092,7 @@
         <v>44841</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44841</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>44841</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17263,7 +17263,7 @@
         <v>44845</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44845</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44845</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17434,7 +17434,7 @@
         <v>44846</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17496,7 +17496,7 @@
         <v>44851</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>44851</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44851</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>44851</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44851</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44860</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>44866</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17987,7 +17987,7 @@
         <v>44866</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>44867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>44867</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>44869</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18230,7 +18230,7 @@
         <v>44869</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18292,7 +18292,7 @@
         <v>44869</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18354,7 +18354,7 @@
         <v>44879</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18411,7 +18411,7 @@
         <v>44879</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>44882</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18530,7 +18530,7 @@
         <v>44886</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18587,7 +18587,7 @@
         <v>44890</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18649,7 +18649,7 @@
         <v>44890</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>44893</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18768,7 +18768,7 @@
         <v>44893</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18825,7 +18825,7 @@
         <v>44895</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>44897</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18939,7 +18939,7 @@
         <v>44900</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18996,7 +18996,7 @@
         <v>44900</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         <v>44900</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19110,7 +19110,7 @@
         <v>44907</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19167,7 +19167,7 @@
         <v>44908</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19224,7 +19224,7 @@
         <v>44914</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19281,7 +19281,7 @@
         <v>44914</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>44916</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19400,7 +19400,7 @@
         <v>44916</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19462,7 +19462,7 @@
         <v>44917</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19524,7 +19524,7 @@
         <v>44917</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         <v>44917</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19648,7 +19648,7 @@
         <v>44928</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19710,7 +19710,7 @@
         <v>44928</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19772,7 +19772,7 @@
         <v>44958</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19829,7 +19829,7 @@
         <v>44963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19886,7 +19886,7 @@
         <v>44969</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>44974</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20000,7 +20000,7 @@
         <v>44978</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20057,7 +20057,7 @@
         <v>44978</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20114,7 +20114,7 @@
         <v>44978</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20171,7 +20171,7 @@
         <v>44978</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20228,7 +20228,7 @@
         <v>44978</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20285,7 +20285,7 @@
         <v>44984</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20342,7 +20342,7 @@
         <v>44989</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20399,7 +20399,7 @@
         <v>44992</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20456,7 +20456,7 @@
         <v>44992</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20513,7 +20513,7 @@
         <v>44994</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20570,7 +20570,7 @@
         <v>44999</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20627,7 +20627,7 @@
         <v>44999</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20684,7 +20684,7 @@
         <v>45001</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20741,7 +20741,7 @@
         <v>45002</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20798,7 +20798,7 @@
         <v>45002</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>45002</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>45002</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20969,7 +20969,7 @@
         <v>45008</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21031,7 +21031,7 @@
         <v>45015</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
         <v>45027</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21145,7 +21145,7 @@
         <v>45029</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21202,7 +21202,7 @@
         <v>45029</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         <v>45029</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21316,7 +21316,7 @@
         <v>45043</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21373,7 +21373,7 @@
         <v>45054</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21435,7 +21435,7 @@
         <v>45054</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21497,7 +21497,7 @@
         <v>45056</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21554,7 +21554,7 @@
         <v>45056</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21611,7 +21611,7 @@
         <v>45057</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21668,7 +21668,7 @@
         <v>45063</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21725,7 +21725,7 @@
         <v>45065</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21782,7 +21782,7 @@
         <v>45068</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21839,7 +21839,7 @@
         <v>45069</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>45072</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21958,7 +21958,7 @@
         <v>45072</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22015,7 +22015,7 @@
         <v>45075</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         <v>45084</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22134,7 +22134,7 @@
         <v>45085</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>45086</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>45090</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22305,7 +22305,7 @@
         <v>45103</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22367,7 +22367,7 @@
         <v>45104</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22429,7 +22429,7 @@
         <v>45106</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22486,7 +22486,7 @@
         <v>45107</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22548,7 +22548,7 @@
         <v>45107</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>45107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22672,7 +22672,7 @@
         <v>45110</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22734,7 +22734,7 @@
         <v>45111</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22791,7 +22791,7 @@
         <v>45112</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>45117</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         <v>45124</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22972,7 +22972,7 @@
         <v>45139</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23034,7 +23034,7 @@
         <v>45147</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>45147</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23153,7 +23153,7 @@
         <v>45154</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>45154</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>45155</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23329,7 +23329,7 @@
         <v>45155</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23391,7 +23391,7 @@
         <v>45160</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23453,7 +23453,7 @@
         <v>45166</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23510,7 +23510,7 @@
         <v>45169</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>

--- a/Översikt SORSELE.xlsx
+++ b/Översikt SORSELE.xlsx
@@ -572,7 +572,7 @@
         <v>44693</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>45085</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>44337</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         <v>44078</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>44078</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44088</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>43648</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>44621</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1414,14 +1414,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 43267-2021</t>
+          <t>A 50909-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44432</v>
+        <v>44865</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1434,39 +1434,139 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>29</v>
+        <v>14.6</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>2</v>
       </c>
       <c r="J10" t="n">
+        <v>12</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>14</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>16</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Grantickeporing
+Rynkskinn
+Gammelgransskål
+Garnlav
+Granticka
+Gränsticka
+Harticka
+Knottrig blåslav
+Lunglav
+Rosenticka
+Rödbrun blekspik
+Tretåig hackspett
+Ullticka
+Vitgrynig nållav
+Gulnål
+Stuplav</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 50909-2022.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 50909-2022.png")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 50909-2022.docx")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 50909-2022.docx")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 50909-2022.docx")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 50909-2022.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 43267-2021</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>44432</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SORSELE</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>29</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
         <v>11</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K11" t="n">
         <v>1</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>12</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P11" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q11" t="n">
         <v>15</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Ostticka
 Gammelgransskål
@@ -1485,127 +1585,28 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 43267-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 43267-2021.png")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 43267-2021.docx")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 43267-2021.docx")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 43267-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 43267-2021.docx")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 50909-2022</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>44865</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>SORSELE</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>12</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>13</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>15</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Grantickeporing
-Gammelgransskål
-Garnlav
-Granticka
-Gränsticka
-Harticka
-Knottrig blåslav
-Lunglav
-Rosenticka
-Rödbrun blekspik
-Tretåig hackspett
-Ullticka
-Vitgrynig nållav
-Gulnål
-Stuplav</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 50909-2022.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 50909-2022.png")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 50909-2022.docx")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 50909-2022.docx")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 50909-2022.docx")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 50909-2022.docx")</f>
         <v/>
       </c>
     </row>
@@ -1619,7 +1620,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1722,7 +1723,7 @@
         <v>44426</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1819,7 +1820,7 @@
         <v>43773</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1920,7 +1921,7 @@
         <v>44078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2020,7 +2021,7 @@
         <v>44370</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2120,7 +2121,7 @@
         <v>43851</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2214,7 +2215,7 @@
         <v>43648</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2312,7 +2313,7 @@
         <v>43515</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2408,7 +2409,7 @@
         <v>43909</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2498,7 +2499,7 @@
         <v>44386</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2581,59 +2582,149 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
+          <t>A 50916-2022</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>44865</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>SORSELE</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>6</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>6</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>Garnlav
+Granticka
+Harticka
+Rosenticka
+Tretåig hackspett
+Ullticka</t>
+        </is>
+      </c>
+      <c r="S22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 50916-2022.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 50916-2022.png")</f>
+        <v/>
+      </c>
+      <c r="V22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 50916-2022.docx")</f>
+        <v/>
+      </c>
+      <c r="W22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 50916-2022.docx")</f>
+        <v/>
+      </c>
+      <c r="X22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 50916-2022.docx")</f>
+        <v/>
+      </c>
+      <c r="Y22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 50916-2022.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>A 24279-2021</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B23" s="1" t="n">
         <v>44336</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>SORSELE</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
+      <c r="C23" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>SORSELE</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
         <v>47.2</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>2</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J23" t="n">
         <v>2</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K23" t="n">
         <v>1</v>
       </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>3</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P23" t="n">
         <v>1</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q23" t="n">
         <v>5</v>
       </c>
-      <c r="R22" s="2" t="inlineStr">
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Grenlav
 Garnlav
@@ -2642,92 +2733,92 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 24279-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 24279-2021.png")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 24279-2021.docx")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 24279-2021.docx")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 24279-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 24279-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>A 16687-2021</t>
         </is>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B24" s="1" t="n">
         <v>44295</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>SORSELE</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
+      <c r="C24" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>SORSELE</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
-      <c r="G23" t="n">
+      <c r="G24" t="n">
         <v>19.7</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>4</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>4</v>
       </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>4</v>
       </c>
-      <c r="R23" s="2" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Brunpudrad nållav
 Gammelgransskål
@@ -2735,87 +2826,87 @@
 Granticka</t>
         </is>
       </c>
-      <c r="S23">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 16687-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T23">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 16687-2021.png")</f>
         <v/>
       </c>
-      <c r="V23">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 16687-2021.docx")</f>
         <v/>
       </c>
-      <c r="W23">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 16687-2021.docx")</f>
         <v/>
       </c>
-      <c r="X23">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 16687-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y23">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 16687-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
         <is>
           <t>A 66443-2021</t>
         </is>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B25" s="1" t="n">
         <v>44518</v>
       </c>
-      <c r="C24" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>SORSELE</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
+      <c r="C25" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>SORSELE</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
         <v>15.5</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H25" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>4</v>
       </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>4</v>
       </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>4</v>
       </c>
-      <c r="R24" s="2" t="inlineStr">
+      <c r="R25" s="2" t="inlineStr">
         <is>
           <t>Dvärgbägarlav
 Granticka
@@ -2823,87 +2914,87 @@
 Talltita</t>
         </is>
       </c>
-      <c r="S24">
+      <c r="S25">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 66443-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T24">
+      <c r="T25">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 66443-2021.png")</f>
         <v/>
       </c>
-      <c r="V24">
+      <c r="V25">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 66443-2021.docx")</f>
         <v/>
       </c>
-      <c r="W24">
+      <c r="W25">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 66443-2021.docx")</f>
         <v/>
       </c>
-      <c r="X24">
+      <c r="X25">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 66443-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y24">
+      <c r="Y25">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 66443-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
         <is>
           <t>A 45582-2022</t>
         </is>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B26" s="1" t="n">
         <v>44841</v>
       </c>
-      <c r="C25" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>SORSELE</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
+      <c r="C26" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>SORSELE</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
         <v>87.59999999999999</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
         <v>3</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>1</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>4</v>
       </c>
-      <c r="P25" t="n">
+      <c r="P26" t="n">
         <v>1</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q26" t="n">
         <v>4</v>
       </c>
-      <c r="R25" s="2" t="inlineStr">
+      <c r="R26" s="2" t="inlineStr">
         <is>
           <t>Grangytterlav
 Lunglav
@@ -2911,976 +3002,890 @@
 Skrovellav</t>
         </is>
       </c>
-      <c r="S25">
+      <c r="S26">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 45582-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T25">
+      <c r="T26">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 45582-2022.png")</f>
         <v/>
       </c>
-      <c r="V25">
+      <c r="V26">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 45582-2022.docx")</f>
         <v/>
       </c>
-      <c r="W25">
+      <c r="W26">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 45582-2022.docx")</f>
         <v/>
       </c>
-      <c r="X25">
+      <c r="X26">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 45582-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y25">
+      <c r="Y26">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 45582-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
         <is>
           <t>A 55469-2018</t>
         </is>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B27" s="1" t="n">
         <v>43397</v>
       </c>
-      <c r="C26" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>SORSELE</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
+      <c r="C27" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>SORSELE</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G26" t="n">
+      <c r="G27" t="n">
         <v>13.1</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
         <v>2</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K27" t="n">
         <v>1</v>
       </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>3</v>
       </c>
-      <c r="P26" t="n">
+      <c r="P27" t="n">
         <v>1</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q27" t="n">
         <v>3</v>
       </c>
-      <c r="R26" s="2" t="inlineStr">
+      <c r="R27" s="2" t="inlineStr">
         <is>
           <t>Fläckporing
 Stjärntagging
 Vitplätt</t>
         </is>
       </c>
-      <c r="S26">
+      <c r="S27">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 55469-2018.xlsx")</f>
         <v/>
       </c>
-      <c r="T26">
+      <c r="T27">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 55469-2018.png")</f>
         <v/>
       </c>
-      <c r="V26">
+      <c r="V27">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 55469-2018.docx")</f>
         <v/>
       </c>
-      <c r="W26">
+      <c r="W27">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 55469-2018.docx")</f>
         <v/>
       </c>
-      <c r="X26">
+      <c r="X27">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 55469-2018.docx")</f>
         <v/>
       </c>
-      <c r="Y26">
+      <c r="Y27">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 55469-2018.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="inlineStr">
         <is>
           <t>A 56668-2020</t>
         </is>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B28" s="1" t="n">
         <v>44137</v>
       </c>
-      <c r="C27" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>SORSELE</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
+      <c r="C28" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>SORSELE</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
         <v>22.5</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H28" t="n">
         <v>1</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
         <v>3</v>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
         <v>3</v>
       </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
         <v>3</v>
       </c>
-      <c r="R27" s="2" t="inlineStr">
+      <c r="R28" s="2" t="inlineStr">
         <is>
           <t>Granticka
 Harticka
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S27">
+      <c r="S28">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 56668-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T27">
+      <c r="T28">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 56668-2020.png")</f>
         <v/>
       </c>
-      <c r="V27">
+      <c r="V28">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 56668-2020.docx")</f>
         <v/>
       </c>
-      <c r="W27">
+      <c r="W28">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 56668-2020.docx")</f>
         <v/>
       </c>
-      <c r="X27">
+      <c r="X28">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 56668-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y27">
+      <c r="Y28">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 56668-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="inlineStr">
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="inlineStr">
         <is>
           <t>A 43272-2021</t>
         </is>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B29" s="1" t="n">
         <v>44432</v>
       </c>
-      <c r="C28" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>SORSELE</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
+      <c r="C29" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>SORSELE</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
         <v>24.4</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H29" t="n">
         <v>1</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>3</v>
       </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>3</v>
       </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>3</v>
       </c>
-      <c r="R28" s="2" t="inlineStr">
+      <c r="R29" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Granticka
 Tretåig hackspett</t>
         </is>
       </c>
-      <c r="S28">
+      <c r="S29">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 43272-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T28">
+      <c r="T29">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 43272-2021.png")</f>
         <v/>
       </c>
-      <c r="V28">
+      <c r="V29">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 43272-2021.docx")</f>
         <v/>
       </c>
-      <c r="W28">
+      <c r="W29">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 43272-2021.docx")</f>
         <v/>
       </c>
-      <c r="X28">
+      <c r="X29">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 43272-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y28">
+      <c r="Y29">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 43272-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="inlineStr">
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="inlineStr">
         <is>
           <t>A 46088-2022</t>
         </is>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B30" s="1" t="n">
         <v>44845</v>
       </c>
-      <c r="C29" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>SORSELE</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
+      <c r="C30" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>SORSELE</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
         <v>3.1</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H30" t="n">
         <v>1</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>2</v>
       </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>2</v>
       </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
         <v>3</v>
       </c>
-      <c r="R29" s="2" t="inlineStr">
+      <c r="R30" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Granticka
 Revlummer</t>
         </is>
       </c>
-      <c r="S29">
+      <c r="S30">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 46088-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T29">
+      <c r="T30">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 46088-2022.png")</f>
         <v/>
       </c>
-      <c r="V29">
+      <c r="V30">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 46088-2022.docx")</f>
         <v/>
       </c>
-      <c r="W29">
+      <c r="W30">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 46088-2022.docx")</f>
         <v/>
       </c>
-      <c r="X29">
+      <c r="X30">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 46088-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y29">
+      <c r="Y30">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 46088-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="inlineStr">
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" t="inlineStr">
         <is>
           <t>A 36344-2020</t>
         </is>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B31" s="1" t="n">
         <v>44049</v>
       </c>
-      <c r="C30" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>SORSELE</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
+      <c r="C31" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>SORSELE</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
         <v>5.4</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
         <v>2</v>
       </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>2</v>
       </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
         <v>2</v>
       </c>
-      <c r="R30" s="2" t="inlineStr">
+      <c r="R31" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Rödbrun blekspik</t>
         </is>
       </c>
-      <c r="S30">
+      <c r="S31">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 36344-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T30">
+      <c r="T31">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 36344-2020.png")</f>
         <v/>
       </c>
-      <c r="V30">
+      <c r="V31">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 36344-2020.docx")</f>
         <v/>
       </c>
-      <c r="W30">
+      <c r="W31">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 36344-2020.docx")</f>
         <v/>
       </c>
-      <c r="X30">
+      <c r="X31">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 36344-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y30">
+      <c r="Y31">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 36344-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="inlineStr">
+    <row r="32" ht="15" customHeight="1">
+      <c r="A32" t="inlineStr">
         <is>
           <t>A 42118-2020</t>
         </is>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B32" s="1" t="n">
         <v>44075</v>
       </c>
-      <c r="C31" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>SORSELE</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
+      <c r="C32" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>SORSELE</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G31" t="n">
+      <c r="G32" t="n">
         <v>6.2</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
         <v>1</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K32" t="n">
         <v>1</v>
       </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>2</v>
       </c>
-      <c r="P31" t="n">
+      <c r="P32" t="n">
         <v>1</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="Q32" t="n">
         <v>2</v>
       </c>
-      <c r="R31" s="2" t="inlineStr">
+      <c r="R32" s="2" t="inlineStr">
         <is>
           <t>Torrmusseron
 Blå taggsvamp</t>
         </is>
       </c>
-      <c r="S31">
+      <c r="S32">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 42118-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T31">
+      <c r="T32">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 42118-2020.png")</f>
         <v/>
       </c>
-      <c r="V31">
+      <c r="V32">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 42118-2020.docx")</f>
         <v/>
       </c>
-      <c r="W31">
+      <c r="W32">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 42118-2020.docx")</f>
         <v/>
       </c>
-      <c r="X31">
+      <c r="X32">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 42118-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y31">
+      <c r="Y32">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 42118-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" t="inlineStr">
+    <row r="33" ht="15" customHeight="1">
+      <c r="A33" t="inlineStr">
         <is>
           <t>A 43940-2020</t>
         </is>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B33" s="1" t="n">
         <v>44078</v>
       </c>
-      <c r="C32" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>SORSELE</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
+      <c r="C33" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>SORSELE</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
         <is>
           <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
-      <c r="G32" t="n">
+      <c r="G33" t="n">
         <v>126.6</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
         <v>1</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K33" t="n">
         <v>1</v>
       </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>2</v>
       </c>
-      <c r="P32" t="n">
+      <c r="P33" t="n">
         <v>1</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="Q33" t="n">
         <v>2</v>
       </c>
-      <c r="R32" s="2" t="inlineStr">
+      <c r="R33" s="2" t="inlineStr">
         <is>
           <t>Tajgaskinn
 Dvärgbägarlav</t>
         </is>
       </c>
-      <c r="S32">
+      <c r="S33">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 43940-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T32">
+      <c r="T33">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 43940-2020.png")</f>
         <v/>
       </c>
-      <c r="V32">
+      <c r="V33">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 43940-2020.docx")</f>
         <v/>
       </c>
-      <c r="W32">
+      <c r="W33">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 43940-2020.docx")</f>
         <v/>
       </c>
-      <c r="X32">
+      <c r="X33">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 43940-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y32">
+      <c r="Y33">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 43940-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" t="inlineStr">
+    <row r="34" ht="15" customHeight="1">
+      <c r="A34" t="inlineStr">
         <is>
           <t>A 43265-2021</t>
         </is>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B34" s="1" t="n">
         <v>44432</v>
       </c>
-      <c r="C33" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>SORSELE</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
+      <c r="C34" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>SORSELE</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
         <v>38.3</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H34" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>1</v>
       </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
         <v>1</v>
       </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
         <v>2</v>
       </c>
-      <c r="R33" s="2" t="inlineStr">
+      <c r="R34" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S33">
+      <c r="S34">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 43265-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T33">
+      <c r="T34">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 43265-2021.png")</f>
         <v/>
       </c>
-      <c r="V33">
+      <c r="V34">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 43265-2021.docx")</f>
         <v/>
       </c>
-      <c r="W33">
+      <c r="W34">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 43265-2021.docx")</f>
         <v/>
       </c>
-      <c r="X33">
+      <c r="X34">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 43265-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y33">
+      <c r="Y34">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 43265-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" t="inlineStr">
+    <row r="35" ht="15" customHeight="1">
+      <c r="A35" t="inlineStr">
         <is>
           <t>A 45569-2022</t>
         </is>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B35" s="1" t="n">
         <v>44841</v>
       </c>
-      <c r="C34" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>SORSELE</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
+      <c r="C35" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>SORSELE</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
         <v>75.3</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
         <v>2</v>
       </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>2</v>
       </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
         <v>2</v>
       </c>
-      <c r="R34" s="2" t="inlineStr">
+      <c r="R35" s="2" t="inlineStr">
         <is>
           <t>Gränsticka
 Harticka</t>
         </is>
       </c>
-      <c r="S34">
+      <c r="S35">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 45569-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T34">
+      <c r="T35">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 45569-2022.png")</f>
         <v/>
       </c>
-      <c r="V34">
+      <c r="V35">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 45569-2022.docx")</f>
         <v/>
       </c>
-      <c r="W34">
+      <c r="W35">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 45569-2022.docx")</f>
         <v/>
       </c>
-      <c r="X34">
+      <c r="X35">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 45569-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y34">
+      <c r="Y35">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 45569-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>A 50916-2022</t>
-        </is>
-      </c>
-      <c r="B35" s="1" t="n">
-        <v>44865</v>
-      </c>
-      <c r="C35" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>SORSELE</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
+    <row r="36" ht="15" customHeight="1">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>A 24332-2023</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>SORSELE</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>211.8</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
         <v>2</v>
       </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>2</v>
       </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
         <v>2</v>
       </c>
-      <c r="R35" s="2" t="inlineStr">
+      <c r="R36" s="2" t="inlineStr">
         <is>
           <t>Granticka
 Harticka</t>
         </is>
       </c>
-      <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 50916-2022.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 50916-2022.png")</f>
-        <v/>
-      </c>
-      <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 50916-2022.docx")</f>
-        <v/>
-      </c>
-      <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 50916-2022.docx")</f>
-        <v/>
-      </c>
-      <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 50916-2022.docx")</f>
-        <v/>
-      </c>
-      <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 50916-2022.docx")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>A 24332-2023</t>
-        </is>
-      </c>
-      <c r="B36" s="1" t="n">
-        <v>45081</v>
-      </c>
-      <c r="C36" s="1" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>SORSELE</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>211.8</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>2</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>2</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2</v>
-      </c>
-      <c r="R36" s="2" t="inlineStr">
-        <is>
-          <t>Granticka
-Harticka</t>
-        </is>
-      </c>
       <c r="S36">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 24332-2023.xlsx")</f>
         <v/>
@@ -3916,7 +3921,7 @@
         <v>43432</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4006,7 +4011,7 @@
         <v>43482</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4096,7 +4101,7 @@
         <v>43654</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4186,7 +4191,7 @@
         <v>43858</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4276,7 +4281,7 @@
         <v>44265</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4361,7 +4366,7 @@
         <v>44440</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4446,7 +4451,7 @@
         <v>44719</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4531,7 +4536,7 @@
         <v>45071</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4616,7 +4621,7 @@
         <v>43325</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4673,7 +4678,7 @@
         <v>43333</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4735,7 +4740,7 @@
         <v>43340</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4797,7 +4802,7 @@
         <v>43342</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4854,7 +4859,7 @@
         <v>43342</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4911,7 +4916,7 @@
         <v>43349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4968,7 +4973,7 @@
         <v>43385</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5025,7 +5030,7 @@
         <v>43397</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5082,7 +5087,7 @@
         <v>43397</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5139,7 +5144,7 @@
         <v>43397</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5196,7 +5201,7 @@
         <v>43405</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5253,7 +5258,7 @@
         <v>43416</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5310,7 +5315,7 @@
         <v>43419</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5367,7 +5372,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5424,7 +5429,7 @@
         <v>43433</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5481,7 +5486,7 @@
         <v>43434</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5538,7 +5543,7 @@
         <v>43445</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5600,7 +5605,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5657,7 +5662,7 @@
         <v>43455</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5719,7 +5724,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5781,7 +5786,7 @@
         <v>43482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5838,7 +5843,7 @@
         <v>43482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5895,7 +5900,7 @@
         <v>43482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5957,7 +5962,7 @@
         <v>43482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6019,7 +6024,7 @@
         <v>43482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6081,7 +6086,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6143,7 +6148,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6205,7 +6210,7 @@
         <v>43482</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6267,7 +6272,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6329,7 +6334,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6391,7 +6396,7 @@
         <v>43482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6453,7 +6458,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6510,7 +6515,7 @@
         <v>43495</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6567,7 +6572,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6624,7 +6629,7 @@
         <v>43495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6681,7 +6686,7 @@
         <v>43495</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6738,7 +6743,7 @@
         <v>43495</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6795,7 +6800,7 @@
         <v>43503</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6852,7 +6857,7 @@
         <v>43510</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6909,7 +6914,7 @@
         <v>43525</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6966,7 +6971,7 @@
         <v>43601</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7023,7 +7028,7 @@
         <v>43601</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7080,7 +7085,7 @@
         <v>43601</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7137,7 +7142,7 @@
         <v>43605</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7194,7 +7199,7 @@
         <v>43605</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7251,7 +7256,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7308,7 +7313,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7370,7 +7375,7 @@
         <v>43607</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7432,7 +7437,7 @@
         <v>43621</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7494,7 +7499,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7556,7 +7561,7 @@
         <v>43675</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7613,7 +7618,7 @@
         <v>43678</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7675,7 +7680,7 @@
         <v>43679</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7737,7 +7742,7 @@
         <v>43699</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7794,7 +7799,7 @@
         <v>43699</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7856,7 +7861,7 @@
         <v>43699</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7913,7 +7918,7 @@
         <v>43702</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7970,7 +7975,7 @@
         <v>43705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8027,7 +8032,7 @@
         <v>43719</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8084,7 +8089,7 @@
         <v>43719</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8141,7 +8146,7 @@
         <v>43738</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8203,7 +8208,7 @@
         <v>43738</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8265,7 +8270,7 @@
         <v>43738</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8327,7 +8332,7 @@
         <v>43752</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8384,7 +8389,7 @@
         <v>43754</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8441,7 +8446,7 @@
         <v>43758</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8498,7 +8503,7 @@
         <v>43762</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8555,7 +8560,7 @@
         <v>43766</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8612,7 +8617,7 @@
         <v>43766</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8669,7 +8674,7 @@
         <v>43773</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8731,7 +8736,7 @@
         <v>43773</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8793,7 +8798,7 @@
         <v>43794</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8850,7 +8855,7 @@
         <v>43811</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8907,7 +8912,7 @@
         <v>43831</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8964,7 +8969,7 @@
         <v>43831</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9021,7 +9026,7 @@
         <v>43831</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9078,7 +9083,7 @@
         <v>43880</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9140,7 +9145,7 @@
         <v>43909</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9197,7 +9202,7 @@
         <v>43914</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9259,7 +9264,7 @@
         <v>43917</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9321,7 +9326,7 @@
         <v>43920</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9383,7 +9388,7 @@
         <v>43922</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9440,7 +9445,7 @@
         <v>43922</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9497,7 +9502,7 @@
         <v>43935</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9559,7 +9564,7 @@
         <v>43958</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9616,7 +9621,7 @@
         <v>43958</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9673,7 +9678,7 @@
         <v>43965</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9730,7 +9735,7 @@
         <v>43990</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9787,7 +9792,7 @@
         <v>43991</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9844,7 +9849,7 @@
         <v>43991</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9901,7 +9906,7 @@
         <v>44000</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9963,7 +9968,7 @@
         <v>44000</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10025,7 +10030,7 @@
         <v>44000</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10087,7 +10092,7 @@
         <v>44013</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10149,7 +10154,7 @@
         <v>44041</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10211,7 +10216,7 @@
         <v>44041</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10273,7 +10278,7 @@
         <v>44043</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10335,7 +10340,7 @@
         <v>44063</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10397,7 +10402,7 @@
         <v>44063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10459,7 +10464,7 @@
         <v>44078</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10521,7 +10526,7 @@
         <v>44078</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10583,7 +10588,7 @@
         <v>44078</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10645,7 +10650,7 @@
         <v>44078</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10707,7 +10712,7 @@
         <v>44083</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10764,7 +10769,7 @@
         <v>44090</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10826,7 +10831,7 @@
         <v>44098</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10888,7 +10893,7 @@
         <v>44102</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10950,7 +10955,7 @@
         <v>44102</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11012,7 +11017,7 @@
         <v>44102</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11074,7 +11079,7 @@
         <v>44102</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11136,7 +11141,7 @@
         <v>44113</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11193,7 +11198,7 @@
         <v>44136</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11250,7 +11255,7 @@
         <v>44141</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11307,7 +11312,7 @@
         <v>44144</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11369,7 +11374,7 @@
         <v>44145</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11426,7 +11431,7 @@
         <v>44145</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11483,7 +11488,7 @@
         <v>44145</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11540,7 +11545,7 @@
         <v>44148</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11597,7 +11602,7 @@
         <v>44148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11654,7 +11659,7 @@
         <v>44150</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11711,7 +11716,7 @@
         <v>44164</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11768,7 +11773,7 @@
         <v>44173</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11825,7 +11830,7 @@
         <v>44179</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11882,7 +11887,7 @@
         <v>44180</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11939,7 +11944,7 @@
         <v>44203</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11996,7 +12001,7 @@
         <v>44207</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12058,7 +12063,7 @@
         <v>44218</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12120,7 +12125,7 @@
         <v>44218</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12182,7 +12187,7 @@
         <v>44222</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12244,7 +12249,7 @@
         <v>44227</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12301,7 +12306,7 @@
         <v>44234</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12358,7 +12363,7 @@
         <v>44234</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12415,7 +12420,7 @@
         <v>44235</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12472,7 +12477,7 @@
         <v>44251</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12529,7 +12534,7 @@
         <v>44251</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12586,7 +12591,7 @@
         <v>44258</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12643,7 +12648,7 @@
         <v>44272</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12700,7 +12705,7 @@
         <v>44277</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12757,7 +12762,7 @@
         <v>44287</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12819,7 +12824,7 @@
         <v>44287</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12881,7 +12886,7 @@
         <v>44295</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12938,7 +12943,7 @@
         <v>44295</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12995,7 +13000,7 @@
         <v>44295</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13057,7 +13062,7 @@
         <v>44298</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13114,7 +13119,7 @@
         <v>44298</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13171,7 +13176,7 @@
         <v>44298</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13228,7 +13233,7 @@
         <v>44317</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13285,7 +13290,7 @@
         <v>44317</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13342,7 +13347,7 @@
         <v>44322</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13404,7 +13409,7 @@
         <v>44326</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13461,7 +13466,7 @@
         <v>44326</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13518,7 +13523,7 @@
         <v>44326</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13575,7 +13580,7 @@
         <v>44326</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13632,7 +13637,7 @@
         <v>44330</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13694,7 +13699,7 @@
         <v>44349</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13756,7 +13761,7 @@
         <v>44350</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13813,7 +13818,7 @@
         <v>44350</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13870,7 +13875,7 @@
         <v>44355</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13927,7 +13932,7 @@
         <v>44355</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13984,7 +13989,7 @@
         <v>44364</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14041,7 +14046,7 @@
         <v>44364</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14098,7 +14103,7 @@
         <v>44376</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14155,7 +14160,7 @@
         <v>44377</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14212,7 +14217,7 @@
         <v>44392</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14274,7 +14279,7 @@
         <v>44426</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14331,7 +14336,7 @@
         <v>44432</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14388,7 +14393,7 @@
         <v>44439</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14445,7 +14450,7 @@
         <v>44448</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14502,7 +14507,7 @@
         <v>44466</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14559,7 +14564,7 @@
         <v>44468</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14616,7 +14621,7 @@
         <v>44473</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14678,7 +14683,7 @@
         <v>44473</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14740,7 +14745,7 @@
         <v>44473</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14802,7 +14807,7 @@
         <v>44494</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14859,7 +14864,7 @@
         <v>44496</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14916,7 +14921,7 @@
         <v>44496</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14973,7 +14978,7 @@
         <v>44501</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15030,7 +15035,7 @@
         <v>44505</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15087,7 +15092,7 @@
         <v>44518</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15144,7 +15149,7 @@
         <v>44531</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15201,7 +15206,7 @@
         <v>44532</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15258,7 +15263,7 @@
         <v>44533</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15315,7 +15320,7 @@
         <v>44538</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15372,7 +15377,7 @@
         <v>44546</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15429,7 +15434,7 @@
         <v>44546</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15486,7 +15491,7 @@
         <v>44546</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15543,7 +15548,7 @@
         <v>44546</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15600,7 +15605,7 @@
         <v>44550</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15657,7 +15662,7 @@
         <v>44566</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15714,7 +15719,7 @@
         <v>44606</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15771,7 +15776,7 @@
         <v>44606</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15828,7 +15833,7 @@
         <v>44619</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15885,7 +15890,7 @@
         <v>44621</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15942,7 +15947,7 @@
         <v>44638</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15999,7 +16004,7 @@
         <v>44648</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16056,7 +16061,7 @@
         <v>44657</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16113,7 +16118,7 @@
         <v>44657</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16170,7 +16175,7 @@
         <v>44657</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16227,7 +16232,7 @@
         <v>44657</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16284,7 +16289,7 @@
         <v>44719</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16341,7 +16346,7 @@
         <v>44719</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16398,7 +16403,7 @@
         <v>44719</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16455,7 +16460,7 @@
         <v>44719</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16512,7 +16517,7 @@
         <v>44725</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16569,7 +16574,7 @@
         <v>44725</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16626,7 +16631,7 @@
         <v>44731</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16683,7 +16688,7 @@
         <v>44734</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16740,7 +16745,7 @@
         <v>44784</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16802,7 +16807,7 @@
         <v>44796</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16864,7 +16869,7 @@
         <v>44797</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16921,7 +16926,7 @@
         <v>44834</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16978,7 +16983,7 @@
         <v>44837</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17035,7 +17040,7 @@
         <v>44837</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17092,7 +17097,7 @@
         <v>44841</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17149,7 +17154,7 @@
         <v>44841</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17206,7 +17211,7 @@
         <v>44841</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17263,7 +17268,7 @@
         <v>44845</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17320,7 +17325,7 @@
         <v>44845</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17377,7 +17382,7 @@
         <v>44845</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17434,7 +17439,7 @@
         <v>44846</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17496,7 +17501,7 @@
         <v>44851</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17558,7 +17563,7 @@
         <v>44851</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17620,7 +17625,7 @@
         <v>44851</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17682,7 +17687,7 @@
         <v>44851</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17744,7 +17749,7 @@
         <v>44851</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17806,7 +17811,7 @@
         <v>44852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17863,7 +17868,7 @@
         <v>44860</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17925,7 +17930,7 @@
         <v>44866</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17987,7 +17992,7 @@
         <v>44866</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18044,7 +18049,7 @@
         <v>44867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18106,7 +18111,7 @@
         <v>44867</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18168,7 +18173,7 @@
         <v>44869</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18230,7 +18235,7 @@
         <v>44869</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18292,7 +18297,7 @@
         <v>44869</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18354,7 +18359,7 @@
         <v>44879</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18411,7 +18416,7 @@
         <v>44879</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18468,7 +18473,7 @@
         <v>44882</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18530,7 +18535,7 @@
         <v>44886</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18587,7 +18592,7 @@
         <v>44890</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18649,7 +18654,7 @@
         <v>44890</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18711,7 +18716,7 @@
         <v>44893</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18768,7 +18773,7 @@
         <v>44893</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18825,7 +18830,7 @@
         <v>44895</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18882,7 +18887,7 @@
         <v>44897</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18939,7 +18944,7 @@
         <v>44900</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18996,7 +19001,7 @@
         <v>44900</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19053,7 +19058,7 @@
         <v>44900</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19110,7 +19115,7 @@
         <v>44907</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19167,7 +19172,7 @@
         <v>44908</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19224,7 +19229,7 @@
         <v>44914</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19281,7 +19286,7 @@
         <v>44914</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19338,7 +19343,7 @@
         <v>44916</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19400,7 +19405,7 @@
         <v>44916</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19462,7 +19467,7 @@
         <v>44917</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19524,7 +19529,7 @@
         <v>44917</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19586,7 +19591,7 @@
         <v>44917</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19648,7 +19653,7 @@
         <v>44928</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19710,7 +19715,7 @@
         <v>44928</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19772,7 +19777,7 @@
         <v>44958</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19829,7 +19834,7 @@
         <v>44963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19886,7 +19891,7 @@
         <v>44969</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19943,7 +19948,7 @@
         <v>44974</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20000,7 +20005,7 @@
         <v>44978</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20057,7 +20062,7 @@
         <v>44978</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20114,7 +20119,7 @@
         <v>44978</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20171,7 +20176,7 @@
         <v>44978</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20228,7 +20233,7 @@
         <v>44978</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20285,7 +20290,7 @@
         <v>44984</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20342,7 +20347,7 @@
         <v>44989</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20399,7 +20404,7 @@
         <v>44992</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20456,7 +20461,7 @@
         <v>44992</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20513,7 +20518,7 @@
         <v>44994</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20570,7 +20575,7 @@
         <v>44999</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20627,7 +20632,7 @@
         <v>44999</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20684,7 +20689,7 @@
         <v>45001</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20741,7 +20746,7 @@
         <v>45002</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20798,7 +20803,7 @@
         <v>45002</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20855,7 +20860,7 @@
         <v>45002</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20912,7 +20917,7 @@
         <v>45002</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20969,7 +20974,7 @@
         <v>45008</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21031,7 +21036,7 @@
         <v>45015</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21088,7 +21093,7 @@
         <v>45027</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21145,7 +21150,7 @@
         <v>45029</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21202,7 +21207,7 @@
         <v>45029</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21259,7 +21264,7 @@
         <v>45029</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21316,7 +21321,7 @@
         <v>45043</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21373,7 +21378,7 @@
         <v>45054</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21435,7 +21440,7 @@
         <v>45054</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21497,7 +21502,7 @@
         <v>45056</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21554,7 +21559,7 @@
         <v>45056</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21611,7 +21616,7 @@
         <v>45057</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21668,7 +21673,7 @@
         <v>45063</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21725,7 +21730,7 @@
         <v>45065</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21782,7 +21787,7 @@
         <v>45068</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21839,7 +21844,7 @@
         <v>45069</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21901,7 +21906,7 @@
         <v>45072</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21958,7 +21963,7 @@
         <v>45072</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22015,7 +22020,7 @@
         <v>45075</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22077,7 +22082,7 @@
         <v>45084</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22134,7 +22139,7 @@
         <v>45085</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22191,7 +22196,7 @@
         <v>45086</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22248,7 +22253,7 @@
         <v>45090</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22305,7 +22310,7 @@
         <v>45103</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22367,7 +22372,7 @@
         <v>45104</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22429,7 +22434,7 @@
         <v>45106</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22486,7 +22491,7 @@
         <v>45107</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22548,7 +22553,7 @@
         <v>45107</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22610,7 +22615,7 @@
         <v>45107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22672,7 +22677,7 @@
         <v>45110</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22734,7 +22739,7 @@
         <v>45111</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22791,7 +22796,7 @@
         <v>45112</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22853,7 +22858,7 @@
         <v>45117</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22915,7 +22920,7 @@
         <v>45124</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22972,7 +22977,7 @@
         <v>45139</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23034,7 +23039,7 @@
         <v>45147</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23091,7 +23096,7 @@
         <v>45147</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23153,7 +23158,7 @@
         <v>45154</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23210,7 +23215,7 @@
         <v>45154</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23267,7 +23272,7 @@
         <v>45155</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23329,7 +23334,7 @@
         <v>45155</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23391,7 +23396,7 @@
         <v>45160</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23453,7 +23458,7 @@
         <v>45166</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23510,7 +23515,7 @@
         <v>45169</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>

--- a/Översikt SORSELE.xlsx
+++ b/Översikt SORSELE.xlsx
@@ -572,7 +572,7 @@
         <v>44693</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>45085</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>44337</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         <v>44078</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>44078</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44088</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1214,59 +1214,161 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
+          <t>A 50909-2022</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>44865</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SORSELE</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>13</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>15</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>18</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Grantickeporing
+Rynkskinn
+Gammelgransskål
+Garnlav
+Granticka
+Gränsticka
+Harticka
+Knottrig blåslav
+Lunglav
+Rosenticka
+Rödbrun blekspik
+Tretåig hackspett
+Ullticka
+Vitgrynig nållav
+Vitskaftad svartspik
+Gulnål
+Stuplav
+Trådticka</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 50909-2022.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 50909-2022.png")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 50909-2022.docx")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 50909-2022.docx")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 50909-2022.docx")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 50909-2022.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>A 34702-2019</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>43648</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SORSELE</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C9" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SORSELE</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>10.1</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H9" t="n">
         <v>3</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I9" t="n">
         <v>4</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J9" t="n">
         <v>10</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K9" t="n">
         <v>1</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>11</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P9" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q9" t="n">
         <v>16</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Gräddporing
 Dvärgbägarlav
@@ -1286,87 +1388,87 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 34702-2019.xlsx")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 34702-2019.png")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 34702-2019.docx")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 34702-2019.docx")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 34702-2019.docx")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 34702-2019.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 10060-2022</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>44621</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>SORSELE</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C10" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SORSELE</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>45.3</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H10" t="n">
         <v>3</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I10" t="n">
         <v>4</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J10" t="n">
         <v>10</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K10" t="n">
         <v>1</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>11</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P10" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q10" t="n">
         <v>16</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Gräddporing
 Dvärgbägarlav
@@ -1386,128 +1488,28 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 10060-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 10060-2022.png")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 10060-2022.docx")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 10060-2022.docx")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 10060-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 10060-2022.docx")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 50909-2022</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>44865</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SORSELE</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>12</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>14</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>16</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Grantickeporing
-Rynkskinn
-Gammelgransskål
-Garnlav
-Granticka
-Gränsticka
-Harticka
-Knottrig blåslav
-Lunglav
-Rosenticka
-Rödbrun blekspik
-Tretåig hackspett
-Ullticka
-Vitgrynig nållav
-Gulnål
-Stuplav</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 50909-2022.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 50909-2022.png")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 50909-2022.docx")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 50909-2022.docx")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 50909-2022.docx")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 50909-2022.docx")</f>
         <v/>
       </c>
     </row>
@@ -1521,7 +1523,7 @@
         <v>44432</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1620,7 +1622,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1723,7 +1725,7 @@
         <v>44426</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1820,7 +1822,7 @@
         <v>43773</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1921,7 +1923,7 @@
         <v>44078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2021,7 +2023,7 @@
         <v>44370</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2121,7 +2123,7 @@
         <v>43851</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2215,7 +2217,7 @@
         <v>43648</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2313,7 +2315,7 @@
         <v>43515</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2409,7 +2411,7 @@
         <v>43909</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2499,7 +2501,7 @@
         <v>44386</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2589,7 +2591,7 @@
         <v>44865</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2679,7 +2681,7 @@
         <v>44336</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2768,7 +2770,7 @@
         <v>44295</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2861,7 +2863,7 @@
         <v>44518</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2949,7 +2951,7 @@
         <v>44841</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3037,7 +3039,7 @@
         <v>43397</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3129,7 +3131,7 @@
         <v>44137</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3216,7 +3218,7 @@
         <v>44432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3303,7 +3305,7 @@
         <v>44845</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3390,7 +3392,7 @@
         <v>44049</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3476,7 +3478,7 @@
         <v>44075</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3567,7 +3569,7 @@
         <v>44078</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3658,7 +3660,7 @@
         <v>44432</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3744,7 +3746,7 @@
         <v>44841</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3830,7 +3832,7 @@
         <v>45081</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3921,7 +3923,7 @@
         <v>43432</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4011,7 +4013,7 @@
         <v>43482</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4101,7 +4103,7 @@
         <v>43654</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4191,7 +4193,7 @@
         <v>43858</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4281,7 +4283,7 @@
         <v>44265</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4366,7 +4368,7 @@
         <v>44440</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4451,7 +4453,7 @@
         <v>44719</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4536,7 +4538,7 @@
         <v>45071</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4621,7 +4623,7 @@
         <v>43325</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4678,7 +4680,7 @@
         <v>43333</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4740,7 +4742,7 @@
         <v>43340</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4802,7 +4804,7 @@
         <v>43342</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4859,7 +4861,7 @@
         <v>43342</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4916,7 +4918,7 @@
         <v>43349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4973,7 +4975,7 @@
         <v>43385</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5030,7 +5032,7 @@
         <v>43397</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5087,7 +5089,7 @@
         <v>43397</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5144,7 +5146,7 @@
         <v>43397</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5201,7 +5203,7 @@
         <v>43405</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5258,7 +5260,7 @@
         <v>43416</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5315,7 +5317,7 @@
         <v>43419</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5372,7 +5374,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5429,7 +5431,7 @@
         <v>43433</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5486,7 +5488,7 @@
         <v>43434</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5543,7 +5545,7 @@
         <v>43445</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5605,7 +5607,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5662,7 +5664,7 @@
         <v>43455</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5724,7 +5726,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5786,7 +5788,7 @@
         <v>43482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5843,7 +5845,7 @@
         <v>43482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5900,7 +5902,7 @@
         <v>43482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5962,7 +5964,7 @@
         <v>43482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6024,7 +6026,7 @@
         <v>43482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6086,7 +6088,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6148,7 +6150,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6210,7 +6212,7 @@
         <v>43482</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6272,7 +6274,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6334,7 +6336,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6396,7 +6398,7 @@
         <v>43482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6458,7 +6460,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6515,7 +6517,7 @@
         <v>43495</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6572,7 +6574,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6629,7 +6631,7 @@
         <v>43495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6686,7 +6688,7 @@
         <v>43495</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6743,7 +6745,7 @@
         <v>43495</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6800,7 +6802,7 @@
         <v>43503</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6857,7 +6859,7 @@
         <v>43510</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6914,7 +6916,7 @@
         <v>43525</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6971,7 +6973,7 @@
         <v>43601</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7028,7 +7030,7 @@
         <v>43601</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7085,7 +7087,7 @@
         <v>43601</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7142,7 +7144,7 @@
         <v>43605</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7199,7 +7201,7 @@
         <v>43605</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7256,7 +7258,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7313,7 +7315,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7375,7 +7377,7 @@
         <v>43607</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7437,7 +7439,7 @@
         <v>43621</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7499,7 +7501,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7561,7 +7563,7 @@
         <v>43675</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7618,7 +7620,7 @@
         <v>43678</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7680,7 +7682,7 @@
         <v>43679</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7742,7 +7744,7 @@
         <v>43699</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7799,7 +7801,7 @@
         <v>43699</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7861,7 +7863,7 @@
         <v>43699</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7918,7 +7920,7 @@
         <v>43702</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7975,7 +7977,7 @@
         <v>43705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8032,7 +8034,7 @@
         <v>43719</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8089,7 +8091,7 @@
         <v>43719</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8146,7 +8148,7 @@
         <v>43738</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8208,7 +8210,7 @@
         <v>43738</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8270,7 +8272,7 @@
         <v>43738</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8332,7 +8334,7 @@
         <v>43752</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8389,7 +8391,7 @@
         <v>43754</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8446,7 +8448,7 @@
         <v>43758</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8503,7 +8505,7 @@
         <v>43762</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8560,7 +8562,7 @@
         <v>43766</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8617,7 +8619,7 @@
         <v>43766</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8674,7 +8676,7 @@
         <v>43773</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8736,7 +8738,7 @@
         <v>43773</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8798,7 +8800,7 @@
         <v>43794</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8855,7 +8857,7 @@
         <v>43811</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8912,7 +8914,7 @@
         <v>43831</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8969,7 +8971,7 @@
         <v>43831</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9026,7 +9028,7 @@
         <v>43831</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9083,7 +9085,7 @@
         <v>43880</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9145,7 +9147,7 @@
         <v>43909</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9202,7 +9204,7 @@
         <v>43914</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9264,7 +9266,7 @@
         <v>43917</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9326,7 +9328,7 @@
         <v>43920</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9388,7 +9390,7 @@
         <v>43922</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9445,7 +9447,7 @@
         <v>43922</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9502,7 +9504,7 @@
         <v>43935</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9564,7 +9566,7 @@
         <v>43958</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9621,7 +9623,7 @@
         <v>43958</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9678,7 +9680,7 @@
         <v>43965</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9735,7 +9737,7 @@
         <v>43990</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9792,7 +9794,7 @@
         <v>43991</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9849,7 +9851,7 @@
         <v>43991</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9906,7 +9908,7 @@
         <v>44000</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9968,7 +9970,7 @@
         <v>44000</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10030,7 +10032,7 @@
         <v>44000</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10092,7 +10094,7 @@
         <v>44013</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10154,7 +10156,7 @@
         <v>44041</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10216,7 +10218,7 @@
         <v>44041</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10278,7 +10280,7 @@
         <v>44043</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10340,7 +10342,7 @@
         <v>44063</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10402,7 +10404,7 @@
         <v>44063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10464,7 +10466,7 @@
         <v>44078</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10526,7 +10528,7 @@
         <v>44078</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10588,7 +10590,7 @@
         <v>44078</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10650,7 +10652,7 @@
         <v>44078</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10712,7 +10714,7 @@
         <v>44083</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10769,7 +10771,7 @@
         <v>44090</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10831,7 +10833,7 @@
         <v>44098</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10893,7 +10895,7 @@
         <v>44102</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10955,7 +10957,7 @@
         <v>44102</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11017,7 +11019,7 @@
         <v>44102</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11079,7 +11081,7 @@
         <v>44102</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11141,7 +11143,7 @@
         <v>44113</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11198,7 +11200,7 @@
         <v>44136</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11255,7 +11257,7 @@
         <v>44141</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11312,7 +11314,7 @@
         <v>44144</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11374,7 +11376,7 @@
         <v>44145</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11431,7 +11433,7 @@
         <v>44145</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11488,7 +11490,7 @@
         <v>44145</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11545,7 +11547,7 @@
         <v>44148</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11602,7 +11604,7 @@
         <v>44148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11659,7 +11661,7 @@
         <v>44150</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11716,7 +11718,7 @@
         <v>44164</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11773,7 +11775,7 @@
         <v>44173</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11830,7 +11832,7 @@
         <v>44179</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11887,7 +11889,7 @@
         <v>44180</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11944,7 +11946,7 @@
         <v>44203</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12001,7 +12003,7 @@
         <v>44207</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12063,7 +12065,7 @@
         <v>44218</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12125,7 +12127,7 @@
         <v>44218</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12187,7 +12189,7 @@
         <v>44222</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12249,7 +12251,7 @@
         <v>44227</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12306,7 +12308,7 @@
         <v>44234</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12363,7 +12365,7 @@
         <v>44234</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12420,7 +12422,7 @@
         <v>44235</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12477,7 +12479,7 @@
         <v>44251</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12534,7 +12536,7 @@
         <v>44251</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12591,7 +12593,7 @@
         <v>44258</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12648,7 +12650,7 @@
         <v>44272</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12705,7 +12707,7 @@
         <v>44277</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12762,7 +12764,7 @@
         <v>44287</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12824,7 +12826,7 @@
         <v>44287</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12886,7 +12888,7 @@
         <v>44295</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12943,7 +12945,7 @@
         <v>44295</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13000,7 +13002,7 @@
         <v>44295</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13062,7 +13064,7 @@
         <v>44298</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13119,7 +13121,7 @@
         <v>44298</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13176,7 +13178,7 @@
         <v>44298</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13233,7 +13235,7 @@
         <v>44317</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13290,7 +13292,7 @@
         <v>44317</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13347,7 +13349,7 @@
         <v>44322</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13409,7 +13411,7 @@
         <v>44326</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13466,7 +13468,7 @@
         <v>44326</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13523,7 +13525,7 @@
         <v>44326</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13580,7 +13582,7 @@
         <v>44326</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13637,7 +13639,7 @@
         <v>44330</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13699,7 +13701,7 @@
         <v>44349</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13761,7 +13763,7 @@
         <v>44350</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13818,7 +13820,7 @@
         <v>44350</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13875,7 +13877,7 @@
         <v>44355</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13932,7 +13934,7 @@
         <v>44355</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13989,7 +13991,7 @@
         <v>44364</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14046,7 +14048,7 @@
         <v>44364</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14103,7 +14105,7 @@
         <v>44376</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14160,7 +14162,7 @@
         <v>44377</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14217,7 +14219,7 @@
         <v>44392</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14279,7 +14281,7 @@
         <v>44426</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14336,7 +14338,7 @@
         <v>44432</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14393,7 +14395,7 @@
         <v>44439</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14450,7 +14452,7 @@
         <v>44448</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14507,7 +14509,7 @@
         <v>44466</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14564,7 +14566,7 @@
         <v>44468</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14621,7 +14623,7 @@
         <v>44473</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14683,7 +14685,7 @@
         <v>44473</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14745,7 +14747,7 @@
         <v>44473</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14807,7 +14809,7 @@
         <v>44494</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14864,7 +14866,7 @@
         <v>44496</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14921,7 +14923,7 @@
         <v>44496</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14978,7 +14980,7 @@
         <v>44501</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15035,7 +15037,7 @@
         <v>44505</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15092,7 +15094,7 @@
         <v>44518</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15149,7 +15151,7 @@
         <v>44531</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15206,7 +15208,7 @@
         <v>44532</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15263,7 +15265,7 @@
         <v>44533</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15320,7 +15322,7 @@
         <v>44538</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15377,7 +15379,7 @@
         <v>44546</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15434,7 +15436,7 @@
         <v>44546</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15491,7 +15493,7 @@
         <v>44546</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15548,7 +15550,7 @@
         <v>44546</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15605,7 +15607,7 @@
         <v>44550</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15662,7 +15664,7 @@
         <v>44566</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15719,7 +15721,7 @@
         <v>44606</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15776,7 +15778,7 @@
         <v>44606</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15833,7 +15835,7 @@
         <v>44619</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15890,7 +15892,7 @@
         <v>44621</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15947,7 +15949,7 @@
         <v>44638</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16004,7 +16006,7 @@
         <v>44648</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16061,7 +16063,7 @@
         <v>44657</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16118,7 +16120,7 @@
         <v>44657</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16175,7 +16177,7 @@
         <v>44657</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16232,7 +16234,7 @@
         <v>44657</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16289,7 +16291,7 @@
         <v>44719</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16346,7 +16348,7 @@
         <v>44719</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16403,7 +16405,7 @@
         <v>44719</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16460,7 +16462,7 @@
         <v>44719</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16517,7 +16519,7 @@
         <v>44725</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16574,7 +16576,7 @@
         <v>44725</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16631,7 +16633,7 @@
         <v>44731</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16688,7 +16690,7 @@
         <v>44734</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16745,7 +16747,7 @@
         <v>44784</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16807,7 +16809,7 @@
         <v>44796</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16869,7 +16871,7 @@
         <v>44797</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16926,7 +16928,7 @@
         <v>44834</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16983,7 +16985,7 @@
         <v>44837</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17040,7 +17042,7 @@
         <v>44837</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17097,7 +17099,7 @@
         <v>44841</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17154,7 +17156,7 @@
         <v>44841</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17211,7 +17213,7 @@
         <v>44841</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17268,7 +17270,7 @@
         <v>44845</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17325,7 +17327,7 @@
         <v>44845</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17382,7 +17384,7 @@
         <v>44845</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17439,7 +17441,7 @@
         <v>44846</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17501,7 +17503,7 @@
         <v>44851</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17563,7 +17565,7 @@
         <v>44851</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17625,7 +17627,7 @@
         <v>44851</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17687,7 +17689,7 @@
         <v>44851</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17749,7 +17751,7 @@
         <v>44851</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17811,7 +17813,7 @@
         <v>44852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17868,7 +17870,7 @@
         <v>44860</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17930,7 +17932,7 @@
         <v>44866</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17992,7 +17994,7 @@
         <v>44866</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18049,7 +18051,7 @@
         <v>44867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18111,7 +18113,7 @@
         <v>44867</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18173,7 +18175,7 @@
         <v>44869</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18235,7 +18237,7 @@
         <v>44869</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18297,7 +18299,7 @@
         <v>44869</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18359,7 +18361,7 @@
         <v>44879</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18416,7 +18418,7 @@
         <v>44879</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18473,7 +18475,7 @@
         <v>44882</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18535,7 +18537,7 @@
         <v>44886</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18592,7 +18594,7 @@
         <v>44890</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18654,7 +18656,7 @@
         <v>44890</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18716,7 +18718,7 @@
         <v>44893</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18773,7 +18775,7 @@
         <v>44893</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18830,7 +18832,7 @@
         <v>44895</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18887,7 +18889,7 @@
         <v>44897</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18944,7 +18946,7 @@
         <v>44900</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19001,7 +19003,7 @@
         <v>44900</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19058,7 +19060,7 @@
         <v>44900</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19115,7 +19117,7 @@
         <v>44907</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19172,7 +19174,7 @@
         <v>44908</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19229,7 +19231,7 @@
         <v>44914</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19286,7 +19288,7 @@
         <v>44914</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19343,7 +19345,7 @@
         <v>44916</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19405,7 +19407,7 @@
         <v>44916</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19467,7 +19469,7 @@
         <v>44917</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19529,7 +19531,7 @@
         <v>44917</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19591,7 +19593,7 @@
         <v>44917</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19653,7 +19655,7 @@
         <v>44928</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19715,7 +19717,7 @@
         <v>44928</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19777,7 +19779,7 @@
         <v>44958</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19834,7 +19836,7 @@
         <v>44963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19891,7 +19893,7 @@
         <v>44969</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19948,7 +19950,7 @@
         <v>44974</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20005,7 +20007,7 @@
         <v>44978</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20062,7 +20064,7 @@
         <v>44978</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20119,7 +20121,7 @@
         <v>44978</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20176,7 +20178,7 @@
         <v>44978</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20233,7 +20235,7 @@
         <v>44978</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20290,7 +20292,7 @@
         <v>44984</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20347,7 +20349,7 @@
         <v>44989</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20404,7 +20406,7 @@
         <v>44992</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20461,7 +20463,7 @@
         <v>44992</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20518,7 +20520,7 @@
         <v>44994</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20575,7 +20577,7 @@
         <v>44999</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20632,7 +20634,7 @@
         <v>44999</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20689,7 +20691,7 @@
         <v>45001</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20746,7 +20748,7 @@
         <v>45002</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20803,7 +20805,7 @@
         <v>45002</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20860,7 +20862,7 @@
         <v>45002</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20917,7 +20919,7 @@
         <v>45002</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20974,7 +20976,7 @@
         <v>45008</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21036,7 +21038,7 @@
         <v>45015</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21093,7 +21095,7 @@
         <v>45027</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21150,7 +21152,7 @@
         <v>45029</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21207,7 +21209,7 @@
         <v>45029</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21264,7 +21266,7 @@
         <v>45029</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21321,7 +21323,7 @@
         <v>45043</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21378,7 +21380,7 @@
         <v>45054</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21440,7 +21442,7 @@
         <v>45054</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21502,7 +21504,7 @@
         <v>45056</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21559,7 +21561,7 @@
         <v>45056</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21616,7 +21618,7 @@
         <v>45057</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21673,7 +21675,7 @@
         <v>45063</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21730,7 +21732,7 @@
         <v>45065</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21787,7 +21789,7 @@
         <v>45068</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21844,7 +21846,7 @@
         <v>45069</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21906,7 +21908,7 @@
         <v>45072</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21963,7 +21965,7 @@
         <v>45072</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22020,7 +22022,7 @@
         <v>45075</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22082,7 +22084,7 @@
         <v>45084</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22139,7 +22141,7 @@
         <v>45085</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22196,7 +22198,7 @@
         <v>45086</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22253,7 +22255,7 @@
         <v>45090</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22310,7 +22312,7 @@
         <v>45103</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22372,7 +22374,7 @@
         <v>45104</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22434,7 +22436,7 @@
         <v>45106</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22491,7 +22493,7 @@
         <v>45107</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22553,7 +22555,7 @@
         <v>45107</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22615,7 +22617,7 @@
         <v>45107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22677,7 +22679,7 @@
         <v>45110</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22739,7 +22741,7 @@
         <v>45111</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22796,7 +22798,7 @@
         <v>45112</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22858,7 +22860,7 @@
         <v>45117</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22920,7 +22922,7 @@
         <v>45124</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22977,7 +22979,7 @@
         <v>45139</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23039,7 +23041,7 @@
         <v>45147</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23096,7 +23098,7 @@
         <v>45147</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23158,7 +23160,7 @@
         <v>45154</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23215,7 +23217,7 @@
         <v>45154</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23272,7 +23274,7 @@
         <v>45155</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23334,7 +23336,7 @@
         <v>45155</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23396,7 +23398,7 @@
         <v>45160</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23458,7 +23460,7 @@
         <v>45166</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23515,7 +23517,7 @@
         <v>45169</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>

--- a/Översikt SORSELE.xlsx
+++ b/Översikt SORSELE.xlsx
@@ -572,7 +572,7 @@
         <v>44693</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>45085</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>44337</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         <v>44078</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>44078</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44088</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>44865</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43648</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>44621</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         <v>44432</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>44426</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43773</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>44078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>44370</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43851</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43648</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43515</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>43909</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>44386</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>44865</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>44336</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>44295</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44518</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>44841</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43397</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>44137</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>44432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>44845</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>44049</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>44075</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
         <v>44078</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>44432</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>44841</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>45081</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43432</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43482</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43654</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>43858</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>44265</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>44440</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44719</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>45071</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43325</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43333</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43340</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43342</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43342</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>43385</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>43397</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43397</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>43397</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>43405</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>43416</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>43419</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>43433</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>43434</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>43445</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>43455</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>43482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>43482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>43482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>43482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>43482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43482</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43495</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43495</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43495</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43503</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43510</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43525</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43601</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43601</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43601</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43605</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43605</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>43607</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43621</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43675</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43678</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>43679</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43699</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43699</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43699</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43702</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>43719</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>43719</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         <v>43738</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43738</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43738</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>43752</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>43754</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>43758</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8505,7 +8505,7 @@
         <v>43762</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43766</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43766</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>43773</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43773</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43794</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43811</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>43831</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>43831</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43831</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>43880</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43909</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43914</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>43917</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>43920</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>43922</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43922</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43935</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>43958</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>43958</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>43965</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>43990</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>43991</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>43991</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>44000</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44000</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>44000</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44013</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10156,7 +10156,7 @@
         <v>44041</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10218,7 +10218,7 @@
         <v>44041</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>44043</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>44063</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>44078</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44078</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>44078</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>44078</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>44083</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>44090</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>44098</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10895,7 +10895,7 @@
         <v>44102</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>44102</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11019,7 +11019,7 @@
         <v>44102</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>44102</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44113</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44136</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44141</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44144</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>44145</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>44145</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>44145</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>44148</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>44148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>44150</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>44164</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>44173</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>44179</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>44180</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>44203</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>44207</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44218</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>44218</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>44222</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44227</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44234</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44234</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>44235</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44251</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44251</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44258</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>44272</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>44277</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>44287</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>44287</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12888,7 +12888,7 @@
         <v>44295</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12945,7 +12945,7 @@
         <v>44295</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13002,7 +13002,7 @@
         <v>44295</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44298</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>44298</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>44298</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>44317</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44317</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44322</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         <v>44326</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13468,7 +13468,7 @@
         <v>44326</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13525,7 +13525,7 @@
         <v>44326</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         <v>44326</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>44330</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>44349</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13763,7 +13763,7 @@
         <v>44350</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13820,7 +13820,7 @@
         <v>44350</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
         <v>44355</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44355</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13991,7 +13991,7 @@
         <v>44364</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>44364</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>44376</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14162,7 +14162,7 @@
         <v>44377</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>44392</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44426</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44432</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>44439</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>44448</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14509,7 +14509,7 @@
         <v>44466</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44468</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14623,7 +14623,7 @@
         <v>44473</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44473</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44473</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44494</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44496</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44496</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44501</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44505</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44518</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44531</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44532</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44533</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44538</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44546</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44546</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44546</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>44546</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15607,7 +15607,7 @@
         <v>44550</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15664,7 +15664,7 @@
         <v>44566</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
         <v>44606</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15778,7 +15778,7 @@
         <v>44606</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15835,7 +15835,7 @@
         <v>44619</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15892,7 +15892,7 @@
         <v>44621</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>44638</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>44648</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>44657</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>44657</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16177,7 +16177,7 @@
         <v>44657</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16234,7 +16234,7 @@
         <v>44657</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         <v>44719</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16348,7 +16348,7 @@
         <v>44719</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16405,7 +16405,7 @@
         <v>44719</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>44719</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>44725</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16576,7 +16576,7 @@
         <v>44725</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>44731</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>44734</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>44784</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16809,7 +16809,7 @@
         <v>44796</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16871,7 +16871,7 @@
         <v>44797</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16928,7 +16928,7 @@
         <v>44834</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16985,7 +16985,7 @@
         <v>44837</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17042,7 +17042,7 @@
         <v>44837</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17099,7 +17099,7 @@
         <v>44841</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17156,7 +17156,7 @@
         <v>44841</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
         <v>44841</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17270,7 +17270,7 @@
         <v>44845</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>44845</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17384,7 +17384,7 @@
         <v>44845</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17441,7 +17441,7 @@
         <v>44846</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>44851</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>44851</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17627,7 +17627,7 @@
         <v>44851</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44851</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17751,7 +17751,7 @@
         <v>44851</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17813,7 +17813,7 @@
         <v>44852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>44860</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>44866</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>44866</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>44867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>44867</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>44869</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44869</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44869</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
         <v>44879</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         <v>44879</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44882</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44886</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44890</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44890</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>44893</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>44893</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>44895</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>44897</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>44900</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>44900</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>44900</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>44907</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>44908</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>44914</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>44914</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>44916</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>44916</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19469,7 +19469,7 @@
         <v>44917</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>44917</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>44917</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>44928</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>44928</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19779,7 +19779,7 @@
         <v>44958</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19836,7 +19836,7 @@
         <v>44963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19893,7 +19893,7 @@
         <v>44969</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19950,7 +19950,7 @@
         <v>44974</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20007,7 +20007,7 @@
         <v>44978</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20064,7 +20064,7 @@
         <v>44978</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20121,7 +20121,7 @@
         <v>44978</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20178,7 +20178,7 @@
         <v>44978</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>44978</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>44984</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         <v>44989</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20406,7 +20406,7 @@
         <v>44992</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
         <v>44992</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>44994</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>44999</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20634,7 +20634,7 @@
         <v>44999</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>45001</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>45002</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
         <v>45002</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20862,7 +20862,7 @@
         <v>45002</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20919,7 +20919,7 @@
         <v>45002</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20976,7 +20976,7 @@
         <v>45008</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
         <v>45015</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>45027</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>45029</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
         <v>45029</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>45029</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21323,7 +21323,7 @@
         <v>45043</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>45054</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21442,7 +21442,7 @@
         <v>45054</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>45056</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>45056</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>45057</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>45063</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>45065</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>45068</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>45069</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>45072</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21965,7 +21965,7 @@
         <v>45072</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>45075</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>45084</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>45085</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>45086</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>45090</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         <v>45103</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>45104</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22436,7 +22436,7 @@
         <v>45106</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22493,7 +22493,7 @@
         <v>45107</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>45107</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22617,7 +22617,7 @@
         <v>45107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22679,7 +22679,7 @@
         <v>45110</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45111</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45112</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22860,7 +22860,7 @@
         <v>45117</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22922,7 +22922,7 @@
         <v>45124</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22979,7 +22979,7 @@
         <v>45139</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23041,7 +23041,7 @@
         <v>45147</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23098,7 +23098,7 @@
         <v>45147</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23160,7 +23160,7 @@
         <v>45154</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23217,7 +23217,7 @@
         <v>45154</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23274,7 +23274,7 @@
         <v>45155</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23336,7 +23336,7 @@
         <v>45155</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>45160</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23460,7 +23460,7 @@
         <v>45166</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>45169</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>

--- a/Översikt SORSELE.xlsx
+++ b/Översikt SORSELE.xlsx
@@ -572,7 +572,7 @@
         <v>44693</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -651,27 +651,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 19470-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 19470-2022.xlsx", "A 19470-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 19470-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 19470-2022.png", "A 19470-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 19470-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 19470-2022.docx", "A 19470-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 19470-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 19470-2022.docx", "A 19470-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 19470-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 19470-2022.docx", "A 19470-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 19470-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 19470-2022.docx", "A 19470-2022")</f>
         <v/>
       </c>
     </row>
@@ -685,7 +685,7 @@
         <v>45085</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,27 +758,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 25917-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 25917-2023.xlsx", "A 25917-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 25917-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 25917-2023.png", "A 25917-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 25917-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 25917-2023.docx", "A 25917-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 25917-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 25917-2023.docx", "A 25917-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 25917-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 25917-2023.docx", "A 25917-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 25917-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 25917-2023.docx", "A 25917-2023")</f>
         <v/>
       </c>
     </row>
@@ -792,7 +792,7 @@
         <v>44337</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,27 +863,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 24409-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 24409-2021.xlsx", "A 24409-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 24409-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 24409-2021.png", "A 24409-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 24409-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 24409-2021.docx", "A 24409-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 24409-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 24409-2021.docx", "A 24409-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 24409-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 24409-2021.docx", "A 24409-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 24409-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 24409-2021.docx", "A 24409-2021")</f>
         <v/>
       </c>
     </row>
@@ -897,7 +897,7 @@
         <v>44078</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -972,27 +972,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 48539-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 48539-2020.xlsx", "A 48539-2020")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 48539-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 48539-2020.png", "A 48539-2020")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 48539-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 48539-2020.docx", "A 48539-2020")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 48539-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 48539-2020.docx", "A 48539-2020")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 48539-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 48539-2020.docx", "A 48539-2020")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 48539-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 48539-2020.docx", "A 48539-2020")</f>
         <v/>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
         <v>44078</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1080,27 +1080,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 43980-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 43980-2020.xlsx", "A 43980-2020")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 43980-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 43980-2020.png", "A 43980-2020")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 43980-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 43980-2020.docx", "A 43980-2020")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 43980-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 43980-2020.docx", "A 43980-2020")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 43980-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 43980-2020.docx", "A 43980-2020")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 43980-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 43980-2020.docx", "A 43980-2020")</f>
         <v/>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
         <v>44088</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1187,27 +1187,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 45415-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 45415-2020.xlsx", "A 45415-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 45415-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 45415-2020.png", "A 45415-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 45415-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 45415-2020.docx", "A 45415-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 45415-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 45415-2020.docx", "A 45415-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 45415-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 45415-2020.docx", "A 45415-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 45415-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 45415-2020.docx", "A 45415-2020")</f>
         <v/>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
         <v>44865</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1289,27 +1289,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 50909-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 50909-2022.xlsx", "A 50909-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 50909-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 50909-2022.png", "A 50909-2022")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 50909-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 50909-2022.docx", "A 50909-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 50909-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 50909-2022.docx", "A 50909-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 50909-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 50909-2022.docx", "A 50909-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 50909-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 50909-2022.docx", "A 50909-2022")</f>
         <v/>
       </c>
     </row>
@@ -1323,7 +1323,7 @@
         <v>43648</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1389,27 +1389,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 34702-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 34702-2019.xlsx", "A 34702-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 34702-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 34702-2019.png", "A 34702-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 34702-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 34702-2019.docx", "A 34702-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 34702-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 34702-2019.docx", "A 34702-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 34702-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 34702-2019.docx", "A 34702-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 34702-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 34702-2019.docx", "A 34702-2019")</f>
         <v/>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
         <v>44621</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1489,27 +1489,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 10060-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 10060-2022.xlsx", "A 10060-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 10060-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 10060-2022.png", "A 10060-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 10060-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 10060-2022.docx", "A 10060-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 10060-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 10060-2022.docx", "A 10060-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 10060-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 10060-2022.docx", "A 10060-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 10060-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 10060-2022.docx", "A 10060-2022")</f>
         <v/>
       </c>
     </row>
@@ -1523,7 +1523,7 @@
         <v>44432</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1588,27 +1588,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 43267-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 43267-2021.xlsx", "A 43267-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 43267-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 43267-2021.png", "A 43267-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 43267-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 43267-2021.docx", "A 43267-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 43267-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 43267-2021.docx", "A 43267-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 43267-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 43267-2021.docx", "A 43267-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 43267-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 43267-2021.docx", "A 43267-2021")</f>
         <v/>
       </c>
     </row>
@@ -1622,7 +1622,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1691,27 +1691,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 43982-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 43982-2020.xlsx", "A 43982-2020")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 43982-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 43982-2020.png", "A 43982-2020")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 43982-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 43982-2020.docx", "A 43982-2020")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 43982-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 43982-2020.docx", "A 43982-2020")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 43982-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 43982-2020.docx", "A 43982-2020")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 43982-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 43982-2020.docx", "A 43982-2020")</f>
         <v/>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
         <v>44426</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1788,27 +1788,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 42138-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 42138-2021.xlsx", "A 42138-2021")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 42138-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 42138-2021.png", "A 42138-2021")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 42138-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 42138-2021.docx", "A 42138-2021")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 42138-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 42138-2021.docx", "A 42138-2021")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 42138-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 42138-2021.docx", "A 42138-2021")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 42138-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 42138-2021.docx", "A 42138-2021")</f>
         <v/>
       </c>
     </row>
@@ -1822,7 +1822,7 @@
         <v>43773</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1889,27 +1889,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 58512-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 58512-2019.xlsx", "A 58512-2019")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 58512-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 58512-2019.png", "A 58512-2019")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 58512-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 58512-2019.docx", "A 58512-2019")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 58512-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 58512-2019.docx", "A 58512-2019")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 58512-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 58512-2019.docx", "A 58512-2019")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 58512-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 58512-2019.docx", "A 58512-2019")</f>
         <v/>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
         <v>44078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1989,27 +1989,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 43976-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 43976-2020.xlsx", "A 43976-2020")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 43976-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 43976-2020.png", "A 43976-2020")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 43976-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 43976-2020.docx", "A 43976-2020")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 43976-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 43976-2020.docx", "A 43976-2020")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 43976-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 43976-2020.docx", "A 43976-2020")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 43976-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 43976-2020.docx", "A 43976-2020")</f>
         <v/>
       </c>
     </row>
@@ -2023,7 +2023,7 @@
         <v>44370</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2089,27 +2089,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 31945-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 31945-2021.xlsx", "A 31945-2021")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 31945-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 31945-2021.png", "A 31945-2021")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 31945-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 31945-2021.docx", "A 31945-2021")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 31945-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 31945-2021.docx", "A 31945-2021")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 31945-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 31945-2021.docx", "A 31945-2021")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 31945-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 31945-2021.docx", "A 31945-2021")</f>
         <v/>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
         <v>43851</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2183,27 +2183,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 3137-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 3137-2020.xlsx", "A 3137-2020")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 3137-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 3137-2020.png", "A 3137-2020")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 3137-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 3137-2020.docx", "A 3137-2020")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 3137-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 3137-2020.docx", "A 3137-2020")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 3137-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 3137-2020.docx", "A 3137-2020")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 3137-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 3137-2020.docx", "A 3137-2020")</f>
         <v/>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
         <v>43648</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2281,27 +2281,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 34371-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 34371-2019.xlsx", "A 34371-2019")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 34371-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 34371-2019.png", "A 34371-2019")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 34371-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 34371-2019.docx", "A 34371-2019")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 34371-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 34371-2019.docx", "A 34371-2019")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 34371-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 34371-2019.docx", "A 34371-2019")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 34371-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 34371-2019.docx", "A 34371-2019")</f>
         <v/>
       </c>
     </row>
@@ -2315,7 +2315,7 @@
         <v>43515</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2377,27 +2377,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 11017-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 11017-2019.xlsx", "A 11017-2019")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 11017-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 11017-2019.png", "A 11017-2019")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 11017-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 11017-2019.docx", "A 11017-2019")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 11017-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 11017-2019.docx", "A 11017-2019")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 11017-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 11017-2019.docx", "A 11017-2019")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 11017-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 11017-2019.docx", "A 11017-2019")</f>
         <v/>
       </c>
     </row>
@@ -2411,7 +2411,7 @@
         <v>43909</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2467,27 +2467,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 16606-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 16606-2020.xlsx", "A 16606-2020")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 16606-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 16606-2020.png", "A 16606-2020")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 16606-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 16606-2020.docx", "A 16606-2020")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 16606-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 16606-2020.docx", "A 16606-2020")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 16606-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 16606-2020.docx", "A 16606-2020")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 16606-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 16606-2020.docx", "A 16606-2020")</f>
         <v/>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
         <v>44386</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2557,27 +2557,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 36104-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 36104-2021.xlsx", "A 36104-2021")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 36104-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 36104-2021.png", "A 36104-2021")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 36104-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 36104-2021.docx", "A 36104-2021")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 36104-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 36104-2021.docx", "A 36104-2021")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 36104-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 36104-2021.docx", "A 36104-2021")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 36104-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 36104-2021.docx", "A 36104-2021")</f>
         <v/>
       </c>
     </row>
@@ -2591,7 +2591,7 @@
         <v>44865</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2647,27 +2647,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 50916-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 50916-2022.xlsx", "A 50916-2022")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 50916-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 50916-2022.png", "A 50916-2022")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 50916-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 50916-2022.docx", "A 50916-2022")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 50916-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 50916-2022.docx", "A 50916-2022")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 50916-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 50916-2022.docx", "A 50916-2022")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 50916-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 50916-2022.docx", "A 50916-2022")</f>
         <v/>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
         <v>44336</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2736,27 +2736,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 24279-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 24279-2021.xlsx", "A 24279-2021")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 24279-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 24279-2021.png", "A 24279-2021")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 24279-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 24279-2021.docx", "A 24279-2021")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 24279-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 24279-2021.docx", "A 24279-2021")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 24279-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 24279-2021.docx", "A 24279-2021")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 24279-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 24279-2021.docx", "A 24279-2021")</f>
         <v/>
       </c>
     </row>
@@ -2770,7 +2770,7 @@
         <v>44295</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2829,27 +2829,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 16687-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 16687-2021.xlsx", "A 16687-2021")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 16687-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 16687-2021.png", "A 16687-2021")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 16687-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 16687-2021.docx", "A 16687-2021")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 16687-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 16687-2021.docx", "A 16687-2021")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 16687-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 16687-2021.docx", "A 16687-2021")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 16687-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 16687-2021.docx", "A 16687-2021")</f>
         <v/>
       </c>
     </row>
@@ -2863,7 +2863,7 @@
         <v>44518</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2917,27 +2917,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 66443-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 66443-2021.xlsx", "A 66443-2021")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 66443-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 66443-2021.png", "A 66443-2021")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 66443-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 66443-2021.docx", "A 66443-2021")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 66443-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 66443-2021.docx", "A 66443-2021")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 66443-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 66443-2021.docx", "A 66443-2021")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 66443-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 66443-2021.docx", "A 66443-2021")</f>
         <v/>
       </c>
     </row>
@@ -2951,7 +2951,7 @@
         <v>44841</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3005,27 +3005,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 45582-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 45582-2022.xlsx", "A 45582-2022")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 45582-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 45582-2022.png", "A 45582-2022")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 45582-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 45582-2022.docx", "A 45582-2022")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 45582-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 45582-2022.docx", "A 45582-2022")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 45582-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 45582-2022.docx", "A 45582-2022")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 45582-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 45582-2022.docx", "A 45582-2022")</f>
         <v/>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
         <v>43397</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3097,27 +3097,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 55469-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 55469-2018.xlsx", "A 55469-2018")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 55469-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 55469-2018.png", "A 55469-2018")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 55469-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 55469-2018.docx", "A 55469-2018")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 55469-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 55469-2018.docx", "A 55469-2018")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 55469-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 55469-2018.docx", "A 55469-2018")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 55469-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 55469-2018.docx", "A 55469-2018")</f>
         <v/>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
         <v>44137</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3184,27 +3184,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 56668-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 56668-2020.xlsx", "A 56668-2020")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 56668-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 56668-2020.png", "A 56668-2020")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 56668-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 56668-2020.docx", "A 56668-2020")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 56668-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 56668-2020.docx", "A 56668-2020")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 56668-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 56668-2020.docx", "A 56668-2020")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 56668-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 56668-2020.docx", "A 56668-2020")</f>
         <v/>
       </c>
     </row>
@@ -3218,7 +3218,7 @@
         <v>44432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3271,27 +3271,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 43272-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 43272-2021.xlsx", "A 43272-2021")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 43272-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 43272-2021.png", "A 43272-2021")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 43272-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 43272-2021.docx", "A 43272-2021")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 43272-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 43272-2021.docx", "A 43272-2021")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 43272-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 43272-2021.docx", "A 43272-2021")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 43272-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 43272-2021.docx", "A 43272-2021")</f>
         <v/>
       </c>
     </row>
@@ -3305,7 +3305,7 @@
         <v>44845</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3358,27 +3358,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 46088-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 46088-2022.xlsx", "A 46088-2022")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 46088-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 46088-2022.png", "A 46088-2022")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 46088-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 46088-2022.docx", "A 46088-2022")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 46088-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 46088-2022.docx", "A 46088-2022")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 46088-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 46088-2022.docx", "A 46088-2022")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 46088-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 46088-2022.docx", "A 46088-2022")</f>
         <v/>
       </c>
     </row>
@@ -3392,7 +3392,7 @@
         <v>44049</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3444,27 +3444,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 36344-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 36344-2020.xlsx", "A 36344-2020")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 36344-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 36344-2020.png", "A 36344-2020")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 36344-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 36344-2020.docx", "A 36344-2020")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 36344-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 36344-2020.docx", "A 36344-2020")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 36344-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 36344-2020.docx", "A 36344-2020")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 36344-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 36344-2020.docx", "A 36344-2020")</f>
         <v/>
       </c>
     </row>
@@ -3478,7 +3478,7 @@
         <v>44075</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3535,27 +3535,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 42118-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 42118-2020.xlsx", "A 42118-2020")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 42118-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 42118-2020.png", "A 42118-2020")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 42118-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 42118-2020.docx", "A 42118-2020")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 42118-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 42118-2020.docx", "A 42118-2020")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 42118-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 42118-2020.docx", "A 42118-2020")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 42118-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 42118-2020.docx", "A 42118-2020")</f>
         <v/>
       </c>
     </row>
@@ -3569,7 +3569,7 @@
         <v>44078</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3626,27 +3626,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 43940-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 43940-2020.xlsx", "A 43940-2020")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 43940-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 43940-2020.png", "A 43940-2020")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 43940-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 43940-2020.docx", "A 43940-2020")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 43940-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 43940-2020.docx", "A 43940-2020")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 43940-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 43940-2020.docx", "A 43940-2020")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 43940-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 43940-2020.docx", "A 43940-2020")</f>
         <v/>
       </c>
     </row>
@@ -3660,7 +3660,7 @@
         <v>44432</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3712,27 +3712,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 43265-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 43265-2021.xlsx", "A 43265-2021")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 43265-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 43265-2021.png", "A 43265-2021")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 43265-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 43265-2021.docx", "A 43265-2021")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 43265-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 43265-2021.docx", "A 43265-2021")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 43265-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 43265-2021.docx", "A 43265-2021")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 43265-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 43265-2021.docx", "A 43265-2021")</f>
         <v/>
       </c>
     </row>
@@ -3746,7 +3746,7 @@
         <v>44841</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3798,27 +3798,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 45569-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 45569-2022.xlsx", "A 45569-2022")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 45569-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 45569-2022.png", "A 45569-2022")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 45569-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 45569-2022.docx", "A 45569-2022")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 45569-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 45569-2022.docx", "A 45569-2022")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 45569-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 45569-2022.docx", "A 45569-2022")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 45569-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 45569-2022.docx", "A 45569-2022")</f>
         <v/>
       </c>
     </row>
@@ -3832,7 +3832,7 @@
         <v>45081</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3889,27 +3889,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 24332-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 24332-2023.xlsx", "A 24332-2023")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 24332-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 24332-2023.png", "A 24332-2023")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 24332-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 24332-2023.docx", "A 24332-2023")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 24332-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 24332-2023.docx", "A 24332-2023")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 24332-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 24332-2023.docx", "A 24332-2023")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 24332-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 24332-2023.docx", "A 24332-2023")</f>
         <v/>
       </c>
     </row>
@@ -3923,7 +3923,7 @@
         <v>43432</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3979,27 +3979,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 65152-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 65152-2018.xlsx", "A 65152-2018")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 65152-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 65152-2018.png", "A 65152-2018")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 65152-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 65152-2018.docx", "A 65152-2018")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 65152-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 65152-2018.docx", "A 65152-2018")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 65152-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 65152-2018.docx", "A 65152-2018")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 65152-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 65152-2018.docx", "A 65152-2018")</f>
         <v/>
       </c>
     </row>
@@ -4013,7 +4013,7 @@
         <v>43482</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4069,27 +4069,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 4034-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 4034-2019.xlsx", "A 4034-2019")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 4034-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 4034-2019.png", "A 4034-2019")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 4034-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 4034-2019.docx", "A 4034-2019")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 4034-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 4034-2019.docx", "A 4034-2019")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 4034-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 4034-2019.docx", "A 4034-2019")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 4034-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 4034-2019.docx", "A 4034-2019")</f>
         <v/>
       </c>
     </row>
@@ -4103,7 +4103,7 @@
         <v>43654</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4159,27 +4159,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 34058-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 34058-2019.xlsx", "A 34058-2019")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 34058-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 34058-2019.png", "A 34058-2019")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 34058-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 34058-2019.docx", "A 34058-2019")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 34058-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 34058-2019.docx", "A 34058-2019")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 34058-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 34058-2019.docx", "A 34058-2019")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 34058-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 34058-2019.docx", "A 34058-2019")</f>
         <v/>
       </c>
     </row>
@@ -4193,7 +4193,7 @@
         <v>43858</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4249,27 +4249,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 4439-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 4439-2020.xlsx", "A 4439-2020")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 4439-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 4439-2020.png", "A 4439-2020")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 4439-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 4439-2020.docx", "A 4439-2020")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 4439-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 4439-2020.docx", "A 4439-2020")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 4439-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 4439-2020.docx", "A 4439-2020")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 4439-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 4439-2020.docx", "A 4439-2020")</f>
         <v/>
       </c>
     </row>
@@ -4283,7 +4283,7 @@
         <v>44265</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4334,27 +4334,27 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 11845-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 11845-2021.xlsx", "A 11845-2021")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 11845-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 11845-2021.png", "A 11845-2021")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 11845-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 11845-2021.docx", "A 11845-2021")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 11845-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 11845-2021.docx", "A 11845-2021")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 11845-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 11845-2021.docx", "A 11845-2021")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 11845-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 11845-2021.docx", "A 11845-2021")</f>
         <v/>
       </c>
     </row>
@@ -4368,7 +4368,7 @@
         <v>44440</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4419,27 +4419,27 @@
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 45511-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 45511-2021.xlsx", "A 45511-2021")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 45511-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 45511-2021.png", "A 45511-2021")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 45511-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 45511-2021.docx", "A 45511-2021")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 45511-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 45511-2021.docx", "A 45511-2021")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 45511-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 45511-2021.docx", "A 45511-2021")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 45511-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 45511-2021.docx", "A 45511-2021")</f>
         <v/>
       </c>
     </row>
@@ -4453,7 +4453,7 @@
         <v>44719</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4504,27 +4504,27 @@
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 23232-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 23232-2022.xlsx", "A 23232-2022")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 23232-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 23232-2022.png", "A 23232-2022")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 23232-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 23232-2022.docx", "A 23232-2022")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 23232-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 23232-2022.docx", "A 23232-2022")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 23232-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 23232-2022.docx", "A 23232-2022")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 23232-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 23232-2022.docx", "A 23232-2022")</f>
         <v/>
       </c>
     </row>
@@ -4538,7 +4538,7 @@
         <v>45071</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4589,27 +4589,27 @@
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 23330-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 23330-2023.xlsx", "A 23330-2023")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 23330-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 23330-2023.png", "A 23330-2023")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 23330-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 23330-2023.docx", "A 23330-2023")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 23330-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 23330-2023.docx", "A 23330-2023")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 23330-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 23330-2023.docx", "A 23330-2023")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 23330-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 23330-2023.docx", "A 23330-2023")</f>
         <v/>
       </c>
     </row>
@@ -4623,7 +4623,7 @@
         <v>43325</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43333</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43340</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43342</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43342</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>43385</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>43397</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43397</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>43397</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>43405</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>43416</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>43419</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>43433</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>43434</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>43445</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>43455</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>43482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>43482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>43482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>43482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>43482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43482</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43495</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43495</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43495</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43503</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43510</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43525</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43601</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43601</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43601</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43605</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43605</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>43607</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43621</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43675</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43678</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>43679</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43699</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43699</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43699</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43702</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>43719</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>43719</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         <v>43738</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43738</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43738</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>43752</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>43754</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>43758</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8505,7 +8505,7 @@
         <v>43762</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43766</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43766</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>43773</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43773</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43794</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43811</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>43831</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>43831</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43831</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>43880</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43909</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43914</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>43917</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>43920</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>43922</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43922</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43935</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>43958</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>43958</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>43965</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>43990</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>43991</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>43991</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>44000</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44000</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>44000</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44013</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10156,7 +10156,7 @@
         <v>44041</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10218,7 +10218,7 @@
         <v>44041</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>44043</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>44063</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>44078</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44078</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>44078</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>44078</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>44083</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>44090</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>44098</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10895,7 +10895,7 @@
         <v>44102</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>44102</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11019,7 +11019,7 @@
         <v>44102</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>44102</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44113</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44136</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44141</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44144</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>44145</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>44145</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>44145</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>44148</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>44148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>44150</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>44164</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>44173</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>44179</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>44180</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>44203</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>44207</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44218</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>44218</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>44222</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44227</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44234</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44234</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>44235</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44251</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44251</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44258</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>44272</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>44277</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>44287</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>44287</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12888,7 +12888,7 @@
         <v>44295</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12945,7 +12945,7 @@
         <v>44295</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13002,7 +13002,7 @@
         <v>44295</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44298</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>44298</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>44298</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>44317</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44317</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44322</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         <v>44326</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13468,7 +13468,7 @@
         <v>44326</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13525,7 +13525,7 @@
         <v>44326</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         <v>44326</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>44330</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>44349</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13763,7 +13763,7 @@
         <v>44350</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13820,7 +13820,7 @@
         <v>44350</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
         <v>44355</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44355</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13991,7 +13991,7 @@
         <v>44364</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>44364</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>44376</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14162,7 +14162,7 @@
         <v>44377</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>44392</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44426</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44432</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>44439</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>44448</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14509,7 +14509,7 @@
         <v>44466</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44468</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14623,7 +14623,7 @@
         <v>44473</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44473</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44473</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44494</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44496</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44496</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44501</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44505</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44518</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44531</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44532</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44533</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44538</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44546</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44546</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44546</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>44546</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15607,7 +15607,7 @@
         <v>44550</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15664,7 +15664,7 @@
         <v>44566</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
         <v>44606</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15778,7 +15778,7 @@
         <v>44606</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15835,7 +15835,7 @@
         <v>44619</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15892,7 +15892,7 @@
         <v>44621</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>44638</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>44648</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>44657</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>44657</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16177,7 +16177,7 @@
         <v>44657</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16234,7 +16234,7 @@
         <v>44657</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         <v>44719</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16348,7 +16348,7 @@
         <v>44719</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16405,7 +16405,7 @@
         <v>44719</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>44719</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>44725</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16576,7 +16576,7 @@
         <v>44725</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>44731</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>44734</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>44784</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16809,7 +16809,7 @@
         <v>44796</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16871,7 +16871,7 @@
         <v>44797</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16928,7 +16928,7 @@
         <v>44834</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16985,7 +16985,7 @@
         <v>44837</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17042,7 +17042,7 @@
         <v>44837</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17099,7 +17099,7 @@
         <v>44841</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17156,7 +17156,7 @@
         <v>44841</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
         <v>44841</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17270,7 +17270,7 @@
         <v>44845</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>44845</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17384,7 +17384,7 @@
         <v>44845</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17441,7 +17441,7 @@
         <v>44846</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>44851</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>44851</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17627,7 +17627,7 @@
         <v>44851</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44851</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17751,7 +17751,7 @@
         <v>44851</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17813,7 +17813,7 @@
         <v>44852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>44860</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>44866</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>44866</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>44867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>44867</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>44869</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44869</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44869</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
         <v>44879</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         <v>44879</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44882</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44886</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44890</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44890</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>44893</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>44893</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>44895</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>44897</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>44900</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>44900</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>44900</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>44907</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>44908</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>44914</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>44914</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>44916</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>44916</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19469,7 +19469,7 @@
         <v>44917</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>44917</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>44917</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>44928</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>44928</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19779,7 +19779,7 @@
         <v>44958</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19836,7 +19836,7 @@
         <v>44963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19893,7 +19893,7 @@
         <v>44969</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19950,7 +19950,7 @@
         <v>44974</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20007,7 +20007,7 @@
         <v>44978</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20064,7 +20064,7 @@
         <v>44978</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20121,7 +20121,7 @@
         <v>44978</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20178,7 +20178,7 @@
         <v>44978</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>44978</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>44984</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         <v>44989</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20406,7 +20406,7 @@
         <v>44992</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
         <v>44992</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>44994</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>44999</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20634,7 +20634,7 @@
         <v>44999</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>45001</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>45002</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
         <v>45002</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20862,7 +20862,7 @@
         <v>45002</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20919,7 +20919,7 @@
         <v>45002</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20976,7 +20976,7 @@
         <v>45008</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
         <v>45015</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>45027</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>45029</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
         <v>45029</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>45029</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21323,7 +21323,7 @@
         <v>45043</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>45054</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21442,7 +21442,7 @@
         <v>45054</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>45056</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>45056</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>45057</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>45063</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>45065</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>45068</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>45069</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>45072</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21965,7 +21965,7 @@
         <v>45072</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>45075</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>45084</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>45085</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>45086</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>45090</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         <v>45103</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>45104</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22436,7 +22436,7 @@
         <v>45106</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22493,7 +22493,7 @@
         <v>45107</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>45107</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22617,7 +22617,7 @@
         <v>45107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22679,7 +22679,7 @@
         <v>45110</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45111</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45112</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22860,7 +22860,7 @@
         <v>45117</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22922,7 +22922,7 @@
         <v>45124</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22979,7 +22979,7 @@
         <v>45139</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23041,7 +23041,7 @@
         <v>45147</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23098,7 +23098,7 @@
         <v>45147</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23160,7 +23160,7 @@
         <v>45154</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23217,7 +23217,7 @@
         <v>45154</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23274,7 +23274,7 @@
         <v>45155</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23336,7 +23336,7 @@
         <v>45155</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>45160</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23460,7 +23460,7 @@
         <v>45166</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>45169</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>

--- a/Översikt SORSELE.xlsx
+++ b/Översikt SORSELE.xlsx
@@ -572,7 +572,7 @@
         <v>44693</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>45085</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>44337</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         <v>44078</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>44078</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44088</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>44865</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43648</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>44621</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         <v>44432</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>44426</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43773</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>44078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>44370</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43851</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43648</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43515</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>43909</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>44386</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>44865</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>44336</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>44295</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44518</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>44841</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43397</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>44137</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>44432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>44845</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>44049</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>44075</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
         <v>44078</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>44432</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>44841</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>45081</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43432</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43482</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43654</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>43858</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>44265</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>44440</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44719</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>45071</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43325</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43333</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43340</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43342</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43342</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>43385</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>43397</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43397</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>43397</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>43405</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>43416</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>43419</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>43433</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>43434</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>43445</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>43455</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>43482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>43482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>43482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>43482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>43482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43482</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43495</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43495</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43495</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43503</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43510</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43525</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43601</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43601</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43601</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43605</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43605</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>43607</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43621</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43675</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43678</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>43679</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43699</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43699</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43699</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43702</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>43719</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>43719</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         <v>43738</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43738</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43738</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>43752</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>43754</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>43758</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8505,7 +8505,7 @@
         <v>43762</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43766</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43766</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>43773</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43773</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43794</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43811</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>43831</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>43831</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43831</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>43880</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43909</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43914</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>43917</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>43920</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>43922</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43922</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43935</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>43958</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>43958</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>43965</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>43990</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>43991</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>43991</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>44000</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44000</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>44000</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44013</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10156,7 +10156,7 @@
         <v>44041</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10218,7 +10218,7 @@
         <v>44041</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>44043</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>44063</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>44078</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44078</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>44078</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>44078</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>44083</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>44090</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>44098</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10895,7 +10895,7 @@
         <v>44102</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>44102</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11019,7 +11019,7 @@
         <v>44102</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>44102</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44113</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44136</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44141</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44144</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>44145</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>44145</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>44145</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>44148</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>44148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>44150</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>44164</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>44173</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>44179</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>44180</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>44203</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>44207</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44218</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>44218</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>44222</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44227</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44234</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44234</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>44235</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44251</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44251</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44258</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>44272</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>44277</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>44287</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>44287</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12888,7 +12888,7 @@
         <v>44295</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12945,7 +12945,7 @@
         <v>44295</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13002,7 +13002,7 @@
         <v>44295</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44298</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>44298</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>44298</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>44317</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44317</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44322</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         <v>44326</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13468,7 +13468,7 @@
         <v>44326</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13525,7 +13525,7 @@
         <v>44326</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         <v>44326</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>44330</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>44349</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13763,7 +13763,7 @@
         <v>44350</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13820,7 +13820,7 @@
         <v>44350</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
         <v>44355</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44355</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13991,7 +13991,7 @@
         <v>44364</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>44364</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>44376</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14162,7 +14162,7 @@
         <v>44377</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>44392</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44426</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44432</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>44439</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>44448</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14509,7 +14509,7 @@
         <v>44466</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44468</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14623,7 +14623,7 @@
         <v>44473</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44473</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44473</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44494</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44496</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44496</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44501</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44505</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44518</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44531</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44532</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44533</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44538</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44546</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44546</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44546</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>44546</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15607,7 +15607,7 @@
         <v>44550</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15664,7 +15664,7 @@
         <v>44566</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
         <v>44606</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15778,7 +15778,7 @@
         <v>44606</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15835,7 +15835,7 @@
         <v>44619</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15892,7 +15892,7 @@
         <v>44621</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>44638</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>44648</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>44657</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>44657</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16177,7 +16177,7 @@
         <v>44657</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16234,7 +16234,7 @@
         <v>44657</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         <v>44719</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16348,7 +16348,7 @@
         <v>44719</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16405,7 +16405,7 @@
         <v>44719</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>44719</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>44725</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16576,7 +16576,7 @@
         <v>44725</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>44731</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>44734</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>44784</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16809,7 +16809,7 @@
         <v>44796</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16871,7 +16871,7 @@
         <v>44797</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16928,7 +16928,7 @@
         <v>44834</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16985,7 +16985,7 @@
         <v>44837</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17042,7 +17042,7 @@
         <v>44837</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17099,7 +17099,7 @@
         <v>44841</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17156,7 +17156,7 @@
         <v>44841</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
         <v>44841</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17270,7 +17270,7 @@
         <v>44845</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>44845</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17384,7 +17384,7 @@
         <v>44845</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17441,7 +17441,7 @@
         <v>44846</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>44851</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>44851</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17627,7 +17627,7 @@
         <v>44851</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44851</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17751,7 +17751,7 @@
         <v>44851</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17813,7 +17813,7 @@
         <v>44852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>44860</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>44866</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>44866</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>44867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>44867</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>44869</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44869</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44869</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
         <v>44879</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         <v>44879</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44882</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44886</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44890</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44890</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>44893</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>44893</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>44895</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>44897</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>44900</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>44900</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>44900</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>44907</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>44908</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>44914</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>44914</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>44916</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>44916</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19469,7 +19469,7 @@
         <v>44917</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>44917</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>44917</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>44928</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>44928</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19779,7 +19779,7 @@
         <v>44958</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19836,7 +19836,7 @@
         <v>44963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19893,7 +19893,7 @@
         <v>44969</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19950,7 +19950,7 @@
         <v>44974</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20007,7 +20007,7 @@
         <v>44978</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20064,7 +20064,7 @@
         <v>44978</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20121,7 +20121,7 @@
         <v>44978</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20178,7 +20178,7 @@
         <v>44978</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>44978</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>44984</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         <v>44989</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20406,7 +20406,7 @@
         <v>44992</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
         <v>44992</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>44994</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>44999</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20634,7 +20634,7 @@
         <v>44999</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>45001</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>45002</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
         <v>45002</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20862,7 +20862,7 @@
         <v>45002</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20919,7 +20919,7 @@
         <v>45002</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20976,7 +20976,7 @@
         <v>45008</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
         <v>45015</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>45027</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>45029</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
         <v>45029</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>45029</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21323,7 +21323,7 @@
         <v>45043</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>45054</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21442,7 +21442,7 @@
         <v>45054</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>45056</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>45056</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>45057</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>45063</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>45065</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>45068</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>45069</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>45072</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21965,7 +21965,7 @@
         <v>45072</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>45075</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>45084</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>45085</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>45086</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>45090</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         <v>45103</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>45104</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22436,7 +22436,7 @@
         <v>45106</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22493,7 +22493,7 @@
         <v>45107</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>45107</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22617,7 +22617,7 @@
         <v>45107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22679,7 +22679,7 @@
         <v>45110</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45111</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45112</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22860,7 +22860,7 @@
         <v>45117</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22922,7 +22922,7 @@
         <v>45124</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22979,7 +22979,7 @@
         <v>45139</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23041,7 +23041,7 @@
         <v>45147</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23098,7 +23098,7 @@
         <v>45147</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23160,7 +23160,7 @@
         <v>45154</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23217,7 +23217,7 @@
         <v>45154</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23274,7 +23274,7 @@
         <v>45155</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23336,7 +23336,7 @@
         <v>45155</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>45160</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23460,7 +23460,7 @@
         <v>45166</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>45169</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>

--- a/Översikt SORSELE.xlsx
+++ b/Översikt SORSELE.xlsx
@@ -572,7 +572,7 @@
         <v>44693</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>45085</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>44337</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         <v>44078</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>44078</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44088</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>44865</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43648</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>44621</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         <v>44432</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>44078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         <v>44426</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         <v>43773</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>44078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>44370</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43851</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         <v>43648</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>43515</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>43909</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>44386</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>44865</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>44336</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>44295</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44518</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>44841</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43397</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
         <v>44137</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>44432</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>44845</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>44049</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>44075</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
         <v>44078</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3660,7 +3660,7 @@
         <v>44432</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>44841</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>45081</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>43432</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         <v>43482</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43654</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
         <v>43858</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4283,7 +4283,7 @@
         <v>44265</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>44440</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>44719</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>45071</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>43325</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>43333</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43340</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43342</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43342</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43349</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>43385</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>43397</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43397</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>43397</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>43405</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>43416</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>43419</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>43432</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>43433</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>43434</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>43445</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>43451</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>43455</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>43482</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>43482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>43482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>43482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>43482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43482</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>43482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43495</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43495</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43495</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43503</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43510</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43525</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43601</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43601</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43601</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43605</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43605</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43607</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>43607</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>43621</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>43623</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7563,7 +7563,7 @@
         <v>43675</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43678</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7682,7 +7682,7 @@
         <v>43679</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43699</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43699</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43699</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43702</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43705</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>43719</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>43719</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         <v>43738</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43738</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43738</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8334,7 +8334,7 @@
         <v>43752</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8391,7 +8391,7 @@
         <v>43754</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>43758</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8505,7 +8505,7 @@
         <v>43762</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43766</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43766</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>43773</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>43773</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>43794</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>43811</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>43831</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8971,7 +8971,7 @@
         <v>43831</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         <v>43831</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9085,7 +9085,7 @@
         <v>43880</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43909</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>43914</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>43917</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9328,7 +9328,7 @@
         <v>43920</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>43922</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43922</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43935</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>43958</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>43958</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>43965</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>43990</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>43991</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>43991</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>44000</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44000</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10032,7 +10032,7 @@
         <v>44000</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10094,7 +10094,7 @@
         <v>44013</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10156,7 +10156,7 @@
         <v>44041</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10218,7 +10218,7 @@
         <v>44041</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>44043</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         <v>44063</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>44063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>44078</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44078</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>44078</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>44078</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>44083</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>44090</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>44098</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10895,7 +10895,7 @@
         <v>44102</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>44102</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11019,7 +11019,7 @@
         <v>44102</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>44102</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44113</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44136</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44141</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44144</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>44145</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>44145</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>44145</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>44148</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>44148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>44150</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>44164</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>44173</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>44179</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>44180</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>44203</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>44207</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44218</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>44218</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>44222</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>44227</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44234</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44234</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>44235</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12479,7 +12479,7 @@
         <v>44251</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>44251</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>44258</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>44272</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>44277</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>44287</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>44287</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12888,7 +12888,7 @@
         <v>44295</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12945,7 +12945,7 @@
         <v>44295</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13002,7 +13002,7 @@
         <v>44295</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>44298</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>44298</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13178,7 +13178,7 @@
         <v>44298</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13235,7 +13235,7 @@
         <v>44317</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44317</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
         <v>44322</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         <v>44326</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13468,7 +13468,7 @@
         <v>44326</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13525,7 +13525,7 @@
         <v>44326</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13582,7 +13582,7 @@
         <v>44326</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
         <v>44330</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>44349</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13763,7 +13763,7 @@
         <v>44350</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13820,7 +13820,7 @@
         <v>44350</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
         <v>44355</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>44355</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13991,7 +13991,7 @@
         <v>44364</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>44364</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>44376</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14162,7 +14162,7 @@
         <v>44377</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>44392</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44426</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14338,7 +14338,7 @@
         <v>44432</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14395,7 +14395,7 @@
         <v>44439</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14452,7 +14452,7 @@
         <v>44448</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14509,7 +14509,7 @@
         <v>44466</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14566,7 +14566,7 @@
         <v>44468</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14623,7 +14623,7 @@
         <v>44473</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         <v>44473</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>44473</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>44494</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>44496</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>44496</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44501</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44505</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>44518</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>44531</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>44532</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15265,7 +15265,7 @@
         <v>44533</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15322,7 +15322,7 @@
         <v>44538</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44546</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15436,7 +15436,7 @@
         <v>44546</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15493,7 +15493,7 @@
         <v>44546</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>44546</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15607,7 +15607,7 @@
         <v>44550</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15664,7 +15664,7 @@
         <v>44566</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15721,7 +15721,7 @@
         <v>44606</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15778,7 +15778,7 @@
         <v>44606</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15835,7 +15835,7 @@
         <v>44619</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15892,7 +15892,7 @@
         <v>44621</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15949,7 +15949,7 @@
         <v>44638</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>44648</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>44657</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>44657</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16177,7 +16177,7 @@
         <v>44657</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16234,7 +16234,7 @@
         <v>44657</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         <v>44719</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16348,7 +16348,7 @@
         <v>44719</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16405,7 +16405,7 @@
         <v>44719</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16462,7 +16462,7 @@
         <v>44719</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>44725</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16576,7 +16576,7 @@
         <v>44725</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>44731</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>44734</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>44784</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16809,7 +16809,7 @@
         <v>44796</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16871,7 +16871,7 @@
         <v>44797</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16928,7 +16928,7 @@
         <v>44834</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16985,7 +16985,7 @@
         <v>44837</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17042,7 +17042,7 @@
         <v>44837</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17099,7 +17099,7 @@
         <v>44841</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17156,7 +17156,7 @@
         <v>44841</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
         <v>44841</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17270,7 +17270,7 @@
         <v>44845</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>44845</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17384,7 +17384,7 @@
         <v>44845</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17441,7 +17441,7 @@
         <v>44846</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>44851</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>44851</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17627,7 +17627,7 @@
         <v>44851</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>44851</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17751,7 +17751,7 @@
         <v>44851</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17813,7 +17813,7 @@
         <v>44852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>44860</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>44866</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>44866</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18051,7 +18051,7 @@
         <v>44867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18113,7 +18113,7 @@
         <v>44867</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18175,7 +18175,7 @@
         <v>44869</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>44869</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18299,7 +18299,7 @@
         <v>44869</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
         <v>44879</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         <v>44879</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44882</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44886</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44890</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>44890</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
         <v>44893</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18775,7 +18775,7 @@
         <v>44893</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18832,7 +18832,7 @@
         <v>44895</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>44897</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>44900</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19003,7 +19003,7 @@
         <v>44900</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>44900</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>44907</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>44908</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19231,7 +19231,7 @@
         <v>44914</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>44914</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19345,7 +19345,7 @@
         <v>44916</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19407,7 +19407,7 @@
         <v>44916</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19469,7 +19469,7 @@
         <v>44917</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         <v>44917</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>44917</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>44928</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>44928</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19779,7 +19779,7 @@
         <v>44958</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19836,7 +19836,7 @@
         <v>44963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19893,7 +19893,7 @@
         <v>44969</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19950,7 +19950,7 @@
         <v>44974</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20007,7 +20007,7 @@
         <v>44978</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20064,7 +20064,7 @@
         <v>44978</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20121,7 +20121,7 @@
         <v>44978</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20178,7 +20178,7 @@
         <v>44978</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>44978</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>44984</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         <v>44989</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20406,7 +20406,7 @@
         <v>44992</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20463,7 +20463,7 @@
         <v>44992</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20520,7 +20520,7 @@
         <v>44994</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>44999</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20634,7 +20634,7 @@
         <v>44999</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>45001</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20748,7 +20748,7 @@
         <v>45002</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20805,7 +20805,7 @@
         <v>45002</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20862,7 +20862,7 @@
         <v>45002</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20919,7 +20919,7 @@
         <v>45002</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20976,7 +20976,7 @@
         <v>45008</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
         <v>45015</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>45027</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>45029</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
         <v>45029</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>45029</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21323,7 +21323,7 @@
         <v>45043</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>45054</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21442,7 +21442,7 @@
         <v>45054</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>45056</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>45056</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>45057</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21675,7 +21675,7 @@
         <v>45063</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>45065</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>45068</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>45069</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>45072</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21965,7 +21965,7 @@
         <v>45072</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>45075</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>45084</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>45085</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>45086</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>45090</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22312,7 +22312,7 @@
         <v>45103</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>45104</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22436,7 +22436,7 @@
         <v>45106</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22493,7 +22493,7 @@
         <v>45107</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>45107</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22617,7 +22617,7 @@
         <v>45107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22679,7 +22679,7 @@
         <v>45110</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45111</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>45112</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22860,7 +22860,7 @@
         <v>45117</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22922,7 +22922,7 @@
         <v>45124</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22979,7 +22979,7 @@
         <v>45139</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23041,7 +23041,7 @@
         <v>45147</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23098,7 +23098,7 @@
         <v>45147</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23160,7 +23160,7 @@
         <v>45154</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23217,7 +23217,7 @@
         <v>45154</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23274,7 +23274,7 @@
         <v>45155</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23336,7 +23336,7 @@
         <v>45155</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23398,7 +23398,7 @@
         <v>45160</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23460,7 +23460,7 @@
         <v>45166</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>45169</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>

--- a/Översikt SORSELE.xlsx
+++ b/Översikt SORSELE.xlsx
@@ -572,7 +572,7 @@
         <v>44693</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>45085</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>44337</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         <v>44078</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>44078</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44088</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>44865</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43648</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>44621</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1516,14 +1516,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 43267-2021</t>
+          <t>A 29866-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44432</v>
+        <v>45107</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1535,17 +1535,22 @@
           <t>SORSELE</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G11" t="n">
-        <v>29</v>
+        <v>5.3</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
@@ -1560,15 +1565,115 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
       </c>
       <c r="Q11" t="n">
+        <v>16</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Fläckporing
+Blå taggsvamp
+Dvärgbägarlav
+Garnlav
+Granticka
+Mörk kolflarnlav
+Nordtagging
+Orange taggsvamp
+Rosenticka
+Skrovlig taggsvamp
+Spillkråka
+Talltita
+Tretåig hackspett
+Ullticka
+Vaddporing
+Vedskivlav</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 29866-2023.xlsx", "A 29866-2023")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 29866-2023.png", "A 29866-2023")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 29866-2023.docx", "A 29866-2023")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 29866-2023.docx", "A 29866-2023")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 29866-2023.docx", "A 29866-2023")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 29866-2023.docx", "A 29866-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 43267-2021</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>44432</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SORSELE</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>29</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>11</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>12</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
         <v>15</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Ostticka
 Gammelgransskål
@@ -1587,92 +1692,92 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 43267-2021.xlsx", "A 43267-2021")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 43267-2021.png", "A 43267-2021")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 43267-2021.docx", "A 43267-2021")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 43267-2021.docx", "A 43267-2021")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 43267-2021.docx", "A 43267-2021")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 43267-2021.docx", "A 43267-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 43982-2020</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>44078</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>SORSELE</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="C13" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SORSELE</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G13" t="n">
         <v>981</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I13" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J13" t="n">
         <v>10</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K13" t="n">
         <v>3</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>13</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P13" t="n">
         <v>3</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q13" t="n">
         <v>14</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Ostticka
 Rynkskinn
@@ -1690,87 +1795,87 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 43982-2020.xlsx", "A 43982-2020")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 43982-2020.png", "A 43982-2020")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 43982-2020.docx", "A 43982-2020")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 43982-2020.docx", "A 43982-2020")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 43982-2020.docx", "A 43982-2020")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 43982-2020.docx", "A 43982-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>A 42138-2021</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B14" s="1" t="n">
         <v>44426</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>SORSELE</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="C14" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SORSELE</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>20</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H14" t="n">
         <v>2</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I14" t="n">
         <v>6</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J14" t="n">
         <v>6</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>6</v>
       </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>13</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Blanksvart spiklav
 Knottrig blåslav
@@ -1787,92 +1892,92 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 42138-2021.xlsx", "A 42138-2021")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 42138-2021.png", "A 42138-2021")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 42138-2021.docx", "A 42138-2021")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 42138-2021.docx", "A 42138-2021")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 42138-2021.docx", "A 42138-2021")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 42138-2021.docx", "A 42138-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 58512-2019</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>43773</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>SORSELE</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="C15" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SORSELE</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="G15" t="n">
         <v>27.7</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>2</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I15" t="n">
         <v>3</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J15" t="n">
         <v>9</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>9</v>
       </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>12</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Doftskinn
 Gammelgransskål
@@ -1888,92 +1993,92 @@
 Vedticka</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 58512-2019.xlsx", "A 58512-2019")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 58512-2019.png", "A 58512-2019")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 58512-2019.docx", "A 58512-2019")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 58512-2019.docx", "A 58512-2019")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 58512-2019.docx", "A 58512-2019")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 58512-2019.docx", "A 58512-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 43976-2020</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>44078</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>SORSELE</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="C16" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>SORSELE</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G16" t="n">
         <v>115.3</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J16" t="n">
         <v>6</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K16" t="n">
         <v>4</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>10</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P16" t="n">
         <v>4</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q16" t="n">
         <v>11</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Lappticka
 Ostticka
@@ -1988,92 +2093,92 @@
 Blodticka</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 43976-2020.xlsx", "A 43976-2020")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 43976-2020.png", "A 43976-2020")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 43976-2020.docx", "A 43976-2020")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 43976-2020.docx", "A 43976-2020")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 43976-2020.docx", "A 43976-2020")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 43976-2020.docx", "A 43976-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 31945-2021</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>44370</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>SORSELE</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="C17" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>SORSELE</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="G17" t="n">
         <v>17.7</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>10</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K17" t="n">
         <v>1</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>11</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P17" t="n">
         <v>1</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q17" t="n">
         <v>11</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Rynkskinn
 Doftskinn
@@ -2088,87 +2193,87 @@
 Ullticka</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 31945-2021.xlsx", "A 31945-2021")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 31945-2021.png", "A 31945-2021")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 31945-2021.docx", "A 31945-2021")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 31945-2021.docx", "A 31945-2021")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 31945-2021.docx", "A 31945-2021")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 31945-2021.docx", "A 31945-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 3137-2020</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>43851</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>SORSELE</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
+      <c r="C18" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>SORSELE</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>12.3</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H18" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J18" t="n">
         <v>9</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>9</v>
       </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>10</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Garnlav
@@ -2182,92 +2287,92 @@
 Stuplav</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 3137-2020.xlsx", "A 3137-2020")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 3137-2020.png", "A 3137-2020")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 3137-2020.docx", "A 3137-2020")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 3137-2020.docx", "A 3137-2020")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 3137-2020.docx", "A 3137-2020")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 3137-2020.docx", "A 3137-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>A 34371-2019</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B19" s="1" t="n">
         <v>43648</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>SORSELE</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
+      <c r="C19" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>SORSELE</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="G19" t="n">
         <v>20.7</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H19" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I19" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J19" t="n">
         <v>6</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K19" t="n">
         <v>2</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>8</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P19" t="n">
         <v>2</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q19" t="n">
         <v>9</v>
       </c>
-      <c r="R18" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Lappticka
 Ostticka
@@ -2280,126 +2385,28 @@
 Stuplav</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 34371-2019.xlsx", "A 34371-2019")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 34371-2019.png", "A 34371-2019")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 34371-2019.docx", "A 34371-2019")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 34371-2019.docx", "A 34371-2019")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 34371-2019.docx", "A 34371-2019")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 34371-2019.docx", "A 34371-2019")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 29866-2023</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>45107</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>VÄSTERBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>SORSELE</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>8</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>9</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>9</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Fläckporing
-Dvärgbägarlav
-Mörk kolflarnlav
-Orange taggsvamp
-Skrovlig taggsvamp
-Talltita
-Tretåig hackspett
-Vaddporing
-Vedskivlav</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/artfynd/A 29866-2023.xlsx", "A 29866-2023")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/kartor/A 29866-2023.png", "A 29866-2023")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomål/A 29866-2023.docx", "A 29866-2023")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/klagomålsmail/A 29866-2023.docx", "A 29866-2023")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsyn/A 29866-2023.docx", "A 29866-2023")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SORSELE/tillsynsmail/A 29866-2023.docx", "A 29866-2023")</f>
         <v/>
       </c>
     </row>
@@ -2413,7 +2420,7 @@
         <v>43515</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2509,7 +2516,7 @@
         <v>43909</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2599,7 +2606,7 @@
         <v>44386</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2689,7 +2696,7 @@
         <v>44865</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2779,7 +2786,7 @@
         <v>44336</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2868,7 +2875,7 @@
         <v>44295</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2961,7 +2968,7 @@
         <v>44518</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3049,7 +3056,7 @@
         <v>44841</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3137,7 +3144,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3229,7 +3236,7 @@
         <v>44137</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3316,7 +3323,7 @@
         <v>44432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3403,7 +3410,7 @@
         <v>44845</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3490,7 +3497,7 @@
         <v>44049</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3576,7 +3583,7 @@
         <v>44075</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3667,7 +3674,7 @@
         <v>44078</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3758,7 +3765,7 @@
         <v>44432</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3844,7 +3851,7 @@
         <v>44841</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3930,7 +3937,7 @@
         <v>45081</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4021,7 +4028,7 @@
         <v>43432</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4111,7 +4118,7 @@
         <v>43482</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4201,7 +4208,7 @@
         <v>43654</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4291,7 +4298,7 @@
         <v>43858</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4381,7 +4388,7 @@
         <v>44265</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4466,7 +4473,7 @@
         <v>44440</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4551,7 +4558,7 @@
         <v>44719</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4636,7 +4643,7 @@
         <v>45071</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4721,7 +4728,7 @@
         <v>43325</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4778,7 +4785,7 @@
         <v>43333</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4840,7 +4847,7 @@
         <v>43340</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4902,7 +4909,7 @@
         <v>43342</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4959,7 +4966,7 @@
         <v>43342</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5016,7 +5023,7 @@
         <v>43349</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5073,7 +5080,7 @@
         <v>43385</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5130,7 +5137,7 @@
         <v>43397</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5187,7 +5194,7 @@
         <v>43397</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5244,7 +5251,7 @@
         <v>43397</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5301,7 +5308,7 @@
         <v>43405</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5358,7 +5365,7 @@
         <v>43416</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5415,7 +5422,7 @@
         <v>43419</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5472,7 +5479,7 @@
         <v>43432</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5529,7 +5536,7 @@
         <v>43433</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5586,7 +5593,7 @@
         <v>43434</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5643,7 +5650,7 @@
         <v>43445</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5705,7 +5712,7 @@
         <v>43451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5762,7 +5769,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5824,7 +5831,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5886,7 +5893,7 @@
         <v>43482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5943,7 +5950,7 @@
         <v>43482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6000,7 +6007,7 @@
         <v>43482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6062,7 +6069,7 @@
         <v>43482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6124,7 +6131,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6186,7 +6193,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6248,7 +6255,7 @@
         <v>43482</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6310,7 +6317,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6372,7 +6379,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6434,7 +6441,7 @@
         <v>43482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6496,7 +6503,7 @@
         <v>43482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6558,7 +6565,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6615,7 +6622,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6672,7 +6679,7 @@
         <v>43495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6729,7 +6736,7 @@
         <v>43495</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6786,7 +6793,7 @@
         <v>43495</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6843,7 +6850,7 @@
         <v>43495</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6900,7 +6907,7 @@
         <v>43503</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6957,7 +6964,7 @@
         <v>43510</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7014,7 +7021,7 @@
         <v>43525</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7071,7 +7078,7 @@
         <v>43601</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7128,7 +7135,7 @@
         <v>43601</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7185,7 +7192,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7242,7 +7249,7 @@
         <v>43605</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7299,7 +7306,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7356,7 +7363,7 @@
         <v>43605</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7413,7 +7420,7 @@
         <v>43607</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7475,7 +7482,7 @@
         <v>43607</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7537,7 +7544,7 @@
         <v>43621</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7599,7 +7606,7 @@
         <v>43623</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7661,7 +7668,7 @@
         <v>43675</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7718,7 +7725,7 @@
         <v>43678</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7780,7 +7787,7 @@
         <v>43679</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7842,7 +7849,7 @@
         <v>43699</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7899,7 +7906,7 @@
         <v>43699</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7961,7 +7968,7 @@
         <v>43699</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8018,7 +8025,7 @@
         <v>43702</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8075,7 +8082,7 @@
         <v>43705</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8132,7 +8139,7 @@
         <v>43719</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8189,7 +8196,7 @@
         <v>43719</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8246,7 +8253,7 @@
         <v>43738</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8308,7 +8315,7 @@
         <v>43738</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8370,7 +8377,7 @@
         <v>43738</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8432,7 +8439,7 @@
         <v>43752</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8489,7 +8496,7 @@
         <v>43754</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8546,7 +8553,7 @@
         <v>43758</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8603,7 +8610,7 @@
         <v>43762</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8660,7 +8667,7 @@
         <v>43766</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8717,7 +8724,7 @@
         <v>43766</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8774,7 +8781,7 @@
         <v>43773</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8836,7 +8843,7 @@
         <v>43773</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8898,7 +8905,7 @@
         <v>43794</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8955,7 +8962,7 @@
         <v>43811</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9012,7 +9019,7 @@
         <v>43831</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9069,7 +9076,7 @@
         <v>43831</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9126,7 +9133,7 @@
         <v>43831</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9183,7 +9190,7 @@
         <v>43880</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9245,7 +9252,7 @@
         <v>43909</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9302,7 +9309,7 @@
         <v>43914</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9364,7 +9371,7 @@
         <v>43917</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9426,7 +9433,7 @@
         <v>43920</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9488,7 +9495,7 @@
         <v>43922</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9545,7 +9552,7 @@
         <v>43922</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9602,7 +9609,7 @@
         <v>43935</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9664,7 +9671,7 @@
         <v>43958</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9721,7 +9728,7 @@
         <v>43958</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9778,7 +9785,7 @@
         <v>43965</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9835,7 +9842,7 @@
         <v>43990</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9892,7 +9899,7 @@
         <v>43991</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9949,7 +9956,7 @@
         <v>43991</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10006,7 +10013,7 @@
         <v>44000</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10068,7 +10075,7 @@
         <v>44000</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10130,7 +10137,7 @@
         <v>44000</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10192,7 +10199,7 @@
         <v>44013</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10254,7 +10261,7 @@
         <v>44041</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10316,7 +10323,7 @@
         <v>44041</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10378,7 +10385,7 @@
         <v>44043</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10440,7 +10447,7 @@
         <v>44063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10502,7 +10509,7 @@
         <v>44063</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10564,7 +10571,7 @@
         <v>44078</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10626,7 +10633,7 @@
         <v>44078</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10688,7 +10695,7 @@
         <v>44078</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10750,7 +10757,7 @@
         <v>44078</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10812,7 +10819,7 @@
         <v>44083</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10869,7 +10876,7 @@
         <v>44090</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10931,7 +10938,7 @@
         <v>44098</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10993,7 +11000,7 @@
         <v>44102</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11055,7 +11062,7 @@
         <v>44102</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11117,7 +11124,7 @@
         <v>44102</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11179,7 +11186,7 @@
         <v>44102</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11241,7 +11248,7 @@
         <v>44113</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11298,7 +11305,7 @@
         <v>44136</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11355,7 +11362,7 @@
         <v>44141</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11412,7 +11419,7 @@
         <v>44144</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11474,7 +11481,7 @@
         <v>44145</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11531,7 +11538,7 @@
         <v>44145</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11588,7 +11595,7 @@
         <v>44145</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11645,7 +11652,7 @@
         <v>44148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11702,7 +11709,7 @@
         <v>44148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11759,7 +11766,7 @@
         <v>44150</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11816,7 +11823,7 @@
         <v>44164</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11873,7 +11880,7 @@
         <v>44173</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11930,7 +11937,7 @@
         <v>44179</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11987,7 +11994,7 @@
         <v>44180</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12044,7 +12051,7 @@
         <v>44203</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12101,7 +12108,7 @@
         <v>44207</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12163,7 +12170,7 @@
         <v>44218</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12225,7 +12232,7 @@
         <v>44218</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12287,7 +12294,7 @@
         <v>44222</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12349,7 +12356,7 @@
         <v>44227</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12406,7 +12413,7 @@
         <v>44234</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12463,7 +12470,7 @@
         <v>44234</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12520,7 +12527,7 @@
         <v>44235</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12577,7 +12584,7 @@
         <v>44251</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12634,7 +12641,7 @@
         <v>44251</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12691,7 +12698,7 @@
         <v>44258</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12748,7 +12755,7 @@
         <v>44272</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12805,7 +12812,7 @@
         <v>44277</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12862,7 +12869,7 @@
         <v>44287</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12924,7 +12931,7 @@
         <v>44287</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12986,7 +12993,7 @@
         <v>44295</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13043,7 +13050,7 @@
         <v>44295</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13100,7 +13107,7 @@
         <v>44295</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13162,7 +13169,7 @@
         <v>44298</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13219,7 +13226,7 @@
         <v>44298</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13276,7 +13283,7 @@
         <v>44298</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13333,7 +13340,7 @@
         <v>44317</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13390,7 +13397,7 @@
         <v>44317</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13447,7 +13454,7 @@
         <v>44322</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13509,7 +13516,7 @@
         <v>44326</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13566,7 +13573,7 @@
         <v>44326</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13623,7 +13630,7 @@
         <v>44326</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13680,7 +13687,7 @@
         <v>44326</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13737,7 +13744,7 @@
         <v>44330</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13799,7 +13806,7 @@
         <v>44349</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13861,7 +13868,7 @@
         <v>44350</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13918,7 +13925,7 @@
         <v>44350</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13975,7 +13982,7 @@
         <v>44355</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14032,7 +14039,7 @@
         <v>44355</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14089,7 +14096,7 @@
         <v>44364</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14146,7 +14153,7 @@
         <v>44364</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14203,7 +14210,7 @@
         <v>44376</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14260,7 +14267,7 @@
         <v>44377</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14317,7 +14324,7 @@
         <v>44392</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14379,7 +14386,7 @@
         <v>44426</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14436,7 +14443,7 @@
         <v>44432</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14493,7 +14500,7 @@
         <v>44439</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14550,7 +14557,7 @@
         <v>44448</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14607,7 +14614,7 @@
         <v>44466</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14664,7 +14671,7 @@
         <v>44468</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14721,7 +14728,7 @@
         <v>44473</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14783,7 +14790,7 @@
         <v>44473</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14845,7 +14852,7 @@
         <v>44473</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14907,7 +14914,7 @@
         <v>44494</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14964,7 +14971,7 @@
         <v>44496</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15021,7 +15028,7 @@
         <v>44496</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15078,7 +15085,7 @@
         <v>44501</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15135,7 +15142,7 @@
         <v>44505</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15192,7 +15199,7 @@
         <v>44518</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15249,7 +15256,7 @@
         <v>44531</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15306,7 +15313,7 @@
         <v>44532</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15363,7 +15370,7 @@
         <v>44533</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15420,7 +15427,7 @@
         <v>44538</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15477,7 +15484,7 @@
         <v>44546</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15534,7 +15541,7 @@
         <v>44546</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15591,7 +15598,7 @@
         <v>44546</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15648,7 +15655,7 @@
         <v>44546</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15705,7 +15712,7 @@
         <v>44550</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15762,7 +15769,7 @@
         <v>44566</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15819,7 +15826,7 @@
         <v>44606</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15876,7 +15883,7 @@
         <v>44606</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15933,7 +15940,7 @@
         <v>44619</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15990,7 +15997,7 @@
         <v>44621</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16047,7 +16054,7 @@
         <v>44638</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16104,7 +16111,7 @@
         <v>44648</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16161,7 +16168,7 @@
         <v>44657</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16218,7 +16225,7 @@
         <v>44657</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16275,7 +16282,7 @@
         <v>44657</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16332,7 +16339,7 @@
         <v>44657</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16389,7 +16396,7 @@
         <v>44719</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16446,7 +16453,7 @@
         <v>44719</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16503,7 +16510,7 @@
         <v>44719</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16560,7 +16567,7 @@
         <v>44719</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16617,7 +16624,7 @@
         <v>44725</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16674,7 +16681,7 @@
         <v>44725</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16731,7 +16738,7 @@
         <v>44731</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16788,7 +16795,7 @@
         <v>44734</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16845,7 +16852,7 @@
         <v>44784</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16907,7 +16914,7 @@
         <v>44796</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16969,7 +16976,7 @@
         <v>44797</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17026,7 +17033,7 @@
         <v>44834</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17083,7 +17090,7 @@
         <v>44837</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17140,7 +17147,7 @@
         <v>44837</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17197,7 +17204,7 @@
         <v>44841</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17254,7 +17261,7 @@
         <v>44841</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17311,7 +17318,7 @@
         <v>44841</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17368,7 +17375,7 @@
         <v>44845</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17425,7 +17432,7 @@
         <v>44845</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17482,7 +17489,7 @@
         <v>44845</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17539,7 +17546,7 @@
         <v>44846</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17601,7 +17608,7 @@
         <v>44851</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17663,7 +17670,7 @@
         <v>44851</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17725,7 +17732,7 @@
         <v>44851</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17787,7 +17794,7 @@
         <v>44851</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17849,7 +17856,7 @@
         <v>44851</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17911,7 +17918,7 @@
         <v>44852</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17968,7 +17975,7 @@
         <v>44860</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18030,7 +18037,7 @@
         <v>44866</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18092,7 +18099,7 @@
         <v>44866</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18149,7 +18156,7 @@
         <v>44867</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18211,7 +18218,7 @@
         <v>44867</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18273,7 +18280,7 @@
         <v>44869</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18335,7 +18342,7 @@
         <v>44869</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18397,7 +18404,7 @@
         <v>44869</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18459,7 +18466,7 @@
         <v>44879</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18516,7 +18523,7 @@
         <v>44879</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18573,7 +18580,7 @@
         <v>44882</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18635,7 +18642,7 @@
         <v>44886</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18692,7 +18699,7 @@
         <v>44890</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18754,7 +18761,7 @@
         <v>44890</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18816,7 +18823,7 @@
         <v>44893</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18873,7 +18880,7 @@
         <v>44893</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18930,7 +18937,7 @@
         <v>44895</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18987,7 +18994,7 @@
         <v>44897</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19044,7 +19051,7 @@
         <v>44900</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19101,7 +19108,7 @@
         <v>44900</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19158,7 +19165,7 @@
         <v>44900</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19215,7 +19222,7 @@
         <v>44907</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19272,7 +19279,7 @@
         <v>44908</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19329,7 +19336,7 @@
         <v>44914</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19386,7 +19393,7 @@
         <v>44914</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19443,7 +19450,7 @@
         <v>44916</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19505,7 +19512,7 @@
         <v>44916</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19567,7 +19574,7 @@
         <v>44917</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19629,7 +19636,7 @@
         <v>44917</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19691,7 +19698,7 @@
         <v>44917</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19753,7 +19760,7 @@
         <v>44928</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19815,7 +19822,7 @@
         <v>44928</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19877,7 +19884,7 @@
         <v>44958</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19934,7 +19941,7 @@
         <v>44963</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19991,7 +19998,7 @@
         <v>44969</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20048,7 +20055,7 @@
         <v>44974</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20105,7 +20112,7 @@
         <v>44978</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20162,7 +20169,7 @@
         <v>44978</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20219,7 +20226,7 @@
         <v>44978</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20276,7 +20283,7 @@
         <v>44978</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20333,7 +20340,7 @@
         <v>44978</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20390,7 +20397,7 @@
         <v>44984</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20447,7 +20454,7 @@
         <v>44989</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20504,7 +20511,7 @@
         <v>44992</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20561,7 +20568,7 @@
         <v>44992</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20618,7 +20625,7 @@
         <v>44994</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20675,7 +20682,7 @@
         <v>44999</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20732,7 +20739,7 @@
         <v>44999</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20789,7 +20796,7 @@
         <v>45001</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20846,7 +20853,7 @@
         <v>45002</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20903,7 +20910,7 @@
         <v>45002</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20960,7 +20967,7 @@
         <v>45002</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21017,7 +21024,7 @@
         <v>45002</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21074,7 +21081,7 @@
         <v>45008</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21136,7 +21143,7 @@
         <v>45015</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21193,7 +21200,7 @@
         <v>45027</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21250,7 +21257,7 @@
         <v>45029</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21307,7 +21314,7 @@
         <v>45029</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21364,7 +21371,7 @@
         <v>45029</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21421,7 +21428,7 @@
         <v>45043</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21478,7 +21485,7 @@
         <v>45054</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21540,7 +21547,7 @@
         <v>45054</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21602,7 +21609,7 @@
         <v>45056</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21659,7 +21666,7 @@
         <v>45056</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21716,7 +21723,7 @@
         <v>45057</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21773,7 +21780,7 @@
         <v>45063</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21830,7 +21837,7 @@
         <v>45065</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21887,7 +21894,7 @@
         <v>45068</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21944,7 +21951,7 @@
         <v>45069</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22006,7 +22013,7 @@
         <v>45072</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22063,7 +22070,7 @@
         <v>45072</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22120,7 +22127,7 @@
         <v>45075</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22182,7 +22189,7 @@
         <v>45084</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22239,7 +22246,7 @@
         <v>45085</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22296,7 +22303,7 @@
         <v>45086</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22353,7 +22360,7 @@
         <v>45090</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22410,7 +22417,7 @@
         <v>45103</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22472,7 +22479,7 @@
         <v>45104</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22534,7 +22541,7 @@
         <v>45106</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22591,7 +22598,7 @@
         <v>45107</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22653,7 +22660,7 @@
         <v>45107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22715,7 +22722,7 @@
         <v>45110</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22777,7 +22784,7 @@
         <v>45111</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22834,7 +22841,7 @@
         <v>45112</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22896,7 +22903,7 @@
         <v>45117</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22958,7 +22965,7 @@
         <v>45124</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23015,7 +23022,7 @@
         <v>45139</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23077,7 +23084,7 @@
         <v>45147</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23134,7 +23141,7 @@
         <v>45147</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23196,7 +23203,7 @@
         <v>45154</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23253,7 +23260,7 @@
         <v>45154</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23310,7 +23317,7 @@
         <v>45155</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23372,7 +23379,7 @@
         <v>45155</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23434,7 +23441,7 @@
         <v>45160</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23496,7 +23503,7 @@
         <v>45166</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23553,7 +23560,7 @@
         <v>45169</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>

--- a/Översikt SORSELE.xlsx
+++ b/Översikt SORSELE.xlsx
@@ -572,7 +572,7 @@
         <v>44693</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>45085</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>44337</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         <v>44078</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>44078</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44088</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>44865</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43648</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>44621</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         <v>45107</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>44432</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>44078</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44426</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43773</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>44078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>44370</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>43851</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43648</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43515</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43909</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>44386</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>44865</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>44336</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>44295</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>44518</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>44841</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>44137</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>44432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44845</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>44049</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>44075</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>44078</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44432</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>44841</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>45081</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43432</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43482</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43654</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43858</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>44265</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44440</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44719</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>45071</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>43325</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43333</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>43340</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43342</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43342</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43349</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>43385</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>43397</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>43397</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43397</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43405</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43416</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43419</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43432</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43433</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43434</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43445</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>43482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>43482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6255,7 +6255,7 @@
         <v>43482</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>43482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>43495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>43495</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
         <v>43495</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>43495</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         <v>43503</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>43510</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>43525</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>43601</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43601</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>43605</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>43605</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>43607</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>43607</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43621</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>43623</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>43675</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>43678</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43679</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43699</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>43699</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>43699</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>43702</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>43705</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>43719</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8196,7 +8196,7 @@
         <v>43719</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>43738</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>43738</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>43738</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43752</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43754</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43758</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43762</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43766</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43766</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43773</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43773</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>43794</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>43811</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>43831</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>43831</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43831</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43880</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43909</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43914</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43917</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43920</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>43922</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43922</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43935</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>43958</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         <v>43958</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43965</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>43990</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>43991</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9956,7 +9956,7 @@
         <v>43991</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>44000</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>44000</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44000</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>44013</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44041</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44041</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44043</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10447,7 +10447,7 @@
         <v>44063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44063</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>44078</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44078</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10695,7 +10695,7 @@
         <v>44078</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
         <v>44078</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         <v>44083</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         <v>44090</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>44098</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44102</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>44102</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11124,7 +11124,7 @@
         <v>44102</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>44102</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44113</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44136</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44141</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44144</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>44145</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>44145</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>44145</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44150</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44164</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44173</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44179</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44180</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>44203</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44207</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44218</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44218</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44222</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44227</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44234</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44234</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44235</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44251</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44251</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44258</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44272</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44277</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44287</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>44287</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>44295</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13050,7 +13050,7 @@
         <v>44295</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13107,7 +13107,7 @@
         <v>44295</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>44298</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44298</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44298</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>44317</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>44317</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44322</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44326</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44326</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44326</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44326</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44330</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44349</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44350</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44350</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44355</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44355</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44364</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44364</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44376</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44377</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44392</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>44426</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>44432</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         <v>44439</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>44448</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         <v>44466</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>44468</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>44473</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>44473</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>44473</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>44494</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>44496</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>44496</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44501</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44505</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>44518</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15256,7 +15256,7 @@
         <v>44531</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15313,7 +15313,7 @@
         <v>44532</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15370,7 +15370,7 @@
         <v>44533</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         <v>44538</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15484,7 +15484,7 @@
         <v>44546</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15541,7 +15541,7 @@
         <v>44546</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15598,7 +15598,7 @@
         <v>44546</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15655,7 +15655,7 @@
         <v>44546</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15712,7 +15712,7 @@
         <v>44550</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
         <v>44566</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         <v>44606</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15883,7 +15883,7 @@
         <v>44606</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15940,7 +15940,7 @@
         <v>44619</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15997,7 +15997,7 @@
         <v>44621</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16054,7 +16054,7 @@
         <v>44638</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16111,7 +16111,7 @@
         <v>44648</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16168,7 +16168,7 @@
         <v>44657</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>44657</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>44657</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>44657</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>44719</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>44719</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>44719</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16567,7 +16567,7 @@
         <v>44719</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         <v>44725</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16681,7 +16681,7 @@
         <v>44725</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16738,7 +16738,7 @@
         <v>44731</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         <v>44734</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16852,7 +16852,7 @@
         <v>44784</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>44796</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16976,7 +16976,7 @@
         <v>44797</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17033,7 +17033,7 @@
         <v>44834</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17090,7 +17090,7 @@
         <v>44837</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17147,7 +17147,7 @@
         <v>44837</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17204,7 +17204,7 @@
         <v>44841</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17261,7 +17261,7 @@
         <v>44841</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17318,7 +17318,7 @@
         <v>44841</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17375,7 +17375,7 @@
         <v>44845</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17432,7 +17432,7 @@
         <v>44845</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>44845</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
         <v>44846</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>44851</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>44851</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>44851</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>44851</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>44851</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44852</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>44860</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18037,7 +18037,7 @@
         <v>44866</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>44866</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18156,7 +18156,7 @@
         <v>44867</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18218,7 +18218,7 @@
         <v>44867</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>44869</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>44869</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18404,7 +18404,7 @@
         <v>44869</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         <v>44879</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>44879</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18580,7 +18580,7 @@
         <v>44882</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>44886</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18699,7 +18699,7 @@
         <v>44890</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
         <v>44890</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>44893</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44893</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>44895</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44897</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>44900</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>44900</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>44900</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>44907</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>44908</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>44914</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19393,7 +19393,7 @@
         <v>44914</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>44916</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>44916</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44917</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44917</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44917</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>44928</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44928</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44958</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44963</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44969</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44974</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44978</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44978</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44978</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>44978</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44978</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44984</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>44989</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20511,7 +20511,7 @@
         <v>44992</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>44992</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20625,7 +20625,7 @@
         <v>44994</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20682,7 +20682,7 @@
         <v>44999</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>44999</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>45001</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         <v>45002</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>45002</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>45002</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>45002</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>45008</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>45015</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>45027</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>45029</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>45029</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>45029</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>45043</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>45054</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>45054</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>45056</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>45056</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21723,7 +21723,7 @@
         <v>45057</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21780,7 +21780,7 @@
         <v>45063</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21837,7 +21837,7 @@
         <v>45065</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21894,7 +21894,7 @@
         <v>45068</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21951,7 +21951,7 @@
         <v>45069</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>45072</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>45072</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>45075</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>45084</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>45085</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22303,7 +22303,7 @@
         <v>45086</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22360,7 +22360,7 @@
         <v>45090</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22417,7 +22417,7 @@
         <v>45103</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>45104</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22541,7 +22541,7 @@
         <v>45106</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22598,7 +22598,7 @@
         <v>45107</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22660,7 +22660,7 @@
         <v>45107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22722,7 +22722,7 @@
         <v>45110</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>45111</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>45112</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22903,7 +22903,7 @@
         <v>45117</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22965,7 +22965,7 @@
         <v>45124</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23022,7 +23022,7 @@
         <v>45139</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23084,7 +23084,7 @@
         <v>45147</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23141,7 +23141,7 @@
         <v>45147</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>45154</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23260,7 +23260,7 @@
         <v>45154</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23317,7 +23317,7 @@
         <v>45155</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>45155</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>45160</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23503,7 +23503,7 @@
         <v>45166</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23560,7 +23560,7 @@
         <v>45169</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>

--- a/Översikt SORSELE.xlsx
+++ b/Översikt SORSELE.xlsx
@@ -572,7 +572,7 @@
         <v>44693</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>45085</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>44337</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         <v>44078</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>44078</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44088</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>44865</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43648</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>44621</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         <v>45107</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>44432</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>44078</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44426</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43773</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>44078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>44370</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>43851</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43648</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43515</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43909</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>44386</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>44865</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>44336</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>44295</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>44518</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>44841</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>44137</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>44432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44845</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>44049</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>44075</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>44078</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44432</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>44841</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>45081</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43432</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43482</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43654</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43858</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>44265</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44440</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44719</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>45071</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>43325</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43333</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>43340</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43342</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43342</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43349</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>43385</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>43397</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>43397</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43397</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43405</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43416</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43419</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43432</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43433</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43434</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43445</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>43482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>43482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6255,7 +6255,7 @@
         <v>43482</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>43482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>43495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>43495</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
         <v>43495</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>43495</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         <v>43503</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>43510</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>43525</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>43601</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43601</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>43605</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>43605</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>43607</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>43607</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43621</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>43623</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>43675</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>43678</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43679</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43699</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>43699</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>43699</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>43702</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>43705</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>43719</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8196,7 +8196,7 @@
         <v>43719</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>43738</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>43738</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>43738</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43752</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43754</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43758</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43762</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43766</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43766</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43773</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43773</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>43794</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>43811</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>43831</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>43831</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43831</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43880</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43909</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43914</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43917</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43920</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>43922</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43922</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43935</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>43958</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         <v>43958</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43965</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>43990</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>43991</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9956,7 +9956,7 @@
         <v>43991</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>44000</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>44000</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44000</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>44013</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44041</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44041</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44043</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10447,7 +10447,7 @@
         <v>44063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44063</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>44078</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44078</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10695,7 +10695,7 @@
         <v>44078</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
         <v>44078</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         <v>44083</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         <v>44090</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>44098</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44102</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>44102</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11124,7 +11124,7 @@
         <v>44102</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>44102</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44113</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44136</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44141</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44144</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>44145</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>44145</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>44145</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44150</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44164</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44173</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44179</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44180</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>44203</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44207</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44218</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44218</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44222</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44227</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44234</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44234</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44235</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44251</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44251</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44258</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44272</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44277</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44287</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>44287</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>44295</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13050,7 +13050,7 @@
         <v>44295</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13107,7 +13107,7 @@
         <v>44295</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>44298</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44298</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44298</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>44317</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>44317</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44322</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44326</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44326</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44326</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44326</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44330</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44349</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44350</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44350</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44355</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44355</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44364</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44364</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44376</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44377</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44392</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>44426</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>44432</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         <v>44439</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>44448</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         <v>44466</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>44468</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>44473</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>44473</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>44473</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>44494</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>44496</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>44496</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44501</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44505</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>44518</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15256,7 +15256,7 @@
         <v>44531</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15313,7 +15313,7 @@
         <v>44532</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15370,7 +15370,7 @@
         <v>44533</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         <v>44538</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15484,7 +15484,7 @@
         <v>44546</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15541,7 +15541,7 @@
         <v>44546</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15598,7 +15598,7 @@
         <v>44546</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15655,7 +15655,7 @@
         <v>44546</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15712,7 +15712,7 @@
         <v>44550</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
         <v>44566</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         <v>44606</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15883,7 +15883,7 @@
         <v>44606</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15940,7 +15940,7 @@
         <v>44619</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15997,7 +15997,7 @@
         <v>44621</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16054,7 +16054,7 @@
         <v>44638</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16111,7 +16111,7 @@
         <v>44648</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16168,7 +16168,7 @@
         <v>44657</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>44657</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>44657</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>44657</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>44719</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>44719</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>44719</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16567,7 +16567,7 @@
         <v>44719</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         <v>44725</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16681,7 +16681,7 @@
         <v>44725</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16738,7 +16738,7 @@
         <v>44731</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         <v>44734</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16852,7 +16852,7 @@
         <v>44784</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>44796</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16976,7 +16976,7 @@
         <v>44797</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17033,7 +17033,7 @@
         <v>44834</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17090,7 +17090,7 @@
         <v>44837</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17147,7 +17147,7 @@
         <v>44837</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17204,7 +17204,7 @@
         <v>44841</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17261,7 +17261,7 @@
         <v>44841</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17318,7 +17318,7 @@
         <v>44841</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17375,7 +17375,7 @@
         <v>44845</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17432,7 +17432,7 @@
         <v>44845</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>44845</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
         <v>44846</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>44851</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>44851</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>44851</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>44851</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>44851</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44852</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>44860</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18037,7 +18037,7 @@
         <v>44866</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>44866</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18156,7 +18156,7 @@
         <v>44867</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18218,7 +18218,7 @@
         <v>44867</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>44869</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>44869</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18404,7 +18404,7 @@
         <v>44869</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         <v>44879</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>44879</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18580,7 +18580,7 @@
         <v>44882</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>44886</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18699,7 +18699,7 @@
         <v>44890</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
         <v>44890</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>44893</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44893</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>44895</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44897</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>44900</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>44900</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>44900</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>44907</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>44908</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>44914</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19393,7 +19393,7 @@
         <v>44914</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>44916</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>44916</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44917</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44917</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44917</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>44928</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44928</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44958</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44963</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44969</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44974</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44978</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44978</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44978</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>44978</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44978</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44984</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>44989</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20511,7 +20511,7 @@
         <v>44992</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>44992</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20625,7 +20625,7 @@
         <v>44994</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20682,7 +20682,7 @@
         <v>44999</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>44999</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>45001</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         <v>45002</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>45002</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>45002</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>45002</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>45008</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>45015</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>45027</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>45029</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>45029</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>45029</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>45043</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>45054</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>45054</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>45056</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>45056</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21723,7 +21723,7 @@
         <v>45057</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21780,7 +21780,7 @@
         <v>45063</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21837,7 +21837,7 @@
         <v>45065</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21894,7 +21894,7 @@
         <v>45068</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21951,7 +21951,7 @@
         <v>45069</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>45072</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>45072</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>45075</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>45084</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>45085</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22303,7 +22303,7 @@
         <v>45086</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22360,7 +22360,7 @@
         <v>45090</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22417,7 +22417,7 @@
         <v>45103</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>45104</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22541,7 +22541,7 @@
         <v>45106</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22598,7 +22598,7 @@
         <v>45107</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22660,7 +22660,7 @@
         <v>45107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22722,7 +22722,7 @@
         <v>45110</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>45111</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>45112</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22903,7 +22903,7 @@
         <v>45117</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22965,7 +22965,7 @@
         <v>45124</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23022,7 +23022,7 @@
         <v>45139</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23084,7 +23084,7 @@
         <v>45147</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23141,7 +23141,7 @@
         <v>45147</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>45154</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23260,7 +23260,7 @@
         <v>45154</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23317,7 +23317,7 @@
         <v>45155</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>45155</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>45160</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23503,7 +23503,7 @@
         <v>45166</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23560,7 +23560,7 @@
         <v>45169</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>

--- a/Översikt SORSELE.xlsx
+++ b/Översikt SORSELE.xlsx
@@ -572,7 +572,7 @@
         <v>44693</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>45085</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>44337</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         <v>44078</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>44078</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44088</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>44865</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43648</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>44621</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         <v>45107</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>44432</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>44078</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44426</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43773</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>44078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>44370</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>43851</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43648</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43515</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43909</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>44386</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>44865</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>44336</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>44295</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>44518</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>44841</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>44137</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>44432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44845</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>44049</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>44075</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>44078</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44432</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>44841</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>45081</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43432</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43482</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43654</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43858</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>44265</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44440</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44719</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>45071</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>43325</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43333</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>43340</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43342</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43342</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43349</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>43385</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>43397</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>43397</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43397</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43405</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43416</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43419</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43432</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43433</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43434</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43445</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>43482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>43482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6255,7 +6255,7 @@
         <v>43482</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>43482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>43495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>43495</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
         <v>43495</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>43495</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         <v>43503</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>43510</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>43525</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>43601</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43601</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>43605</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>43605</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>43607</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>43607</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43621</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>43623</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>43675</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>43678</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43679</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43699</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>43699</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>43699</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>43702</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>43705</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>43719</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8196,7 +8196,7 @@
         <v>43719</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>43738</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>43738</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>43738</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43752</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43754</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43758</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43762</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43766</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43766</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43773</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43773</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>43794</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>43811</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>43831</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>43831</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43831</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43880</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43909</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43914</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43917</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43920</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>43922</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43922</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43935</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>43958</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         <v>43958</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43965</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>43990</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>43991</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9956,7 +9956,7 @@
         <v>43991</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>44000</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>44000</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44000</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>44013</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44041</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44041</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44043</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10447,7 +10447,7 @@
         <v>44063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44063</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>44078</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44078</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10695,7 +10695,7 @@
         <v>44078</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
         <v>44078</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         <v>44083</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         <v>44090</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>44098</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44102</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>44102</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11124,7 +11124,7 @@
         <v>44102</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>44102</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44113</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44136</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44141</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44144</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>44145</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>44145</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>44145</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44150</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44164</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44173</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44179</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44180</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>44203</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44207</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44218</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44218</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44222</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44227</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44234</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44234</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44235</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44251</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44251</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44258</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44272</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44277</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44287</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>44287</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>44295</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13050,7 +13050,7 @@
         <v>44295</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13107,7 +13107,7 @@
         <v>44295</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>44298</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44298</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44298</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>44317</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>44317</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44322</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44326</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44326</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44326</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44326</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44330</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44349</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44350</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44350</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44355</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44355</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44364</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44364</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44376</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44377</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44392</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>44426</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>44432</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         <v>44439</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>44448</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         <v>44466</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>44468</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>44473</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>44473</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>44473</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>44494</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>44496</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>44496</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44501</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44505</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>44518</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15256,7 +15256,7 @@
         <v>44531</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15313,7 +15313,7 @@
         <v>44532</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15370,7 +15370,7 @@
         <v>44533</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         <v>44538</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15484,7 +15484,7 @@
         <v>44546</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15541,7 +15541,7 @@
         <v>44546</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15598,7 +15598,7 @@
         <v>44546</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15655,7 +15655,7 @@
         <v>44546</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15712,7 +15712,7 @@
         <v>44550</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
         <v>44566</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         <v>44606</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15883,7 +15883,7 @@
         <v>44606</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15940,7 +15940,7 @@
         <v>44619</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15997,7 +15997,7 @@
         <v>44621</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16054,7 +16054,7 @@
         <v>44638</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16111,7 +16111,7 @@
         <v>44648</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16168,7 +16168,7 @@
         <v>44657</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>44657</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>44657</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>44657</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>44719</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>44719</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>44719</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16567,7 +16567,7 @@
         <v>44719</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         <v>44725</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16681,7 +16681,7 @@
         <v>44725</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16738,7 +16738,7 @@
         <v>44731</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         <v>44734</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16852,7 +16852,7 @@
         <v>44784</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>44796</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16976,7 +16976,7 @@
         <v>44797</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17033,7 +17033,7 @@
         <v>44834</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17090,7 +17090,7 @@
         <v>44837</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17147,7 +17147,7 @@
         <v>44837</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17204,7 +17204,7 @@
         <v>44841</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17261,7 +17261,7 @@
         <v>44841</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17318,7 +17318,7 @@
         <v>44841</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17375,7 +17375,7 @@
         <v>44845</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17432,7 +17432,7 @@
         <v>44845</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>44845</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
         <v>44846</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>44851</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>44851</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>44851</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>44851</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>44851</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44852</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>44860</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18037,7 +18037,7 @@
         <v>44866</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>44866</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18156,7 +18156,7 @@
         <v>44867</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18218,7 +18218,7 @@
         <v>44867</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>44869</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>44869</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18404,7 +18404,7 @@
         <v>44869</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         <v>44879</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>44879</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18580,7 +18580,7 @@
         <v>44882</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>44886</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18699,7 +18699,7 @@
         <v>44890</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
         <v>44890</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>44893</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44893</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>44895</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44897</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>44900</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>44900</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>44900</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>44907</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>44908</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>44914</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19393,7 +19393,7 @@
         <v>44914</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>44916</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>44916</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44917</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44917</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44917</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>44928</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44928</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44958</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44963</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44969</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44974</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44978</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44978</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44978</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>44978</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44978</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44984</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>44989</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20511,7 +20511,7 @@
         <v>44992</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>44992</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20625,7 +20625,7 @@
         <v>44994</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20682,7 +20682,7 @@
         <v>44999</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>44999</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>45001</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         <v>45002</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>45002</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>45002</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>45002</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>45008</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>45015</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>45027</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>45029</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>45029</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>45029</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>45043</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>45054</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>45054</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>45056</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>45056</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21723,7 +21723,7 @@
         <v>45057</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21780,7 +21780,7 @@
         <v>45063</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21837,7 +21837,7 @@
         <v>45065</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21894,7 +21894,7 @@
         <v>45068</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21951,7 +21951,7 @@
         <v>45069</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>45072</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>45072</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>45075</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>45084</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>45085</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22303,7 +22303,7 @@
         <v>45086</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22360,7 +22360,7 @@
         <v>45090</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22417,7 +22417,7 @@
         <v>45103</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>45104</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22541,7 +22541,7 @@
         <v>45106</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22598,7 +22598,7 @@
         <v>45107</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22660,7 +22660,7 @@
         <v>45107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22722,7 +22722,7 @@
         <v>45110</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>45111</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>45112</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22903,7 +22903,7 @@
         <v>45117</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22965,7 +22965,7 @@
         <v>45124</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23022,7 +23022,7 @@
         <v>45139</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23084,7 +23084,7 @@
         <v>45147</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23141,7 +23141,7 @@
         <v>45147</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>45154</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23260,7 +23260,7 @@
         <v>45154</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23317,7 +23317,7 @@
         <v>45155</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>45155</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>45160</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23503,7 +23503,7 @@
         <v>45166</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23560,7 +23560,7 @@
         <v>45169</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>

--- a/Översikt SORSELE.xlsx
+++ b/Översikt SORSELE.xlsx
@@ -572,7 +572,7 @@
         <v>44693</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>45085</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>44337</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         <v>44078</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>44078</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44088</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>44865</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43648</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>44621</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         <v>45107</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>44432</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>44078</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44426</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43773</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>44078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>44370</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>43851</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43648</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43515</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43909</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>44386</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>44865</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>44336</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>44295</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>44518</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>44841</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>44137</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>44432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44845</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>44049</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>44075</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>44078</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44432</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>44841</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>45081</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43432</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43482</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43654</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43858</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>44265</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44440</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44719</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>45071</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>43325</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43333</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>43340</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43342</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43342</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43349</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>43385</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>43397</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>43397</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43397</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43405</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43416</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43419</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43432</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43433</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43434</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43445</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>43482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>43482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6255,7 +6255,7 @@
         <v>43482</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>43482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>43495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>43495</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
         <v>43495</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>43495</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         <v>43503</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>43510</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>43525</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>43601</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43601</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>43605</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>43605</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>43607</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>43607</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43621</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>43623</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>43675</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>43678</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43679</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43699</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>43699</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>43699</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>43702</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>43705</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>43719</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8196,7 +8196,7 @@
         <v>43719</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>43738</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>43738</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>43738</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43752</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43754</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43758</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43762</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43766</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43766</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43773</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43773</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>43794</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>43811</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>43831</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>43831</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43831</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43880</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43909</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43914</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43917</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43920</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>43922</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43922</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43935</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>43958</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         <v>43958</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43965</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>43990</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>43991</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9956,7 +9956,7 @@
         <v>43991</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>44000</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>44000</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44000</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>44013</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44041</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44041</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44043</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10447,7 +10447,7 @@
         <v>44063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44063</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>44078</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44078</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10695,7 +10695,7 @@
         <v>44078</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
         <v>44078</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         <v>44083</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         <v>44090</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>44098</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44102</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>44102</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11124,7 +11124,7 @@
         <v>44102</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>44102</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44113</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44136</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44141</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44144</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>44145</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>44145</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>44145</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44150</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44164</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44173</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44179</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44180</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>44203</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44207</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44218</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44218</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44222</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44227</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44234</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44234</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44235</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44251</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44251</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44258</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44272</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44277</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44287</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>44287</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>44295</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13050,7 +13050,7 @@
         <v>44295</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13107,7 +13107,7 @@
         <v>44295</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>44298</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44298</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44298</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>44317</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>44317</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44322</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44326</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44326</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44326</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44326</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44330</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44349</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44350</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44350</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44355</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44355</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44364</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44364</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44376</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44377</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44392</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>44426</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>44432</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         <v>44439</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>44448</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         <v>44466</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>44468</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>44473</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>44473</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>44473</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>44494</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>44496</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>44496</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44501</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44505</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>44518</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15256,7 +15256,7 @@
         <v>44531</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15313,7 +15313,7 @@
         <v>44532</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15370,7 +15370,7 @@
         <v>44533</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         <v>44538</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15484,7 +15484,7 @@
         <v>44546</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15541,7 +15541,7 @@
         <v>44546</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15598,7 +15598,7 @@
         <v>44546</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15655,7 +15655,7 @@
         <v>44546</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15712,7 +15712,7 @@
         <v>44550</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
         <v>44566</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         <v>44606</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15883,7 +15883,7 @@
         <v>44606</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15940,7 +15940,7 @@
         <v>44619</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15997,7 +15997,7 @@
         <v>44621</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16054,7 +16054,7 @@
         <v>44638</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16111,7 +16111,7 @@
         <v>44648</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16168,7 +16168,7 @@
         <v>44657</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>44657</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>44657</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>44657</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>44719</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>44719</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>44719</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16567,7 +16567,7 @@
         <v>44719</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         <v>44725</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16681,7 +16681,7 @@
         <v>44725</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16738,7 +16738,7 @@
         <v>44731</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         <v>44734</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16852,7 +16852,7 @@
         <v>44784</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>44796</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16976,7 +16976,7 @@
         <v>44797</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17033,7 +17033,7 @@
         <v>44834</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17090,7 +17090,7 @@
         <v>44837</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17147,7 +17147,7 @@
         <v>44837</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17204,7 +17204,7 @@
         <v>44841</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17261,7 +17261,7 @@
         <v>44841</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17318,7 +17318,7 @@
         <v>44841</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17375,7 +17375,7 @@
         <v>44845</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17432,7 +17432,7 @@
         <v>44845</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>44845</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
         <v>44846</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>44851</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>44851</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>44851</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>44851</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>44851</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44852</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>44860</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18037,7 +18037,7 @@
         <v>44866</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>44866</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18156,7 +18156,7 @@
         <v>44867</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18218,7 +18218,7 @@
         <v>44867</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>44869</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>44869</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18404,7 +18404,7 @@
         <v>44869</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         <v>44879</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>44879</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18580,7 +18580,7 @@
         <v>44882</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>44886</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18699,7 +18699,7 @@
         <v>44890</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
         <v>44890</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>44893</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44893</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>44895</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44897</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>44900</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>44900</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>44900</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>44907</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>44908</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>44914</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19393,7 +19393,7 @@
         <v>44914</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>44916</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>44916</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44917</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44917</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44917</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>44928</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44928</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44958</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44963</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44969</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44974</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44978</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44978</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44978</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>44978</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44978</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44984</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>44989</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20511,7 +20511,7 @@
         <v>44992</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>44992</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20625,7 +20625,7 @@
         <v>44994</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20682,7 +20682,7 @@
         <v>44999</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>44999</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>45001</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         <v>45002</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>45002</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>45002</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>45002</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>45008</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>45015</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>45027</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>45029</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>45029</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>45029</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>45043</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>45054</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>45054</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>45056</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>45056</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21723,7 +21723,7 @@
         <v>45057</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21780,7 +21780,7 @@
         <v>45063</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21837,7 +21837,7 @@
         <v>45065</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21894,7 +21894,7 @@
         <v>45068</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21951,7 +21951,7 @@
         <v>45069</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>45072</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>45072</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>45075</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>45084</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>45085</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22303,7 +22303,7 @@
         <v>45086</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22360,7 +22360,7 @@
         <v>45090</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22417,7 +22417,7 @@
         <v>45103</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>45104</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22541,7 +22541,7 @@
         <v>45106</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22598,7 +22598,7 @@
         <v>45107</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22660,7 +22660,7 @@
         <v>45107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22722,7 +22722,7 @@
         <v>45110</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>45111</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>45112</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22903,7 +22903,7 @@
         <v>45117</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22965,7 +22965,7 @@
         <v>45124</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23022,7 +23022,7 @@
         <v>45139</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23084,7 +23084,7 @@
         <v>45147</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23141,7 +23141,7 @@
         <v>45147</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>45154</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23260,7 +23260,7 @@
         <v>45154</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23317,7 +23317,7 @@
         <v>45155</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>45155</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>45160</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23503,7 +23503,7 @@
         <v>45166</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23560,7 +23560,7 @@
         <v>45169</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>

--- a/Översikt SORSELE.xlsx
+++ b/Översikt SORSELE.xlsx
@@ -572,7 +572,7 @@
         <v>44693</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>45085</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>44337</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         <v>44078</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>44078</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44088</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>44865</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43648</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>44621</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         <v>45107</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>44432</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>44078</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44426</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43773</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>44078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>44370</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>43851</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43648</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43515</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43909</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>44386</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>44865</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>44336</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>44295</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>44518</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>44841</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>44137</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>44432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44845</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>44049</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>44075</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>44078</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44432</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>44841</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>45081</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43432</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43482</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43654</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43858</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>44265</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44440</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44719</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>45071</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>43325</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43333</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>43340</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43342</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43342</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43349</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>43385</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>43397</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>43397</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43397</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43405</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43416</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43419</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43432</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43433</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43434</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43445</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>43482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>43482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6255,7 +6255,7 @@
         <v>43482</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>43482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>43495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>43495</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
         <v>43495</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>43495</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         <v>43503</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>43510</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>43525</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>43601</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43601</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>43605</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>43605</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>43607</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>43607</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43621</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>43623</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>43675</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>43678</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43679</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43699</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>43699</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>43699</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>43702</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>43705</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>43719</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8196,7 +8196,7 @@
         <v>43719</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>43738</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>43738</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>43738</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43752</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43754</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43758</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43762</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43766</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43766</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43773</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43773</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>43794</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>43811</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>43831</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>43831</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43831</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43880</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43909</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43914</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43917</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43920</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>43922</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43922</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43935</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>43958</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         <v>43958</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43965</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>43990</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>43991</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9956,7 +9956,7 @@
         <v>43991</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>44000</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>44000</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44000</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>44013</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44041</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44041</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44043</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10447,7 +10447,7 @@
         <v>44063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44063</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>44078</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44078</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10695,7 +10695,7 @@
         <v>44078</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
         <v>44078</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         <v>44083</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         <v>44090</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>44098</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44102</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>44102</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11124,7 +11124,7 @@
         <v>44102</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>44102</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44113</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44136</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44141</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44144</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>44145</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>44145</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>44145</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44150</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44164</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44173</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44179</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44180</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>44203</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44207</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44218</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44218</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44222</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44227</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44234</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44234</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44235</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44251</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44251</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44258</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44272</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44277</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44287</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>44287</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>44295</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13050,7 +13050,7 @@
         <v>44295</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13107,7 +13107,7 @@
         <v>44295</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>44298</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44298</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44298</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>44317</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>44317</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44322</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44326</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44326</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44326</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44326</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44330</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44349</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44350</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44350</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44355</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44355</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44364</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44364</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44376</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44377</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44392</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>44426</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>44432</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         <v>44439</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>44448</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         <v>44466</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>44468</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>44473</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>44473</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>44473</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>44494</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>44496</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>44496</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44501</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44505</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>44518</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15256,7 +15256,7 @@
         <v>44531</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15313,7 +15313,7 @@
         <v>44532</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15370,7 +15370,7 @@
         <v>44533</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         <v>44538</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15484,7 +15484,7 @@
         <v>44546</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15541,7 +15541,7 @@
         <v>44546</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15598,7 +15598,7 @@
         <v>44546</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15655,7 +15655,7 @@
         <v>44546</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15712,7 +15712,7 @@
         <v>44550</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
         <v>44566</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         <v>44606</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15883,7 +15883,7 @@
         <v>44606</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15940,7 +15940,7 @@
         <v>44619</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15997,7 +15997,7 @@
         <v>44621</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16054,7 +16054,7 @@
         <v>44638</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16111,7 +16111,7 @@
         <v>44648</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16168,7 +16168,7 @@
         <v>44657</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>44657</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>44657</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>44657</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>44719</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>44719</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>44719</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16567,7 +16567,7 @@
         <v>44719</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         <v>44725</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16681,7 +16681,7 @@
         <v>44725</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16738,7 +16738,7 @@
         <v>44731</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         <v>44734</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16852,7 +16852,7 @@
         <v>44784</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>44796</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16976,7 +16976,7 @@
         <v>44797</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17033,7 +17033,7 @@
         <v>44834</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17090,7 +17090,7 @@
         <v>44837</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17147,7 +17147,7 @@
         <v>44837</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17204,7 +17204,7 @@
         <v>44841</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17261,7 +17261,7 @@
         <v>44841</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17318,7 +17318,7 @@
         <v>44841</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17375,7 +17375,7 @@
         <v>44845</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17432,7 +17432,7 @@
         <v>44845</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>44845</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
         <v>44846</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>44851</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>44851</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>44851</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>44851</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>44851</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44852</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>44860</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18037,7 +18037,7 @@
         <v>44866</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>44866</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18156,7 +18156,7 @@
         <v>44867</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18218,7 +18218,7 @@
         <v>44867</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>44869</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>44869</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18404,7 +18404,7 @@
         <v>44869</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         <v>44879</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>44879</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18580,7 +18580,7 @@
         <v>44882</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>44886</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18699,7 +18699,7 @@
         <v>44890</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
         <v>44890</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>44893</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44893</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>44895</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44897</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>44900</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>44900</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>44900</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>44907</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>44908</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>44914</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19393,7 +19393,7 @@
         <v>44914</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>44916</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>44916</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44917</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44917</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44917</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>44928</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44928</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44958</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44963</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44969</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44974</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44978</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44978</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44978</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>44978</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44978</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44984</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>44989</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20511,7 +20511,7 @@
         <v>44992</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>44992</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20625,7 +20625,7 @@
         <v>44994</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20682,7 +20682,7 @@
         <v>44999</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>44999</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>45001</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         <v>45002</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>45002</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>45002</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>45002</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>45008</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>45015</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>45027</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>45029</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>45029</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>45029</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>45043</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>45054</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>45054</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>45056</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>45056</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21723,7 +21723,7 @@
         <v>45057</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21780,7 +21780,7 @@
         <v>45063</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21837,7 +21837,7 @@
         <v>45065</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21894,7 +21894,7 @@
         <v>45068</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21951,7 +21951,7 @@
         <v>45069</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>45072</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>45072</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>45075</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>45084</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>45085</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22303,7 +22303,7 @@
         <v>45086</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22360,7 +22360,7 @@
         <v>45090</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22417,7 +22417,7 @@
         <v>45103</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>45104</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22541,7 +22541,7 @@
         <v>45106</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22598,7 +22598,7 @@
         <v>45107</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22660,7 +22660,7 @@
         <v>45107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22722,7 +22722,7 @@
         <v>45110</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>45111</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>45112</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22903,7 +22903,7 @@
         <v>45117</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22965,7 +22965,7 @@
         <v>45124</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23022,7 +23022,7 @@
         <v>45139</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23084,7 +23084,7 @@
         <v>45147</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23141,7 +23141,7 @@
         <v>45147</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>45154</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23260,7 +23260,7 @@
         <v>45154</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23317,7 +23317,7 @@
         <v>45155</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>45155</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>45160</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23503,7 +23503,7 @@
         <v>45166</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23560,7 +23560,7 @@
         <v>45169</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>

--- a/Översikt SORSELE.xlsx
+++ b/Översikt SORSELE.xlsx
@@ -572,7 +572,7 @@
         <v>44693</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>45085</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>44337</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         <v>44078</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
         <v>44078</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1114,7 +1114,7 @@
         <v>44088</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         <v>44865</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>43648</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>44621</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         <v>45107</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>44432</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         <v>44078</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44426</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>43773</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>44078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>44370</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>43851</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>43648</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43515</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>43909</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>44386</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         <v>44865</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
         <v>44336</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>44295</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>44518</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>44841</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>44137</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3323,7 +3323,7 @@
         <v>44432</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44845</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
         <v>44049</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>44075</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>44078</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
         <v>44432</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
         <v>44841</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
         <v>45081</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43432</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43482</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43654</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43858</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>44265</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44440</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>44719</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>45071</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>43325</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>43333</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>43340</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>43342</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>43342</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>43349</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5080,7 +5080,7 @@
         <v>43385</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>43397</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5194,7 +5194,7 @@
         <v>43397</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>43397</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>43405</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>43416</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>43419</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>43432</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>43433</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
         <v>43434</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>43445</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>43451</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>43482</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         <v>43482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>43482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>43482</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         <v>43482</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6193,7 +6193,7 @@
         <v>43482</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6255,7 +6255,7 @@
         <v>43482</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>43482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6379,7 +6379,7 @@
         <v>43482</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>43482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43482</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6679,7 +6679,7 @@
         <v>43495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>43495</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
         <v>43495</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>43495</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         <v>43503</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>43510</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>43525</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>43601</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43601</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>43605</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>43605</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>43605</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>43607</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
         <v>43607</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43621</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>43623</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>43675</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>43678</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>43679</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43699</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>43699</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>43699</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>43702</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>43705</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>43719</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8196,7 +8196,7 @@
         <v>43719</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>43738</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>43738</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>43738</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>43752</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>43754</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43758</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43762</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43766</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43766</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>43773</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         <v>43773</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>43794</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>43811</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>43831</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>43831</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43831</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43880</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43909</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>43914</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43917</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>43920</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>43922</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>43922</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>43935</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9671,7 +9671,7 @@
         <v>43958</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         <v>43958</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>43965</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>43990</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>43991</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9956,7 +9956,7 @@
         <v>43991</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10013,7 +10013,7 @@
         <v>44000</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>44000</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44000</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10199,7 +10199,7 @@
         <v>44013</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>44041</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44041</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>44043</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10447,7 +10447,7 @@
         <v>44063</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>44063</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>44078</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44078</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10695,7 +10695,7 @@
         <v>44078</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
         <v>44078</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         <v>44083</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         <v>44090</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>44098</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>44102</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>44102</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11124,7 +11124,7 @@
         <v>44102</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         <v>44102</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44113</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44136</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>44141</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>44144</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>44145</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11538,7 +11538,7 @@
         <v>44145</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11595,7 +11595,7 @@
         <v>44145</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         <v>44148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         <v>44148</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11766,7 +11766,7 @@
         <v>44150</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>44164</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11880,7 +11880,7 @@
         <v>44173</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11937,7 +11937,7 @@
         <v>44179</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>44180</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
         <v>44203</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12108,7 +12108,7 @@
         <v>44207</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44218</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>44218</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>44222</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44227</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44234</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44234</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44235</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44251</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44251</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44258</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44272</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44277</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44287</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>44287</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>44295</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13050,7 +13050,7 @@
         <v>44295</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13107,7 +13107,7 @@
         <v>44295</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>44298</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44298</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13283,7 +13283,7 @@
         <v>44298</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>44317</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>44317</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13454,7 +13454,7 @@
         <v>44322</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44326</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44326</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44326</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13687,7 +13687,7 @@
         <v>44326</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
         <v>44330</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44349</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44350</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44350</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44355</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44355</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44364</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44364</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44376</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44377</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44392</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>44426</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>44432</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         <v>44439</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>44448</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         <v>44466</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>44468</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>44473</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14790,7 +14790,7 @@
         <v>44473</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>44473</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14914,7 +14914,7 @@
         <v>44494</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>44496</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>44496</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44501</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44505</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>44518</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15256,7 +15256,7 @@
         <v>44531</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15313,7 +15313,7 @@
         <v>44532</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15370,7 +15370,7 @@
         <v>44533</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         <v>44538</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15484,7 +15484,7 @@
         <v>44546</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15541,7 +15541,7 @@
         <v>44546</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15598,7 +15598,7 @@
         <v>44546</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15655,7 +15655,7 @@
         <v>44546</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15712,7 +15712,7 @@
         <v>44550</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
         <v>44566</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         <v>44606</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15883,7 +15883,7 @@
         <v>44606</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15940,7 +15940,7 @@
         <v>44619</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15997,7 +15997,7 @@
         <v>44621</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16054,7 +16054,7 @@
         <v>44638</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16111,7 +16111,7 @@
         <v>44648</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16168,7 +16168,7 @@
         <v>44657</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16225,7 +16225,7 @@
         <v>44657</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>44657</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>44657</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>44719</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16453,7 +16453,7 @@
         <v>44719</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>44719</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16567,7 +16567,7 @@
         <v>44719</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         <v>44725</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16681,7 +16681,7 @@
         <v>44725</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16738,7 +16738,7 @@
         <v>44731</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         <v>44734</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16852,7 +16852,7 @@
         <v>44784</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16914,7 +16914,7 @@
         <v>44796</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16976,7 +16976,7 @@
         <v>44797</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17033,7 +17033,7 @@
         <v>44834</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17090,7 +17090,7 @@
         <v>44837</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17147,7 +17147,7 @@
         <v>44837</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17204,7 +17204,7 @@
         <v>44841</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17261,7 +17261,7 @@
         <v>44841</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17318,7 +17318,7 @@
         <v>44841</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17375,7 +17375,7 @@
         <v>44845</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17432,7 +17432,7 @@
         <v>44845</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>44845</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
         <v>44846</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>44851</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17670,7 +17670,7 @@
         <v>44851</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>44851</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>44851</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>44851</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>44852</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>44860</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18037,7 +18037,7 @@
         <v>44866</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18099,7 +18099,7 @@
         <v>44866</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18156,7 +18156,7 @@
         <v>44867</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18218,7 +18218,7 @@
         <v>44867</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>44869</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18342,7 +18342,7 @@
         <v>44869</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18404,7 +18404,7 @@
         <v>44869</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         <v>44879</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>44879</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18580,7 +18580,7 @@
         <v>44882</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>44886</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18699,7 +18699,7 @@
         <v>44890</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
         <v>44890</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>44893</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>44893</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>44895</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>44897</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>44900</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>44900</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>44900</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>44907</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>44908</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         <v>44914</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19393,7 +19393,7 @@
         <v>44914</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>44916</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>44916</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>44917</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44917</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>44917</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>44928</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44928</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44958</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44963</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44969</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44974</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44978</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44978</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44978</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>44978</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>44978</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44984</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>44989</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20511,7 +20511,7 @@
         <v>44992</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>44992</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20625,7 +20625,7 @@
         <v>44994</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20682,7 +20682,7 @@
         <v>44999</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>44999</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
         <v>45001</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         <v>45002</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20910,7 +20910,7 @@
         <v>45002</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20967,7 +20967,7 @@
         <v>45002</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21024,7 +21024,7 @@
         <v>45002</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21081,7 +21081,7 @@
         <v>45008</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>45015</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>45027</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>45029</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>45029</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>45029</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>45043</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>45054</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>45054</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>45056</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>45056</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21723,7 +21723,7 @@
         <v>45057</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21780,7 +21780,7 @@
         <v>45063</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21837,7 +21837,7 @@
         <v>45065</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21894,7 +21894,7 @@
         <v>45068</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21951,7 +21951,7 @@
         <v>45069</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>45072</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>45072</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>45075</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>45084</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>45085</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22303,7 +22303,7 @@
         <v>45086</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22360,7 +22360,7 @@
         <v>45090</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22417,7 +22417,7 @@
         <v>45103</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>45104</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22541,7 +22541,7 @@
         <v>45106</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22598,7 +22598,7 @@
         <v>45107</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22660,7 +22660,7 @@
         <v>45107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22722,7 +22722,7 @@
         <v>45110</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22784,7 +22784,7 @@
         <v>45111</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22841,7 +22841,7 @@
         <v>45112</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22903,7 +22903,7 @@
         <v>45117</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22965,7 +22965,7 @@
         <v>45124</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23022,7 +23022,7 @@
         <v>45139</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23084,7 +23084,7 @@
         <v>45147</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23141,7 +23141,7 @@
         <v>45147</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>45154</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23260,7 +23260,7 @@
         <v>45154</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23317,7 +23317,7 @@
         <v>45155</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>45155</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>45160</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23503,7 +23503,7 @@
         <v>45166</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23560,7 +23560,7 @@
         <v>45169</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
